--- a/Docs/Printer Part Codes.xlsx
+++ b/Docs/Printer Part Codes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\Clock2\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E32109-14BB-4FF7-B20F-1A4A2729BA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43E88D2-2DF4-4E11-B349-8CDDBF60B26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23436" yWindow="684" windowWidth="21468" windowHeight="11352" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
+    <workbookView xWindow="23712" yWindow="960" windowWidth="21468" windowHeight="11352" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="69">
   <si>
     <t>Component</t>
   </si>
@@ -223,6 +223,24 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>STL Filename</t>
+  </si>
+  <si>
+    <t>Bowden Mount</t>
+  </si>
+  <si>
+    <t>BMG Bowden Mount</t>
+  </si>
+  <si>
+    <t>Bowden Coupler</t>
+  </si>
+  <si>
+    <t>Hotend adapter for bowden</t>
+  </si>
+  <si>
+    <t>Gantry Lock</t>
   </si>
 </sst>
 </file>
@@ -266,9 +284,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -287,8 +307,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:H47" totalsRowShown="0">
-  <autoFilter ref="A1:H47" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I50" totalsRowShown="0">
+  <autoFilter ref="A1:I50" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -297,11 +317,12 @@
     <filterColumn colId="5" hiddenButton="1"/>
     <filterColumn colId="6" hiddenButton="1"/>
     <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H47">
-    <sortCondition ref="A1:A47"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I49">
+    <sortCondition ref="A1:A49"/>
   </sortState>
-  <tableColumns count="8">
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A8EA61BD-839A-4759-B873-CEDA7BEA684B}" name="Number"/>
     <tableColumn id="2" xr3:uid="{926BBC7C-2486-48E4-9BC6-985A230D6D2C}" name="Category"/>
     <tableColumn id="3" xr3:uid="{7E4828A1-DEFC-42E1-B49C-2FA9CE14DAFC}" name="Component"/>
@@ -309,6 +330,7 @@
     <tableColumn id="5" xr3:uid="{F485EE51-7281-43C9-BDF3-784C9FCF3319}" name="Name or Location"/>
     <tableColumn id="7" xr3:uid="{69C26183-B33F-4D8D-A901-9DFC879E5484}" name="Material"/>
     <tableColumn id="8" xr3:uid="{E02C7714-2483-4D13-AE3F-938B24F1DC26}" name="Qty"/>
+    <tableColumn id="9" xr3:uid="{2CDB0871-5B60-47E8-947B-D1E55965C018}" name="STL Filename"/>
     <tableColumn id="6" xr3:uid="{6584E548-497F-4E36-8AA8-8903B11B5D8A}" name="Note"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -612,10 +634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC8DB31-6D45-4FED-94B6-5390BD4B0F2C}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,10 +649,11 @@
     <col min="5" max="5" width="20.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -653,11 +676,14 @@
         <v>61</v>
       </c>
       <c r="H1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -679,8 +705,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -702,8 +728,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -725,8 +751,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -748,8 +774,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -771,8 +797,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -794,8 +820,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -817,8 +843,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -840,8 +866,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -863,7 +889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -886,7 +912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -909,7 +935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -932,7 +958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -955,7 +981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -978,7 +1004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1001,7 +1027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1024,7 +1050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1047,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1069,11 +1095,11 @@
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1096,7 +1122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1119,7 +1145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1142,7 +1168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1165,7 +1191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1188,7 +1214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1211,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1234,7 +1260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1257,7 +1283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1280,7 +1306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1303,7 +1329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1325,9 +1351,9 @@
       <c r="G30">
         <v>1</v>
       </c>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1349,9 +1375,9 @@
       <c r="G31">
         <v>1</v>
       </c>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1373,9 +1399,9 @@
       <c r="G32">
         <v>1</v>
       </c>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1397,9 +1423,9 @@
       <c r="G33">
         <v>1</v>
       </c>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1421,9 +1447,9 @@
       <c r="G34">
         <v>1</v>
       </c>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1446,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1469,7 +1495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>41</v>
       </c>
@@ -1492,7 +1518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>42</v>
       </c>
@@ -1515,7 +1541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>43</v>
       </c>
@@ -1538,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>44</v>
       </c>
@@ -1561,7 +1587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>45</v>
       </c>
@@ -1584,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>51</v>
       </c>
@@ -1607,79 +1633,80 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
       </c>
       <c r="C43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" t="s">
+        <v>57</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="s">
         <v>50</v>
       </c>
-      <c r="D43" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="D44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
         <v>49</v>
       </c>
-      <c r="F43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="F44" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>62</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>65</v>
+      </c>
+      <c r="F45" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>90</v>
-      </c>
-      <c r="B44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
-        <v>39</v>
-      </c>
-      <c r="F44" t="s">
-        <v>57</v>
-      </c>
-      <c r="G44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>91</v>
-      </c>
-      <c r="B45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>40</v>
-      </c>
-      <c r="F45" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>92</v>
       </c>
       <c r="B46" t="s">
         <v>38</v>
@@ -1691,36 +1718,105 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
-      </c>
-      <c r="G46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="G46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="C47" t="s">
         <v>25</v>
       </c>
       <c r="D47" t="s">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47" t="s">
+        <v>57</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" t="s">
+        <v>37</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>93</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
         <v>9</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E49" t="s">
         <v>60</v>
       </c>
-      <c r="F47" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
+      <c r="F49" t="s">
+        <v>57</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>94</v>
+      </c>
+      <c r="B50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" t="s">
+        <v>57</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Printer Part Codes.xlsx
+++ b/Docs/Printer Part Codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43E88D2-2DF4-4E11-B349-8CDDBF60B26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C891AF68-A94F-4FAD-87AA-40C38E14CA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23712" yWindow="960" windowWidth="21468" windowHeight="11352" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
+    <workbookView xWindow="24264" yWindow="1512" windowWidth="21468" windowHeight="11352" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="119">
   <si>
     <t>Component</t>
   </si>
@@ -132,9 +132,6 @@
     <t>XY Joint</t>
   </si>
   <si>
-    <t>Linear Rail Stop</t>
-  </si>
-  <si>
     <t>Hotend</t>
   </si>
   <si>
@@ -241,6 +238,159 @@
   </si>
   <si>
     <t>Gantry Lock</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Lower Rail Bracket</t>
+  </si>
+  <si>
+    <t>01 - XY - Pulleys - L Bottom.stl</t>
+  </si>
+  <si>
+    <t>02 - XY - Pulleys - L Top.stl</t>
+  </si>
+  <si>
+    <t>05 - XY - XY Joint - L Top.stl</t>
+  </si>
+  <si>
+    <t>06 - XY - XY Joint - L Mid.stl</t>
+  </si>
+  <si>
+    <t>07 - XY - XY Joint - L Bottom.stl</t>
+  </si>
+  <si>
+    <t>03 - XY - Pulleys - R Bottom.stl</t>
+  </si>
+  <si>
+    <t>04 - XY - Pulleys - R Top.stl</t>
+  </si>
+  <si>
+    <t>08 - XY - XY Joint - R Top.stl</t>
+  </si>
+  <si>
+    <t>09 - XY - XY Joint - R Mid.stl</t>
+  </si>
+  <si>
+    <t>10 - XY - XY Joint - R Bottom.stl</t>
+  </si>
+  <si>
+    <t>11 - XY - Tensioner - Bolt Receiver.stl</t>
+  </si>
+  <si>
+    <t>12 - XY - Tensioner - Idler Seat.stl</t>
+  </si>
+  <si>
+    <t>13 - XY - Tensioner - Tensioner Cap.stl</t>
+  </si>
+  <si>
+    <t>14 - XY - Tensioner - Guide Frame.stl</t>
+  </si>
+  <si>
+    <t>15 - XY - Steppers - Bearing Support Plate.stl</t>
+  </si>
+  <si>
+    <t>16 - XY - Steppers - Stepper Mount.stl</t>
+  </si>
+  <si>
+    <t>17 - XY - Motion - L Y Axis Rail Guide.stl</t>
+  </si>
+  <si>
+    <t>18 - XY - Motion - R Y Axis Rail Guide.stl</t>
+  </si>
+  <si>
+    <t>19 - Z - Motion - Lower Rail Bracket.stl</t>
+  </si>
+  <si>
+    <t>20 - Z - Bed - Corner Bracket.stl</t>
+  </si>
+  <si>
+    <t>21 - Z - Motion - L Gantry.stl</t>
+  </si>
+  <si>
+    <t>22 - Z - Motion - R Gantry.stl</t>
+  </si>
+  <si>
+    <t>23 - Z - Steppers - L Stepper Mount.stl</t>
+  </si>
+  <si>
+    <t>24 - Z - Steppers - R Stepper Mount.stl</t>
+  </si>
+  <si>
+    <t>25 - Z - Motion - L Z1 Limit Switch.stl</t>
+  </si>
+  <si>
+    <t>26 - Z - Motion - R Z2 Limit Switch.stl</t>
+  </si>
+  <si>
+    <t>27 - Z - Motion - L Lead Screw Plate.stl</t>
+  </si>
+  <si>
+    <t>28 - Z - Motion - R Lead Screw Plate.stl</t>
+  </si>
+  <si>
+    <t>29 - Z - Bed - Wire Support.stl</t>
+  </si>
+  <si>
+    <t>30 - X Gantry - Carriage Mount.stl</t>
+  </si>
+  <si>
+    <t>31 - X Gantry - Top Mount.stl</t>
+  </si>
+  <si>
+    <t>32 - X Gantry - Back Plate.stl</t>
+  </si>
+  <si>
+    <t>33 - X Gantry - Front Plate.stl</t>
+  </si>
+  <si>
+    <t>34 - Gantry - Carriage - L Belt Clamp.stl</t>
+  </si>
+  <si>
+    <t>35 - Gantry - Carriage - R Belt Clamp.stl</t>
+  </si>
+  <si>
+    <t>40 - X Gantry - Hotend - Mounting Bracket.stl</t>
+  </si>
+  <si>
+    <t>41 - X Gantry - Hotend - Locking Collar.stl</t>
+  </si>
+  <si>
+    <t>42 - X Gantry - Hotend - Fan Intake.stl</t>
+  </si>
+  <si>
+    <t>43 - X Gantry - Hotend - PTFE Collar (TPU).stl</t>
+  </si>
+  <si>
+    <t>44 - Gantry - Hotend  - EVA Duct.stl</t>
+  </si>
+  <si>
+    <t>45 - Gantry - Hotend - Fan Mount.stl</t>
+  </si>
+  <si>
+    <t>51 - ABL - Mount - BLTouch.stl</t>
+  </si>
+  <si>
+    <t>61 - Extruder - Mount - BMG.stl</t>
+  </si>
+  <si>
+    <t>62 - Extruder - Bowden Mount - Bowden BMG Mount.stl</t>
+  </si>
+  <si>
+    <t>90 - Misc - Bracket Cover.stl</t>
+  </si>
+  <si>
+    <t>91 - Misc - Limit Switch Cap.stl</t>
+  </si>
+  <si>
+    <t>92 - Misc - Frame Base Foot (TPU).stl</t>
+  </si>
+  <si>
+    <t>93 - XY - Motion - X Limit Switch Mount.stl</t>
+  </si>
+  <si>
+    <t>94 - Misc - Tools - Gantry Lock.stl</t>
   </si>
 </sst>
 </file>
@@ -330,8 +480,8 @@
     <tableColumn id="5" xr3:uid="{F485EE51-7281-43C9-BDF3-784C9FCF3319}" name="Name or Location"/>
     <tableColumn id="7" xr3:uid="{69C26183-B33F-4D8D-A901-9DFC879E5484}" name="Material"/>
     <tableColumn id="8" xr3:uid="{E02C7714-2483-4D13-AE3F-938B24F1DC26}" name="Qty"/>
+    <tableColumn id="6" xr3:uid="{6584E548-497F-4E36-8AA8-8903B11B5D8A}" name="Note"/>
     <tableColumn id="9" xr3:uid="{2CDB0871-5B60-47E8-947B-D1E55965C018}" name="STL Filename"/>
-    <tableColumn id="6" xr3:uid="{6584E548-497F-4E36-8AA8-8903B11B5D8A}" name="Note"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -636,21 +786,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC8DB31-6D45-4FED-94B6-5390BD4B0F2C}">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" customWidth="1"/>
+    <col min="9" max="9" width="48.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -670,16 +820,16 @@
         <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H1" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -699,10 +849,13 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -722,10 +875,13 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -745,10 +901,13 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -768,10 +927,13 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -791,10 +953,13 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -814,10 +979,13 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -837,10 +1005,13 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -860,10 +1031,13 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -883,10 +1057,13 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -906,10 +1083,13 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -929,10 +1109,13 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12">
         <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -952,10 +1135,13 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13">
         <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -975,10 +1161,13 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G14">
         <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -998,10 +1187,13 @@
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15">
         <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1021,10 +1213,13 @@
         <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16">
         <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1044,10 +1239,13 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G17">
         <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1064,13 +1262,16 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18">
         <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1087,16 +1288,19 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
         <v>58</v>
       </c>
-      <c r="F19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
       <c r="I19" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1113,13 +1317,16 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20">
         <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1139,10 +1346,13 @@
         <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21">
         <v>4</v>
+      </c>
+      <c r="I21" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1162,10 +1372,13 @@
         <v>24</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G22">
         <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1185,10 +1398,13 @@
         <v>24</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G23">
         <v>1</v>
+      </c>
+      <c r="I23" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1208,10 +1424,13 @@
         <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G24">
         <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1231,10 +1450,13 @@
         <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1254,10 +1476,13 @@
         <v>26</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G26">
         <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1277,10 +1502,13 @@
         <v>27</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27">
         <v>1</v>
+      </c>
+      <c r="I27" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1300,10 +1528,13 @@
         <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G28">
         <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1323,10 +1554,13 @@
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G29">
         <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1346,12 +1580,15 @@
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
-      <c r="I30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -1361,21 +1598,24 @@
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
-      <c r="I31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -1385,21 +1625,24 @@
         <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
-      <c r="I32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -1409,21 +1652,24 @@
         <v>24</v>
       </c>
       <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
         <v>44</v>
       </c>
-      <c r="D33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>45</v>
-      </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
-      <c r="I33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -1433,21 +1679,24 @@
         <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
-      <c r="I34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -1457,19 +1706,22 @@
         <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G35">
         <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1480,19 +1732,22 @@
         <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G36">
         <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1503,19 +1758,22 @@
         <v>24</v>
       </c>
       <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
         <v>33</v>
       </c>
-      <c r="D37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>34</v>
-      </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G37">
         <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1526,19 +1784,22 @@
         <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" t="s">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G38">
         <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1549,19 +1810,22 @@
         <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D39" t="s">
         <v>1</v>
       </c>
       <c r="E39" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" t="s">
         <v>36</v>
       </c>
-      <c r="F39" t="s">
-        <v>37</v>
-      </c>
       <c r="G39">
         <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1572,19 +1836,22 @@
         <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40" t="s">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G40">
         <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1595,19 +1862,22 @@
         <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" t="s">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G41">
         <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1615,22 +1885,25 @@
         <v>51</v>
       </c>
       <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
         <v>51</v>
       </c>
-      <c r="C42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" t="s">
-        <v>52</v>
-      </c>
       <c r="F42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G42">
         <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -1638,22 +1911,28 @@
         <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>65</v>
+      </c>
+      <c r="F43" t="s">
+        <v>56</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D43" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" t="s">
-        <v>66</v>
-      </c>
-      <c r="F43" t="s">
-        <v>57</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>67</v>
+      <c r="I43" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1661,70 +1940,79 @@
         <v>61</v>
       </c>
       <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
         <v>48</v>
       </c>
-      <c r="C44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
-        <v>49</v>
-      </c>
       <c r="F44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
-      <c r="I44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
         <v>64</v>
       </c>
-      <c r="D45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>65</v>
-      </c>
       <c r="F45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
-      <c r="I45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>90</v>
       </c>
       <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
         <v>38</v>
       </c>
-      <c r="C46" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46" t="s">
-        <v>39</v>
-      </c>
       <c r="F46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G46" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="I46" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1732,7 +2020,7 @@
         <v>91</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C47" t="s">
         <v>25</v>
@@ -1741,13 +2029,16 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G47">
         <v>5</v>
+      </c>
+      <c r="I47" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -1755,25 +2046,28 @@
         <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
         <v>41</v>
       </c>
-      <c r="D48" t="s">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
-        <v>42</v>
-      </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>93</v>
       </c>
@@ -1787,36 +2081,42 @@
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>94</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C50" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="D50" t="s">
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G50">
         <v>2</v>
+      </c>
+      <c r="I50" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Printer Part Codes.xlsx
+++ b/Docs/Printer Part Codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C891AF68-A94F-4FAD-87AA-40C38E14CA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE4A5A5-D9ED-49AE-A8D9-54C7F2F81640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24264" yWindow="1512" windowWidth="21468" windowHeight="11352" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="136">
   <si>
     <t>Component</t>
   </si>
@@ -391,6 +391,57 @@
   </si>
   <si>
     <t>94 - Misc - Tools - Gantry Lock.stl</t>
+  </si>
+  <si>
+    <t>Electrical</t>
+  </si>
+  <si>
+    <t>Wiring</t>
+  </si>
+  <si>
+    <t>Panel Plate</t>
+  </si>
+  <si>
+    <t>JST-SM connector panel</t>
+  </si>
+  <si>
+    <t>70 - Electrical - Wiring - R Panel Plate.stl</t>
+  </si>
+  <si>
+    <t>71 - Electrical - Wiring - L Panel Plate.stl</t>
+  </si>
+  <si>
+    <t>Panel Mount</t>
+  </si>
+  <si>
+    <t>Panel Faceplate</t>
+  </si>
+  <si>
+    <t>72 - Electrical - Wiring - R Panel Mount.stl</t>
+  </si>
+  <si>
+    <t>73 - Electrical - Wiring - L Panel Mount.stl</t>
+  </si>
+  <si>
+    <t>74 - Electrical - Wiring - R Panel Faceplate.stl</t>
+  </si>
+  <si>
+    <t>75 - Electrical - Wiring - L Panel Faceplate.stl</t>
+  </si>
+  <si>
+    <t>Wire Guide</t>
+  </si>
+  <si>
+    <t>95 - Misc - Wiring - Wire Guide.stl</t>
+  </si>
+  <si>
+    <t>Wire Anchor</t>
+  </si>
+  <si>
+    <t>96 - Misc - Wiring - Wire Anchor.stl</t>
+  </si>
+  <si>
+    <t>Still Testing</t>
   </si>
 </sst>
 </file>
@@ -457,8 +508,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I50" totalsRowShown="0">
-  <autoFilter ref="A1:I50" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I58" totalsRowShown="0">
+  <autoFilter ref="A1:I58" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -469,8 +520,8 @@
     <filterColumn colId="7" hiddenButton="1"/>
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I49">
-    <sortCondition ref="A1:A49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I56">
+    <sortCondition ref="A1:A56"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A8EA61BD-839A-4759-B873-CEDA7BEA684B}" name="Number"/>
@@ -784,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC8DB31-6D45-4FED-94B6-5390BD4B0F2C}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1991,97 +2042,103 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="C46" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D46" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="F46" t="s">
         <v>56</v>
       </c>
-      <c r="G46" t="s">
-        <v>61</v>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>122</v>
       </c>
       <c r="I46" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="C47" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="D47" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E47" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="F47" t="s">
         <v>56</v>
       </c>
       <c r="G47">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>122</v>
       </c>
       <c r="I47" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D48" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="G48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B49" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="C49" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E49" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="F49" t="s">
         <v>56</v>
@@ -2090,33 +2147,244 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>74</v>
+      </c>
+      <c r="B50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>126</v>
+      </c>
+      <c r="F50" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>75</v>
+      </c>
+      <c r="B51" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>126</v>
+      </c>
+      <c r="F51" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>90</v>
+      </c>
+      <c r="B52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" t="s">
+        <v>56</v>
+      </c>
+      <c r="G52" t="s">
+        <v>61</v>
+      </c>
+      <c r="I52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>91</v>
+      </c>
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>39</v>
+      </c>
+      <c r="F53" t="s">
+        <v>56</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+      <c r="I53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>92</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="I54" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>93</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>59</v>
+      </c>
+      <c r="F55" t="s">
+        <v>56</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>94</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B56" t="s">
         <v>37</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C56" t="s">
         <v>68</v>
       </c>
-      <c r="D50" t="s">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="D56" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
         <v>67</v>
       </c>
-      <c r="F50" t="s">
-        <v>56</v>
-      </c>
-      <c r="G50">
+      <c r="F56" t="s">
+        <v>56</v>
+      </c>
+      <c r="G56">
         <v>2</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I56" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>95</v>
+      </c>
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>131</v>
+      </c>
+      <c r="F57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57" t="s">
+        <v>61</v>
+      </c>
+      <c r="H57" t="s">
+        <v>135</v>
+      </c>
+      <c r="I57" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>96</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>133</v>
+      </c>
+      <c r="F58" t="s">
+        <v>56</v>
+      </c>
+      <c r="G58">
+        <v>10</v>
+      </c>
+      <c r="I58" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Printer Part Codes.xlsx
+++ b/Docs/Printer Part Codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE4A5A5-D9ED-49AE-A8D9-54C7F2F81640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5D8764-2B56-4ACC-ABCE-FD767242FA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
+    <workbookView xWindow="23256" yWindow="72" windowWidth="22236" windowHeight="13200" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="146">
   <si>
     <t>Component</t>
   </si>
@@ -435,13 +435,43 @@
     <t>95 - Misc - Wiring - Wire Guide.stl</t>
   </si>
   <si>
-    <t>Wire Anchor</t>
-  </si>
-  <si>
-    <t>96 - Misc - Wiring - Wire Anchor.stl</t>
-  </si>
-  <si>
     <t>Still Testing</t>
+  </si>
+  <si>
+    <t>Control Board Clamp</t>
+  </si>
+  <si>
+    <t>Board Tray</t>
+  </si>
+  <si>
+    <t>Octopus Board Tray</t>
+  </si>
+  <si>
+    <t>78 - Electrical - Board Tray - Octopus Board Tray.stl</t>
+  </si>
+  <si>
+    <t>77 - Electrical - Mount - R Control Board Clamp.stl</t>
+  </si>
+  <si>
+    <t>76 - Electrical - Mount - L Control Board Clamp.stl</t>
+  </si>
+  <si>
+    <t>SKR Board Tray</t>
+  </si>
+  <si>
+    <t>79 - Electrical - Board Tray - SKR Board Tray.stl</t>
+  </si>
+  <si>
+    <t>96 - Misc - Wiring - T Slot Wire Anchor.stl</t>
+  </si>
+  <si>
+    <t>T Slot Wire Anchor</t>
+  </si>
+  <si>
+    <t>XY Joint Wire Guide</t>
+  </si>
+  <si>
+    <t>97 - Misc - Wiring - R XY Joint Wire Guide.stl</t>
   </si>
 </sst>
 </file>
@@ -508,8 +538,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I58" totalsRowShown="0">
-  <autoFilter ref="A1:I58" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I63" totalsRowShown="0">
+  <autoFilter ref="A1:I63" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -520,8 +550,8 @@
     <filterColumn colId="7" hiddenButton="1"/>
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I56">
-    <sortCondition ref="A1:A56"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I62">
+    <sortCondition ref="A1:A62"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A8EA61BD-839A-4759-B873-CEDA7BEA684B}" name="Number"/>
@@ -835,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC8DB31-6D45-4FED-94B6-5390BD4B0F2C}">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2204,97 +2234,97 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D52" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="F52" t="s">
         <v>56</v>
       </c>
-      <c r="G52" t="s">
-        <v>61</v>
+      <c r="G52">
+        <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="C53" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D53" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="F53" t="s">
         <v>56</v>
       </c>
       <c r="G53">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="D54" t="s">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="G54">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="C55" t="s">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="F55" t="s">
         <v>56</v>
@@ -2303,88 +2333,218 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B56" t="s">
         <v>37</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="F56" t="s">
         <v>56</v>
       </c>
-      <c r="G56">
-        <v>2</v>
+      <c r="G56" t="s">
+        <v>61</v>
       </c>
       <c r="I56" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B57" t="s">
         <v>37</v>
       </c>
       <c r="C57" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="D57" t="s">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
-      </c>
-      <c r="G57" t="s">
-        <v>61</v>
-      </c>
-      <c r="H57" t="s">
-        <v>135</v>
+        <v>56</v>
+      </c>
+      <c r="G57">
+        <v>5</v>
       </c>
       <c r="I57" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B58" t="s">
         <v>37</v>
       </c>
       <c r="C58" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>41</v>
+      </c>
+      <c r="F58" t="s">
+        <v>36</v>
+      </c>
+      <c r="G58">
+        <v>4</v>
+      </c>
+      <c r="I58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>93</v>
+      </c>
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>25</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s">
+        <v>59</v>
+      </c>
+      <c r="F59" t="s">
+        <v>56</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>94</v>
+      </c>
+      <c r="B60" t="s">
+        <v>37</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>67</v>
+      </c>
+      <c r="F60" t="s">
+        <v>56</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="I60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>95</v>
+      </c>
+      <c r="B61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" t="s">
         <v>120</v>
       </c>
-      <c r="D58" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="D61" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>131</v>
+      </c>
+      <c r="F61" t="s">
+        <v>36</v>
+      </c>
+      <c r="G61" t="s">
+        <v>61</v>
+      </c>
+      <c r="H61" t="s">
         <v>133</v>
       </c>
-      <c r="F58" t="s">
-        <v>56</v>
-      </c>
-      <c r="G58">
+      <c r="I61" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>96</v>
+      </c>
+      <c r="B62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" t="s">
+        <v>120</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>143</v>
+      </c>
+      <c r="F62" t="s">
+        <v>56</v>
+      </c>
+      <c r="G62">
         <v>10</v>
       </c>
-      <c r="I58" t="s">
-        <v>134</v>
+      <c r="I62" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>97</v>
+      </c>
+      <c r="B63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" t="s">
+        <v>144</v>
+      </c>
+      <c r="F63" t="s">
+        <v>56</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Printer Part Codes.xlsx
+++ b/Docs/Printer Part Codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5D8764-2B56-4ACC-ABCE-FD767242FA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EE668D-903B-4540-992D-4793E3E42A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23256" yWindow="72" windowWidth="22236" windowHeight="13200" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="150">
   <si>
     <t>Component</t>
   </si>
@@ -438,30 +439,12 @@
     <t>Still Testing</t>
   </si>
   <si>
-    <t>Control Board Clamp</t>
-  </si>
-  <si>
     <t>Board Tray</t>
   </si>
   <si>
-    <t>Octopus Board Tray</t>
-  </si>
-  <si>
-    <t>78 - Electrical - Board Tray - Octopus Board Tray.stl</t>
-  </si>
-  <si>
-    <t>77 - Electrical - Mount - R Control Board Clamp.stl</t>
-  </si>
-  <si>
-    <t>76 - Electrical - Mount - L Control Board Clamp.stl</t>
-  </si>
-  <si>
     <t>SKR Board Tray</t>
   </si>
   <si>
-    <t>79 - Electrical - Board Tray - SKR Board Tray.stl</t>
-  </si>
-  <si>
     <t>96 - Misc - Wiring - T Slot Wire Anchor.stl</t>
   </si>
   <si>
@@ -472,6 +455,36 @@
   </si>
   <si>
     <t>97 - Misc - Wiring - R XY Joint Wire Guide.stl</t>
+  </si>
+  <si>
+    <t>Octopus Board Mount</t>
+  </si>
+  <si>
+    <t>77 - Electrical - Mount - R Octopus Board Mount.stl</t>
+  </si>
+  <si>
+    <t>76 - Electrical - Mount - L Octopus Board Mount.stl</t>
+  </si>
+  <si>
+    <t>78 - Electrical - Mount - L SKR Board Mount.stl</t>
+  </si>
+  <si>
+    <t>79 - Electrical - Mount - R SKR Board Mount.stl</t>
+  </si>
+  <si>
+    <t>80mm Fan Mount</t>
+  </si>
+  <si>
+    <t>Fan Grill</t>
+  </si>
+  <si>
+    <t>80mm Fan Grill</t>
+  </si>
+  <si>
+    <t>81 - Electrical - Fan Grill - 80mm Fan Grill.stl</t>
+  </si>
+  <si>
+    <t>80 - Electrical - Fan Mount - 80mm Fan Mount.stl</t>
   </si>
 </sst>
 </file>
@@ -538,8 +551,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I63" totalsRowShown="0">
-  <autoFilter ref="A1:I63" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I65" totalsRowShown="0">
+  <autoFilter ref="A1:I65" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -550,8 +563,8 @@
     <filterColumn colId="7" hiddenButton="1"/>
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I62">
-    <sortCondition ref="A1:A62"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I64">
+    <sortCondition ref="A1:A64"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A8EA61BD-839A-4759-B873-CEDA7BEA684B}" name="Number"/>
@@ -865,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC8DB31-6D45-4FED-94B6-5390BD4B0F2C}">
-  <dimension ref="A1:I63"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,7 +2259,7 @@
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F52" t="s">
         <v>56</v>
@@ -2255,7 +2268,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2272,7 +2285,7 @@
         <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F53" t="s">
         <v>56</v>
@@ -2281,7 +2294,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2292,14 +2305,14 @@
         <v>119</v>
       </c>
       <c r="C54" t="s">
+        <v>134</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" t="s">
         <v>135</v>
       </c>
-      <c r="D54" t="s">
-        <v>1</v>
-      </c>
-      <c r="E54" t="s">
-        <v>136</v>
-      </c>
       <c r="F54" t="s">
         <v>56</v>
       </c>
@@ -2307,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2318,14 +2331,14 @@
         <v>119</v>
       </c>
       <c r="C55" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
         <v>135</v>
       </c>
-      <c r="D55" t="s">
-        <v>1</v>
-      </c>
-      <c r="E55" t="s">
-        <v>140</v>
-      </c>
       <c r="F55" t="s">
         <v>56</v>
       </c>
@@ -2333,64 +2346,64 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D56" t="s">
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="F56" t="s">
         <v>56</v>
       </c>
-      <c r="G56" t="s">
-        <v>61</v>
+      <c r="G56">
+        <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="C57" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="D57" t="s">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="F57" t="s">
         <v>56</v>
       </c>
       <c r="G57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B58" t="s">
         <v>37</v>
@@ -2402,128 +2415,128 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
-      </c>
-      <c r="G58">
-        <v>4</v>
+        <v>56</v>
+      </c>
+      <c r="G58" t="s">
+        <v>61</v>
       </c>
       <c r="I58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B59" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C59" t="s">
         <v>25</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F59" t="s">
         <v>56</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B60" t="s">
         <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D60" t="s">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F60" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="G60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="D61" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
-      </c>
-      <c r="G61" t="s">
-        <v>61</v>
-      </c>
-      <c r="H61" t="s">
-        <v>133</v>
+        <v>56</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B62" t="s">
         <v>37</v>
       </c>
       <c r="C62" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="D62" t="s">
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="F62" t="s">
         <v>56</v>
       </c>
       <c r="G62">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="H62" t="s">
+        <v>133</v>
       </c>
       <c r="I62" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B63" t="s">
         <v>37</v>
@@ -2532,19 +2545,74 @@
         <v>120</v>
       </c>
       <c r="D63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>131</v>
+      </c>
+      <c r="F63" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63" t="s">
+        <v>61</v>
+      </c>
+      <c r="H63" t="s">
+        <v>133</v>
+      </c>
+      <c r="I63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>96</v>
+      </c>
+      <c r="B64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" t="s">
+        <v>120</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>137</v>
+      </c>
+      <c r="F64" t="s">
+        <v>56</v>
+      </c>
+      <c r="G64">
+        <v>10</v>
+      </c>
+      <c r="I64" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>97</v>
+      </c>
+      <c r="B65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" t="s">
+        <v>120</v>
+      </c>
+      <c r="D65" t="s">
         <v>9</v>
       </c>
-      <c r="E63" t="s">
-        <v>144</v>
-      </c>
-      <c r="F63" t="s">
-        <v>56</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="I63" t="s">
-        <v>145</v>
+      <c r="E65" t="s">
+        <v>138</v>
+      </c>
+      <c r="F65" t="s">
+        <v>56</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Printer Part Codes.xlsx
+++ b/Docs/Printer Part Codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EE668D-903B-4540-992D-4793E3E42A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D97CA42-DD9C-4B34-B5CD-D002425A6A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23256" yWindow="72" windowWidth="22236" windowHeight="13200" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="156">
   <si>
     <t>Component</t>
   </si>
@@ -485,6 +485,24 @@
   </si>
   <si>
     <t>80 - Electrical - Fan Mount - 80mm Fan Mount.stl</t>
+  </si>
+  <si>
+    <t>PTFE Tube Coupler</t>
+  </si>
+  <si>
+    <t>98 - Misc - Wiring - PTFE Tube Coupler.stl</t>
+  </si>
+  <si>
+    <t>Lighting</t>
+  </si>
+  <si>
+    <t>144 LEDs/m</t>
+  </si>
+  <si>
+    <t>82 - Electrical - Lighting - LED Guide, 12mm.stl</t>
+  </si>
+  <si>
+    <t>LED Guide, 12mm</t>
   </si>
 </sst>
 </file>
@@ -551,8 +569,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I65" totalsRowShown="0">
-  <autoFilter ref="A1:I65" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I67" totalsRowShown="0">
+  <autoFilter ref="A1:I67" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -563,8 +581,8 @@
     <filterColumn colId="7" hiddenButton="1"/>
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I64">
-    <sortCondition ref="A1:A64"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I65">
+    <sortCondition ref="A1:A65"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A8EA61BD-839A-4759-B873-CEDA7BEA684B}" name="Number"/>
@@ -878,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC8DB31-6D45-4FED-94B6-5390BD4B0F2C}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2403,169 +2421,169 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="C58" t="s">
-        <v>40</v>
+        <v>152</v>
       </c>
       <c r="D58" t="s">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="F58" t="s">
         <v>56</v>
       </c>
-      <c r="G58" t="s">
-        <v>61</v>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58" t="s">
+        <v>153</v>
       </c>
       <c r="I58" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
         <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D59" t="s">
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F59" t="s">
         <v>56</v>
       </c>
-      <c r="G59">
-        <v>5</v>
+      <c r="G59" t="s">
+        <v>61</v>
       </c>
       <c r="I59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B60" t="s">
         <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D60" t="s">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="G60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B61" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" t="s">
+        <v>36</v>
+      </c>
+      <c r="G61">
         <v>4</v>
       </c>
-      <c r="C61" t="s">
-        <v>25</v>
-      </c>
-      <c r="D61" t="s">
-        <v>9</v>
-      </c>
-      <c r="E61" t="s">
-        <v>59</v>
-      </c>
-      <c r="F61" t="s">
-        <v>56</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
       <c r="I61" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B62" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="D62" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F62" t="s">
         <v>56</v>
       </c>
       <c r="G62">
-        <v>2</v>
-      </c>
-      <c r="H62" t="s">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B63" t="s">
         <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="D63" t="s">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
-      </c>
-      <c r="G63" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
       </c>
       <c r="H63" t="s">
         <v>133</v>
       </c>
       <c r="I63" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B64" t="s">
         <v>37</v>
@@ -2577,21 +2595,24 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F64" t="s">
-        <v>56</v>
-      </c>
-      <c r="G64">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="G64" t="s">
+        <v>61</v>
+      </c>
+      <c r="H64" t="s">
+        <v>133</v>
       </c>
       <c r="I64" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B65" t="s">
         <v>37</v>
@@ -2600,19 +2621,71 @@
         <v>120</v>
       </c>
       <c r="D65" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>137</v>
+      </c>
+      <c r="F65" t="s">
+        <v>56</v>
+      </c>
+      <c r="G65">
+        <v>10</v>
+      </c>
+      <c r="I65" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>97</v>
+      </c>
+      <c r="B66" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" t="s">
+        <v>120</v>
+      </c>
+      <c r="D66" t="s">
         <v>9</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E66" t="s">
         <v>138</v>
       </c>
-      <c r="F65" t="s">
-        <v>56</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="I65" t="s">
+      <c r="F66" t="s">
+        <v>56</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>98</v>
+      </c>
+      <c r="B67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" t="s">
+        <v>120</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>150</v>
+      </c>
+      <c r="F67" t="s">
+        <v>56</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Printer Part Codes.xlsx
+++ b/Docs/Printer Part Codes.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D97CA42-DD9C-4B34-B5CD-D002425A6A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E01710-6FF8-483F-B8BF-6838D362F44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23256" yWindow="72" windowWidth="22236" windowHeight="13200" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
+    <workbookView xWindow="23256" yWindow="0" windowWidth="22236" windowHeight="12960" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="158">
   <si>
     <t>Component</t>
   </si>
@@ -439,9 +438,6 @@
     <t>Still Testing</t>
   </si>
   <si>
-    <t>Board Tray</t>
-  </si>
-  <si>
     <t>SKR Board Tray</t>
   </si>
   <si>
@@ -503,6 +499,15 @@
   </si>
   <si>
     <t>LED Guide, 12mm</t>
+  </si>
+  <si>
+    <t>RPi Board Mount</t>
+  </si>
+  <si>
+    <t>83 - Electrical - Mount - L RPi Board Mount.stl</t>
+  </si>
+  <si>
+    <t>84 - Electrical - Mount - R RPi Board Mount.stl</t>
   </si>
 </sst>
 </file>
@@ -569,8 +574,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I67" totalsRowShown="0">
-  <autoFilter ref="A1:I67" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I69" totalsRowShown="0">
+  <autoFilter ref="A1:I69" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -581,8 +586,8 @@
     <filterColumn colId="7" hiddenButton="1"/>
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I65">
-    <sortCondition ref="A1:A65"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I67">
+    <sortCondition ref="A1:A67"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A8EA61BD-839A-4759-B873-CEDA7BEA684B}" name="Number"/>
@@ -896,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC8DB31-6D45-4FED-94B6-5390BD4B0F2C}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2277,7 +2282,7 @@
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F52" t="s">
         <v>56</v>
@@ -2286,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2303,16 +2308,16 @@
         <v>9</v>
       </c>
       <c r="E53" t="s">
+        <v>139</v>
+      </c>
+      <c r="F53" t="s">
+        <v>56</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
         <v>140</v>
-      </c>
-      <c r="F53" t="s">
-        <v>56</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="I53" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2323,13 +2328,13 @@
         <v>119</v>
       </c>
       <c r="C54" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F54" t="s">
         <v>56</v>
@@ -2338,7 +2343,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2349,13 +2354,13 @@
         <v>119</v>
       </c>
       <c r="C55" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="D55" t="s">
         <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F55" t="s">
         <v>56</v>
@@ -2364,7 +2369,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2381,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F56" t="s">
         <v>56</v>
@@ -2390,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2401,22 +2406,22 @@
         <v>119</v>
       </c>
       <c r="C57" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
         <v>146</v>
       </c>
-      <c r="D57" t="s">
-        <v>1</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
+        <v>56</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
         <v>147</v>
-      </c>
-      <c r="F57" t="s">
-        <v>56</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="I57" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2427,82 +2432,82 @@
         <v>119</v>
       </c>
       <c r="C58" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>154</v>
+      </c>
+      <c r="F58" t="s">
+        <v>56</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
         <v>152</v>
       </c>
-      <c r="D58" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" t="s">
-        <v>155</v>
-      </c>
-      <c r="F58" t="s">
-        <v>56</v>
-      </c>
-      <c r="G58">
-        <v>3</v>
-      </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>153</v>
-      </c>
-      <c r="I58" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="C59" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>155</v>
       </c>
       <c r="F59" t="s">
         <v>56</v>
       </c>
-      <c r="G59" t="s">
-        <v>61</v>
+      <c r="G59">
+        <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="C60" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D60" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="F60" t="s">
         <v>56</v>
       </c>
       <c r="G60">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B61" t="s">
         <v>37</v>
@@ -2514,131 +2519,128 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
-      </c>
-      <c r="G61">
-        <v>4</v>
+        <v>56</v>
+      </c>
+      <c r="G61" t="s">
+        <v>61</v>
       </c>
       <c r="I61" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B62" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C62" t="s">
         <v>25</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="F62" t="s">
         <v>56</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I62" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B63" t="s">
         <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D63" t="s">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="F63" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="G63">
-        <v>2</v>
-      </c>
-      <c r="H63" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="I63" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="D64" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
-      </c>
-      <c r="G64" t="s">
-        <v>61</v>
-      </c>
-      <c r="H64" t="s">
-        <v>133</v>
+        <v>56</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B65" t="s">
         <v>37</v>
       </c>
       <c r="C65" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="D65" t="s">
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="F65" t="s">
         <v>56</v>
       </c>
       <c r="G65">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="H65" t="s">
+        <v>133</v>
       </c>
       <c r="I65" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B66" t="s">
         <v>37</v>
@@ -2647,24 +2649,27 @@
         <v>120</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F66" t="s">
-        <v>56</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="G66" t="s">
+        <v>61</v>
+      </c>
+      <c r="H66" t="s">
+        <v>133</v>
       </c>
       <c r="I66" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B67" t="s">
         <v>37</v>
@@ -2676,16 +2681,68 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
+        <v>136</v>
+      </c>
+      <c r="F67" t="s">
+        <v>56</v>
+      </c>
+      <c r="G67">
+        <v>10</v>
+      </c>
+      <c r="I67" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>97</v>
+      </c>
+      <c r="B68" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" t="s">
+        <v>120</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" t="s">
+        <v>137</v>
+      </c>
+      <c r="F68" t="s">
+        <v>56</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>98</v>
+      </c>
+      <c r="B69" t="s">
+        <v>37</v>
+      </c>
+      <c r="C69" t="s">
+        <v>120</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>149</v>
+      </c>
+      <c r="F69" t="s">
+        <v>56</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
         <v>150</v>
-      </c>
-      <c r="F67" t="s">
-        <v>56</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="I67" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Printer Part Codes.xlsx
+++ b/Docs/Printer Part Codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E01710-6FF8-483F-B8BF-6838D362F44E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9205F57C-A4EA-4E11-8B09-E5B6EA4F2357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23256" yWindow="0" windowWidth="22236" windowHeight="12960" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="160">
   <si>
     <t>Component</t>
   </si>
@@ -508,6 +508,12 @@
   </si>
   <si>
     <t>84 - Electrical - Mount - R RPi Board Mount.stl</t>
+  </si>
+  <si>
+    <t>5A Buck Mount</t>
+  </si>
+  <si>
+    <t>85 - Electrical - Mount - 5A Buck Mount.stl</t>
   </si>
 </sst>
 </file>
@@ -574,8 +580,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I69" totalsRowShown="0">
-  <autoFilter ref="A1:I69" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I70" totalsRowShown="0">
+  <autoFilter ref="A1:I70" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -586,8 +592,8 @@
     <filterColumn colId="7" hiddenButton="1"/>
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I67">
-    <sortCondition ref="A1:A67"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I68">
+    <sortCondition ref="A1:A68"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A8EA61BD-839A-4759-B873-CEDA7BEA684B}" name="Number"/>
@@ -901,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC8DB31-6D45-4FED-94B6-5390BD4B0F2C}">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2507,169 +2513,166 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B61" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D61" t="s">
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="F61" t="s">
         <v>56</v>
       </c>
-      <c r="G61" t="s">
-        <v>61</v>
+      <c r="G61">
+        <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B62" t="s">
         <v>37</v>
       </c>
       <c r="C62" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D62" t="s">
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F62" t="s">
         <v>56</v>
       </c>
-      <c r="G62">
-        <v>5</v>
+      <c r="G62" t="s">
+        <v>61</v>
       </c>
       <c r="I62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B63" t="s">
         <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D63" t="s">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="G63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B64" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>41</v>
+      </c>
+      <c r="F64" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64">
         <v>4</v>
       </c>
-      <c r="C64" t="s">
-        <v>25</v>
-      </c>
-      <c r="D64" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" t="s">
-        <v>59</v>
-      </c>
-      <c r="F64" t="s">
-        <v>56</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
       <c r="I64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="D65" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E65" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F65" t="s">
         <v>56</v>
       </c>
       <c r="G65">
-        <v>2</v>
-      </c>
-      <c r="H65" t="s">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B66" t="s">
         <v>37</v>
       </c>
       <c r="C66" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="D66" t="s">
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
-      </c>
-      <c r="G66" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
       </c>
       <c r="H66" t="s">
         <v>133</v>
       </c>
       <c r="I66" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B67" t="s">
         <v>37</v>
@@ -2681,21 +2684,24 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>56</v>
-      </c>
-      <c r="G67">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="G67" t="s">
+        <v>61</v>
+      </c>
+      <c r="H67" t="s">
+        <v>133</v>
       </c>
       <c r="I67" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B68" t="s">
         <v>37</v>
@@ -2704,24 +2710,24 @@
         <v>120</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F68" t="s">
         <v>56</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I68" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B69" t="s">
         <v>37</v>
@@ -2730,18 +2736,44 @@
         <v>120</v>
       </c>
       <c r="D69" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E69" t="s">
+        <v>137</v>
+      </c>
+      <c r="F69" t="s">
+        <v>56</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>98</v>
+      </c>
+      <c r="B70" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" t="s">
+        <v>120</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
         <v>149</v>
       </c>
-      <c r="F69" t="s">
-        <v>56</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="I69" t="s">
+      <c r="F70" t="s">
+        <v>56</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
         <v>150</v>
       </c>
     </row>

--- a/Docs/Printer Part Codes.xlsx
+++ b/Docs/Printer Part Codes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Repos\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9205F57C-A4EA-4E11-8B09-E5B6EA4F2357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE8CF6E-4C33-4319-8F7C-72FAA28B8436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23256" yWindow="0" windowWidth="22236" windowHeight="12960" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
+    <workbookView xWindow="11424" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="169">
   <si>
     <t>Component</t>
   </si>
@@ -514,6 +514,33 @@
   </si>
   <si>
     <t>85 - Electrical - Mount - 5A Buck Mount.stl</t>
+  </si>
+  <si>
+    <t>Exterior</t>
+  </si>
+  <si>
+    <t>100 - Exterior - Frame - Base Cap Type 1.stl</t>
+  </si>
+  <si>
+    <t>101 - Exterior - Frame - Base Cap Type 2.stl</t>
+  </si>
+  <si>
+    <t>Base Cap Type 2</t>
+  </si>
+  <si>
+    <t>Base Cap Type 1</t>
+  </si>
+  <si>
+    <t>Top Cap Type 1</t>
+  </si>
+  <si>
+    <t>102 - Exterior - Frame - Top Cap Type 1.stl</t>
+  </si>
+  <si>
+    <t>Top Cap Type 2</t>
+  </si>
+  <si>
+    <t>103 - Exterior - Frame - Top Cap Type 2.stl</t>
   </si>
 </sst>
 </file>
@@ -580,8 +607,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I70" totalsRowShown="0">
-  <autoFilter ref="A1:I70" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I74" totalsRowShown="0">
+  <autoFilter ref="A1:I74" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -907,26 +934,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC8DB31-6D45-4FED-94B6-5390BD4B0F2C}">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.41796875" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="5.42578125" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" customWidth="1"/>
-    <col min="9" max="9" width="48.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.15625" customWidth="1"/>
+    <col min="4" max="4" width="13.41796875" customWidth="1"/>
+    <col min="5" max="5" width="20.578125" customWidth="1"/>
+    <col min="6" max="6" width="11.26171875" customWidth="1"/>
+    <col min="7" max="7" width="5.41796875" customWidth="1"/>
+    <col min="8" max="8" width="26.26171875" customWidth="1"/>
+    <col min="9" max="9" width="48.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -955,7 +982,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -981,7 +1008,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1007,7 +1034,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1033,7 +1060,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1059,7 +1086,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1085,7 +1112,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1111,7 +1138,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1137,7 +1164,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1163,7 +1190,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1189,7 +1216,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1215,7 +1242,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1241,7 +1268,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1267,7 +1294,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1293,7 +1320,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1319,7 +1346,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1345,7 +1372,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1371,7 +1398,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1397,7 +1424,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1426,7 +1453,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1452,7 +1479,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1478,7 +1505,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1504,7 +1531,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1530,7 +1557,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1556,7 +1583,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1582,7 +1609,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1608,7 +1635,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1634,7 +1661,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1660,7 +1687,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1686,7 +1713,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1713,7 +1740,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1740,7 +1767,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1767,7 +1794,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1794,7 +1821,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1821,7 +1848,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1847,7 +1874,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1873,7 +1900,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>41</v>
       </c>
@@ -1899,7 +1926,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>42</v>
       </c>
@@ -1925,7 +1952,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>43</v>
       </c>
@@ -1951,7 +1978,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>44</v>
       </c>
@@ -1977,7 +2004,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>45</v>
       </c>
@@ -2003,7 +2030,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>51</v>
       </c>
@@ -2029,7 +2056,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>60</v>
       </c>
@@ -2058,7 +2085,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>61</v>
       </c>
@@ -2085,7 +2112,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>62</v>
       </c>
@@ -2112,7 +2139,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>70</v>
       </c>
@@ -2141,7 +2168,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>71</v>
       </c>
@@ -2170,7 +2197,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>72</v>
       </c>
@@ -2196,7 +2223,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>73</v>
       </c>
@@ -2222,7 +2249,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>74</v>
       </c>
@@ -2248,7 +2275,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>75</v>
       </c>
@@ -2274,7 +2301,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>76</v>
       </c>
@@ -2300,7 +2327,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>77</v>
       </c>
@@ -2326,7 +2353,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>78</v>
       </c>
@@ -2352,7 +2379,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>79</v>
       </c>
@@ -2378,7 +2405,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>80</v>
       </c>
@@ -2404,7 +2431,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>81</v>
       </c>
@@ -2430,7 +2457,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>82</v>
       </c>
@@ -2459,7 +2486,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>83</v>
       </c>
@@ -2485,7 +2512,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>84</v>
       </c>
@@ -2511,7 +2538,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>85</v>
       </c>
@@ -2537,7 +2564,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>90</v>
       </c>
@@ -2563,7 +2590,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>91</v>
       </c>
@@ -2589,7 +2616,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>92</v>
       </c>
@@ -2615,7 +2642,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>93</v>
       </c>
@@ -2641,7 +2668,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>94</v>
       </c>
@@ -2670,7 +2697,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>95</v>
       </c>
@@ -2699,7 +2726,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>96</v>
       </c>
@@ -2725,7 +2752,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>97</v>
       </c>
@@ -2751,7 +2778,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>98</v>
       </c>
@@ -2775,6 +2802,110 @@
       </c>
       <c r="I70" t="s">
         <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71">
+        <v>100</v>
+      </c>
+      <c r="B71" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" t="s">
+        <v>40</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>164</v>
+      </c>
+      <c r="F71" t="s">
+        <v>56</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="I71" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72">
+        <v>101</v>
+      </c>
+      <c r="B72" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" t="s">
+        <v>40</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>163</v>
+      </c>
+      <c r="F72" t="s">
+        <v>56</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+      <c r="I72" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73">
+        <v>102</v>
+      </c>
+      <c r="B73" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>165</v>
+      </c>
+      <c r="F73" t="s">
+        <v>56</v>
+      </c>
+      <c r="G73">
+        <v>2</v>
+      </c>
+      <c r="I73" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74">
+        <v>103</v>
+      </c>
+      <c r="B74" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>167</v>
+      </c>
+      <c r="F74" t="s">
+        <v>56</v>
+      </c>
+      <c r="G74">
+        <v>2</v>
+      </c>
+      <c r="I74" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Printer Part Codes.xlsx
+++ b/Docs/Printer Part Codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Repos\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE8CF6E-4C33-4319-8F7C-72FAA28B8436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE266625-2761-480A-A025-5DAF43574436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="195">
   <si>
     <t>Component</t>
   </si>
@@ -541,6 +541,84 @@
   </si>
   <si>
     <t>103 - Exterior - Frame - Top Cap Type 2.stl</t>
+  </si>
+  <si>
+    <t>Skirt</t>
+  </si>
+  <si>
+    <t>L Front End</t>
+  </si>
+  <si>
+    <t>104 - Exterior - Skirt - L Front End.stl</t>
+  </si>
+  <si>
+    <t>R Front End</t>
+  </si>
+  <si>
+    <t>105 - Exterior - Skirt - R Front End.stl</t>
+  </si>
+  <si>
+    <t>L Rear End</t>
+  </si>
+  <si>
+    <t>106 - Exterior - Skirt - L Rear End.stl</t>
+  </si>
+  <si>
+    <t>R Rear End</t>
+  </si>
+  <si>
+    <t>107 - Exterior - Skirt - R Rear End.stl</t>
+  </si>
+  <si>
+    <t>108 - Exterior - Skirt - Grille.stl</t>
+  </si>
+  <si>
+    <t>Grille</t>
+  </si>
+  <si>
+    <t>110 - Exterior - Skirt - Fan Intake.stl</t>
+  </si>
+  <si>
+    <t>Fan Exhuast</t>
+  </si>
+  <si>
+    <t>Interchangeable with 110</t>
+  </si>
+  <si>
+    <t>Interchangeable with 111</t>
+  </si>
+  <si>
+    <t>Screen Mount</t>
+  </si>
+  <si>
+    <t>111 - Exterior - Skirt - Fan Exhaust.stl</t>
+  </si>
+  <si>
+    <t>92mm Fan Mount</t>
+  </si>
+  <si>
+    <t>109 - Exterior - Skirt - 92mm Fan Mount.stl</t>
+  </si>
+  <si>
+    <t>IEC (power) plug</t>
+  </si>
+  <si>
+    <t>Power switch</t>
+  </si>
+  <si>
+    <t>Screen Adapter</t>
+  </si>
+  <si>
+    <t>113 - Exterior - Skirt - Screen Adapter.stl</t>
+  </si>
+  <si>
+    <t>112 - Exterior - Skirt - Screen Mount.stl</t>
+  </si>
+  <si>
+    <t>PSU Mount</t>
+  </si>
+  <si>
+    <t>86 - Electrical - Mount - PSU Mount.stl</t>
   </si>
 </sst>
 </file>
@@ -607,8 +685,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I74" totalsRowShown="0">
-  <autoFilter ref="A1:I74" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I85" totalsRowShown="0">
+  <autoFilter ref="A1:I85" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -619,8 +697,8 @@
     <filterColumn colId="7" hiddenButton="1"/>
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I68">
-    <sortCondition ref="A1:A68"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I69">
+    <sortCondition ref="A1:A69"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A8EA61BD-839A-4759-B873-CEDA7BEA684B}" name="Number"/>
@@ -934,10 +1012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC8DB31-6D45-4FED-94B6-5390BD4B0F2C}">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I74" sqref="I74"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2566,169 +2644,166 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="C62" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D62" t="s">
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>193</v>
       </c>
       <c r="F62" t="s">
         <v>56</v>
       </c>
-      <c r="G62" t="s">
-        <v>61</v>
+      <c r="G62">
+        <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>114</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
         <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D63" t="s">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F63" t="s">
         <v>56</v>
       </c>
-      <c r="G63">
-        <v>5</v>
+      <c r="G63" t="s">
+        <v>61</v>
       </c>
       <c r="I63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B64" t="s">
         <v>37</v>
       </c>
       <c r="C64" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D64" t="s">
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="G64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B65" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>41</v>
+      </c>
+      <c r="F65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G65">
         <v>4</v>
       </c>
-      <c r="C65" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" t="s">
-        <v>9</v>
-      </c>
-      <c r="E65" t="s">
-        <v>59</v>
-      </c>
-      <c r="F65" t="s">
-        <v>56</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
       <c r="I65" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="D66" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F66" t="s">
         <v>56</v>
       </c>
       <c r="G66">
-        <v>2</v>
-      </c>
-      <c r="H66" t="s">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B67" t="s">
         <v>37</v>
       </c>
       <c r="C67" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="D67" t="s">
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
-      </c>
-      <c r="G67" t="s">
-        <v>61</v>
+        <v>56</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
       </c>
       <c r="H67" t="s">
         <v>133</v>
       </c>
       <c r="I67" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B68" t="s">
         <v>37</v>
@@ -2740,21 +2815,24 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>56</v>
-      </c>
-      <c r="G68">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="G68" t="s">
+        <v>61</v>
+      </c>
+      <c r="H68" t="s">
+        <v>133</v>
       </c>
       <c r="I68" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B69" t="s">
         <v>37</v>
@@ -2763,24 +2841,24 @@
         <v>120</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F69" t="s">
         <v>56</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I69" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B70" t="s">
         <v>37</v>
@@ -2789,10 +2867,10 @@
         <v>120</v>
       </c>
       <c r="D70" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
         <v>56</v>
@@ -2801,38 +2879,38 @@
         <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B71" t="s">
-        <v>160</v>
+        <v>37</v>
       </c>
       <c r="C71" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="D71" t="s">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="F71" t="s">
         <v>56</v>
       </c>
       <c r="G71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B72" t="s">
         <v>160</v>
@@ -2844,7 +2922,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F72" t="s">
         <v>56</v>
@@ -2853,12 +2931,12 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B73" t="s">
         <v>160</v>
@@ -2870,7 +2948,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F73" t="s">
         <v>56</v>
@@ -2879,12 +2957,12 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B74" t="s">
         <v>160</v>
@@ -2896,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F74" t="s">
         <v>56</v>
@@ -2905,7 +2983,305 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75">
+        <v>103</v>
+      </c>
+      <c r="B75" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" t="s">
+        <v>40</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>167</v>
+      </c>
+      <c r="F75" t="s">
+        <v>56</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="I75" t="s">
         <v>168</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76">
+        <v>104</v>
+      </c>
+      <c r="B76" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" t="s">
+        <v>170</v>
+      </c>
+      <c r="F76" t="s">
+        <v>56</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="I76" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77">
+        <v>105</v>
+      </c>
+      <c r="B77" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" t="s">
+        <v>172</v>
+      </c>
+      <c r="F77" t="s">
+        <v>56</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>189</v>
+      </c>
+      <c r="I77" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78">
+        <v>106</v>
+      </c>
+      <c r="B78" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" t="s">
+        <v>169</v>
+      </c>
+      <c r="D78" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" t="s">
+        <v>174</v>
+      </c>
+      <c r="F78" t="s">
+        <v>56</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="I78" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79">
+        <v>107</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" t="s">
+        <v>169</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" t="s">
+        <v>176</v>
+      </c>
+      <c r="F79" t="s">
+        <v>56</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>188</v>
+      </c>
+      <c r="I79" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80">
+        <v>108</v>
+      </c>
+      <c r="B80" t="s">
+        <v>160</v>
+      </c>
+      <c r="C80" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>179</v>
+      </c>
+      <c r="F80" t="s">
+        <v>56</v>
+      </c>
+      <c r="G80">
+        <v>4</v>
+      </c>
+      <c r="I80" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81">
+        <v>109</v>
+      </c>
+      <c r="B81" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" t="s">
+        <v>169</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>186</v>
+      </c>
+      <c r="F81" t="s">
+        <v>56</v>
+      </c>
+      <c r="G81">
+        <v>3</v>
+      </c>
+      <c r="I81" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82">
+        <v>110</v>
+      </c>
+      <c r="B82" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" t="s">
+        <v>169</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>34</v>
+      </c>
+      <c r="F82" t="s">
+        <v>56</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82" t="s">
+        <v>183</v>
+      </c>
+      <c r="I82" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83">
+        <v>111</v>
+      </c>
+      <c r="B83" t="s">
+        <v>160</v>
+      </c>
+      <c r="C83" t="s">
+        <v>169</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>181</v>
+      </c>
+      <c r="F83" t="s">
+        <v>56</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
+      </c>
+      <c r="H83" t="s">
+        <v>182</v>
+      </c>
+      <c r="I83" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84">
+        <v>112</v>
+      </c>
+      <c r="B84" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" t="s">
+        <v>169</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>184</v>
+      </c>
+      <c r="F84" t="s">
+        <v>56</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85">
+        <v>113</v>
+      </c>
+      <c r="B85" t="s">
+        <v>160</v>
+      </c>
+      <c r="C85" t="s">
+        <v>169</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>190</v>
+      </c>
+      <c r="F85" t="s">
+        <v>56</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="I85" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Printer Part Codes.xlsx
+++ b/Docs/Printer Part Codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Repos\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE266625-2761-480A-A025-5DAF43574436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A834F0E-032E-4227-9184-96857B9280B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="196">
   <si>
     <t>Component</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Steppers</t>
   </si>
   <si>
-    <t>Bearing Support Plate</t>
-  </si>
-  <si>
     <t>Stepper Mount</t>
   </si>
   <si>
@@ -225,12 +222,6 @@
     <t>STL Filename</t>
   </si>
   <si>
-    <t>Bowden Mount</t>
-  </si>
-  <si>
-    <t>BMG Bowden Mount</t>
-  </si>
-  <si>
     <t>Bowden Coupler</t>
   </si>
   <si>
@@ -288,9 +279,6 @@
     <t>14 - XY - Tensioner - Guide Frame.stl</t>
   </si>
   <si>
-    <t>15 - XY - Steppers - Bearing Support Plate.stl</t>
-  </si>
-  <si>
     <t>16 - XY - Steppers - Stepper Mount.stl</t>
   </si>
   <si>
@@ -333,36 +321,12 @@
     <t>29 - Z - Bed - Wire Support.stl</t>
   </si>
   <si>
-    <t>30 - X Gantry - Carriage Mount.stl</t>
-  </si>
-  <si>
-    <t>31 - X Gantry - Top Mount.stl</t>
-  </si>
-  <si>
-    <t>32 - X Gantry - Back Plate.stl</t>
-  </si>
-  <si>
-    <t>33 - X Gantry - Front Plate.stl</t>
-  </si>
-  <si>
     <t>34 - Gantry - Carriage - L Belt Clamp.stl</t>
   </si>
   <si>
     <t>35 - Gantry - Carriage - R Belt Clamp.stl</t>
   </si>
   <si>
-    <t>40 - X Gantry - Hotend - Mounting Bracket.stl</t>
-  </si>
-  <si>
-    <t>41 - X Gantry - Hotend - Locking Collar.stl</t>
-  </si>
-  <si>
-    <t>42 - X Gantry - Hotend - Fan Intake.stl</t>
-  </si>
-  <si>
-    <t>43 - X Gantry - Hotend - PTFE Collar (TPU).stl</t>
-  </si>
-  <si>
     <t>44 - Gantry - Hotend  - EVA Duct.stl</t>
   </si>
   <si>
@@ -372,12 +336,6 @@
     <t>51 - ABL - Mount - BLTouch.stl</t>
   </si>
   <si>
-    <t>61 - Extruder - Mount - BMG.stl</t>
-  </si>
-  <si>
-    <t>62 - Extruder - Bowden Mount - Bowden BMG Mount.stl</t>
-  </si>
-  <si>
     <t>90 - Misc - Bracket Cover.stl</t>
   </si>
   <si>
@@ -447,12 +405,6 @@
     <t>T Slot Wire Anchor</t>
   </si>
   <si>
-    <t>XY Joint Wire Guide</t>
-  </si>
-  <si>
-    <t>97 - Misc - Wiring - R XY Joint Wire Guide.stl</t>
-  </si>
-  <si>
     <t>Octopus Board Mount</t>
   </si>
   <si>
@@ -619,6 +571,57 @@
   </si>
   <si>
     <t>86 - Electrical - Mount - PSU Mount.stl</t>
+  </si>
+  <si>
+    <t>Mounting Bracket</t>
+  </si>
+  <si>
+    <t>40 - Gantry - Hotend - Mounting Bracket</t>
+  </si>
+  <si>
+    <t>41 - Gantry - Hotend - Locking Collar.stl</t>
+  </si>
+  <si>
+    <t>42 - Gantry - Hotend - Fan Intake.stl</t>
+  </si>
+  <si>
+    <t>43 - Gantry - Hotend - PTFE Collar (TPU).stl</t>
+  </si>
+  <si>
+    <t>31 - Gantry - Carriage - Top Mount.stl</t>
+  </si>
+  <si>
+    <t>30 - Gantry - Carriage - Carriage Mount.stl</t>
+  </si>
+  <si>
+    <t>32 - Gantry - Carriage - Back Mount.stl</t>
+  </si>
+  <si>
+    <t>33 - Gantry - Carriage - Front Mount.stl</t>
+  </si>
+  <si>
+    <t>60 - Extruder - Bowden - Coupler.stl</t>
+  </si>
+  <si>
+    <t>61 - Extruder - DD - BMG Mount.stl</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>Bowden</t>
+  </si>
+  <si>
+    <t>62 - Extruder - Bowden - BMG Mount.stl</t>
+  </si>
+  <si>
+    <t>Vibration Damper</t>
+  </si>
+  <si>
+    <t>15 - XY - Steppers - Vibration Damper (TPU).stl</t>
+  </si>
+  <si>
+    <t>No ID tag</t>
   </si>
 </sst>
 </file>
@@ -686,19 +689,9 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I85" totalsRowShown="0">
-  <autoFilter ref="A1:I85" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-    <filterColumn colId="4" hiddenButton="1"/>
-    <filterColumn colId="5" hiddenButton="1"/>
-    <filterColumn colId="6" hiddenButton="1"/>
-    <filterColumn colId="7" hiddenButton="1"/>
-    <filterColumn colId="8" hiddenButton="1"/>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I69">
-    <sortCondition ref="A1:A69"/>
+  <autoFilter ref="A1:I85" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I85">
+    <sortCondition ref="A1:A85"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A8EA61BD-839A-4759-B873-CEDA7BEA684B}" name="Number"/>
@@ -1014,24 +1007,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC8DB31-6D45-4FED-94B6-5390BD4B0F2C}">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.41796875" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="16.15625" customWidth="1"/>
-    <col min="4" max="4" width="13.41796875" customWidth="1"/>
-    <col min="5" max="5" width="20.578125" customWidth="1"/>
-    <col min="6" max="6" width="11.26171875" customWidth="1"/>
-    <col min="7" max="7" width="5.41796875" customWidth="1"/>
-    <col min="8" max="8" width="26.26171875" customWidth="1"/>
-    <col min="9" max="9" width="48.15625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" customWidth="1"/>
+    <col min="9" max="9" width="48.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1042,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
       <c r="F1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1077,16 +1070,16 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1103,16 +1096,16 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1129,16 +1122,16 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1155,16 +1148,16 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1172,7 +1165,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -1181,16 +1174,16 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1198,7 +1191,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -1207,16 +1200,16 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1224,7 +1217,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -1233,16 +1226,16 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1250,7 +1243,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -1259,16 +1252,16 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1276,7 +1269,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -1285,16 +1278,16 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1302,7 +1295,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -1311,16 +1304,16 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1337,16 +1330,16 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1363,16 +1356,16 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1389,16 +1382,16 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1415,16 +1408,16 @@
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1438,19 +1431,22 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>193</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="G16">
         <v>2</v>
       </c>
+      <c r="H16" t="s">
+        <v>195</v>
+      </c>
       <c r="I16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1464,19 +1460,19 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1484,25 +1480,25 @@
         <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1510,137 +1506,137 @@
         <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
         <v>57</v>
       </c>
-      <c r="F19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>58</v>
-      </c>
       <c r="I19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20">
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
         <v>22</v>
       </c>
-      <c r="D21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>23</v>
-      </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21">
         <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
         <v>16</v>
@@ -1649,24 +1645,24 @@
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
@@ -1675,1613 +1671,1613 @@
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
         <v>21</v>
       </c>
-      <c r="C30" t="s">
-        <v>22</v>
-      </c>
       <c r="D30" t="s">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
         <v>43</v>
       </c>
-      <c r="D33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>44</v>
-      </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
       </c>
       <c r="E36" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
         <v>52</v>
       </c>
-      <c r="F36" t="s">
-        <v>56</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="I36" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37">
-        <v>41</v>
-      </c>
-      <c r="B37" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>33</v>
-      </c>
-      <c r="F37" t="s">
-        <v>56</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="I37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38">
-        <v>42</v>
-      </c>
-      <c r="B38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="I38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39">
-        <v>43</v>
-      </c>
-      <c r="B39" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="I39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40">
-        <v>44</v>
-      </c>
-      <c r="B40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="F41" t="s">
+        <v>55</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
         <v>53</v>
       </c>
-      <c r="F40" t="s">
-        <v>56</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="I40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41">
-        <v>45</v>
-      </c>
-      <c r="B41" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" t="s">
-        <v>32</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>54</v>
-      </c>
-      <c r="F41" t="s">
-        <v>56</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="I41" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42">
+      <c r="F42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>51</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
         <v>50</v>
       </c>
-      <c r="C42" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="I42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43">
+      <c r="F43" t="s">
+        <v>55</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>60</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>191</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I44" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>190</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
         <v>47</v>
       </c>
-      <c r="C43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" t="s">
-        <v>65</v>
-      </c>
-      <c r="F43" t="s">
-        <v>56</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I43" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44">
-        <v>61</v>
-      </c>
-      <c r="B44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" t="s">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
-        <v>48</v>
-      </c>
-      <c r="F44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44" s="1"/>
-      <c r="I44" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45">
-        <v>62</v>
-      </c>
-      <c r="B45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>64</v>
-      </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>62</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>191</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" t="s">
+        <v>55</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>70</v>
+      </c>
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" t="s">
+        <v>55</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>108</v>
+      </c>
+      <c r="I47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>71</v>
+      </c>
+      <c r="B48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>108</v>
+      </c>
+      <c r="I48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>72</v>
+      </c>
+      <c r="B49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49" t="s">
+        <v>55</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46">
-        <v>70</v>
-      </c>
-      <c r="B46" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" t="s">
-        <v>120</v>
-      </c>
-      <c r="D46" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>73</v>
+      </c>
+      <c r="B50" t="s">
+        <v>105</v>
+      </c>
+      <c r="C50" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>111</v>
+      </c>
+      <c r="F50" t="s">
+        <v>55</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>74</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" t="s">
+        <v>106</v>
+      </c>
+      <c r="D51" t="s">
         <v>9</v>
       </c>
-      <c r="E46" t="s">
-        <v>121</v>
-      </c>
-      <c r="F46" t="s">
-        <v>56</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46" t="s">
-        <v>122</v>
-      </c>
-      <c r="I46" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47">
-        <v>71</v>
-      </c>
-      <c r="B47" t="s">
-        <v>119</v>
-      </c>
-      <c r="C47" t="s">
-        <v>120</v>
-      </c>
-      <c r="D47" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" t="s">
-        <v>121</v>
-      </c>
-      <c r="F47" t="s">
-        <v>56</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47" t="s">
-        <v>122</v>
-      </c>
-      <c r="I47" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48">
-        <v>72</v>
-      </c>
-      <c r="B48" t="s">
-        <v>119</v>
-      </c>
-      <c r="C48" t="s">
-        <v>120</v>
-      </c>
-      <c r="D48" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" t="s">
-        <v>125</v>
-      </c>
-      <c r="F48" t="s">
-        <v>56</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="I48" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49">
-        <v>73</v>
-      </c>
-      <c r="B49" t="s">
-        <v>119</v>
-      </c>
-      <c r="C49" t="s">
-        <v>120</v>
-      </c>
-      <c r="D49" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" t="s">
-        <v>125</v>
-      </c>
-      <c r="F49" t="s">
-        <v>56</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="I49" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50">
-        <v>74</v>
-      </c>
-      <c r="B50" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" t="s">
-        <v>120</v>
-      </c>
-      <c r="D50" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" t="s">
-        <v>126</v>
-      </c>
-      <c r="F50" t="s">
-        <v>56</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="I50" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51">
+      <c r="E51" t="s">
+        <v>112</v>
+      </c>
+      <c r="F51" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>75</v>
       </c>
-      <c r="B51" t="s">
-        <v>119</v>
-      </c>
-      <c r="C51" t="s">
-        <v>120</v>
-      </c>
-      <c r="D51" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" t="s">
-        <v>126</v>
-      </c>
-      <c r="F51" t="s">
-        <v>56</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="I51" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52">
-        <v>76</v>
-      </c>
       <c r="B52" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
       </c>
       <c r="E52" t="s">
+        <v>112</v>
+      </c>
+      <c r="F52" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>76</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53" t="s">
+        <v>55</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>77</v>
+      </c>
+      <c r="B54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>123</v>
+      </c>
+      <c r="F54" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>78</v>
+      </c>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55" t="s">
+        <v>55</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="I55" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>79</v>
+      </c>
+      <c r="B56" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>120</v>
+      </c>
+      <c r="F56" t="s">
+        <v>55</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>80</v>
+      </c>
+      <c r="B57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>128</v>
+      </c>
+      <c r="F57" t="s">
+        <v>55</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>81</v>
+      </c>
+      <c r="B58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" t="s">
+        <v>129</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>130</v>
+      </c>
+      <c r="F58" t="s">
+        <v>55</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>82</v>
+      </c>
+      <c r="B59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>138</v>
+      </c>
+      <c r="F59" t="s">
+        <v>55</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>136</v>
+      </c>
+      <c r="I59" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>83</v>
+      </c>
+      <c r="B60" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" t="s">
         <v>139</v>
       </c>
-      <c r="F52" t="s">
-        <v>56</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="F60" t="s">
+        <v>55</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>84</v>
+      </c>
+      <c r="B61" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" t="s">
+        <v>139</v>
+      </c>
+      <c r="F61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53">
-        <v>77</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>85</v>
+      </c>
+      <c r="B62" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>142</v>
+      </c>
+      <c r="F62" t="s">
+        <v>55</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>86</v>
+      </c>
+      <c r="B63" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>177</v>
+      </c>
+      <c r="F63" t="s">
+        <v>55</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+      <c r="I63" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>90</v>
+      </c>
+      <c r="B64" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" t="s">
+        <v>39</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>37</v>
+      </c>
+      <c r="F64" t="s">
+        <v>55</v>
+      </c>
+      <c r="G64" t="s">
+        <v>60</v>
+      </c>
+      <c r="I64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>91</v>
+      </c>
+      <c r="B65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65" t="s">
+        <v>55</v>
+      </c>
+      <c r="G65">
+        <v>5</v>
+      </c>
+      <c r="I65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>92</v>
+      </c>
+      <c r="B66" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" t="s">
+        <v>39</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>40</v>
+      </c>
+      <c r="F66" t="s">
+        <v>35</v>
+      </c>
+      <c r="G66">
+        <v>4</v>
+      </c>
+      <c r="I66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>93</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>58</v>
+      </c>
+      <c r="F67" t="s">
+        <v>55</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>94</v>
+      </c>
+      <c r="B68" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>64</v>
+      </c>
+      <c r="F68" t="s">
+        <v>55</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68" t="s">
         <v>119</v>
       </c>
-      <c r="C53" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" t="s">
-        <v>9</v>
-      </c>
-      <c r="E53" t="s">
-        <v>139</v>
-      </c>
-      <c r="F53" t="s">
-        <v>56</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="I53" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54">
-        <v>78</v>
-      </c>
-      <c r="B54" t="s">
+      <c r="I68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>95</v>
+      </c>
+      <c r="B69" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>117</v>
+      </c>
+      <c r="F69" t="s">
+        <v>35</v>
+      </c>
+      <c r="G69" t="s">
+        <v>60</v>
+      </c>
+      <c r="H69" t="s">
         <v>119</v>
       </c>
-      <c r="C54" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" t="s">
-        <v>134</v>
-      </c>
-      <c r="F54" t="s">
-        <v>56</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="I54" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55">
-        <v>79</v>
-      </c>
-      <c r="B55" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" t="s">
-        <v>9</v>
-      </c>
-      <c r="E55" t="s">
-        <v>134</v>
-      </c>
-      <c r="F55" t="s">
-        <v>56</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="I55" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56">
-        <v>80</v>
-      </c>
-      <c r="B56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56" t="s">
-        <v>54</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1</v>
-      </c>
-      <c r="E56" t="s">
-        <v>144</v>
-      </c>
-      <c r="F56" t="s">
-        <v>56</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="I56" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57">
-        <v>81</v>
-      </c>
-      <c r="B57" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57" t="s">
-        <v>145</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1</v>
-      </c>
-      <c r="E57" t="s">
-        <v>146</v>
-      </c>
-      <c r="F57" t="s">
-        <v>56</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="I57" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58">
-        <v>82</v>
-      </c>
-      <c r="B58" t="s">
-        <v>119</v>
-      </c>
-      <c r="C58" t="s">
-        <v>151</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" t="s">
-        <v>154</v>
-      </c>
-      <c r="F58" t="s">
-        <v>56</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58" t="s">
-        <v>152</v>
-      </c>
-      <c r="I58" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59">
-        <v>83</v>
-      </c>
-      <c r="B59" t="s">
-        <v>119</v>
-      </c>
-      <c r="C59" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" t="s">
-        <v>155</v>
-      </c>
-      <c r="F59" t="s">
-        <v>56</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="I59" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60">
-        <v>84</v>
-      </c>
-      <c r="B60" t="s">
-        <v>119</v>
-      </c>
-      <c r="C60" t="s">
-        <v>49</v>
-      </c>
-      <c r="D60" t="s">
-        <v>9</v>
-      </c>
-      <c r="E60" t="s">
-        <v>155</v>
-      </c>
-      <c r="F60" t="s">
-        <v>56</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="I60" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61">
-        <v>85</v>
-      </c>
-      <c r="B61" t="s">
-        <v>119</v>
-      </c>
-      <c r="C61" t="s">
-        <v>49</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1</v>
-      </c>
-      <c r="E61" t="s">
-        <v>158</v>
-      </c>
-      <c r="F61" t="s">
-        <v>56</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="I61" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62">
-        <v>86</v>
-      </c>
-      <c r="B62" t="s">
-        <v>119</v>
-      </c>
-      <c r="C62" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1</v>
-      </c>
-      <c r="E62" t="s">
-        <v>193</v>
-      </c>
-      <c r="F62" t="s">
-        <v>56</v>
-      </c>
-      <c r="G62">
-        <v>2</v>
-      </c>
-      <c r="I62" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63">
-        <v>90</v>
-      </c>
-      <c r="B63" t="s">
-        <v>37</v>
-      </c>
-      <c r="C63" t="s">
-        <v>40</v>
-      </c>
-      <c r="D63" t="s">
-        <v>1</v>
-      </c>
-      <c r="E63" t="s">
-        <v>38</v>
-      </c>
-      <c r="F63" t="s">
-        <v>56</v>
-      </c>
-      <c r="G63" t="s">
-        <v>61</v>
-      </c>
-      <c r="I63" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64">
-        <v>91</v>
-      </c>
-      <c r="B64" t="s">
-        <v>37</v>
-      </c>
-      <c r="C64" t="s">
-        <v>25</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1</v>
-      </c>
-      <c r="E64" t="s">
-        <v>39</v>
-      </c>
-      <c r="F64" t="s">
-        <v>56</v>
-      </c>
-      <c r="G64">
-        <v>5</v>
-      </c>
-      <c r="I64" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65">
-        <v>92</v>
-      </c>
-      <c r="B65" t="s">
-        <v>37</v>
-      </c>
-      <c r="C65" t="s">
-        <v>40</v>
-      </c>
-      <c r="D65" t="s">
-        <v>1</v>
-      </c>
-      <c r="E65" t="s">
-        <v>41</v>
-      </c>
-      <c r="F65" t="s">
+      <c r="I69" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>96</v>
+      </c>
+      <c r="B70" t="s">
         <v>36</v>
       </c>
-      <c r="G65">
-        <v>4</v>
-      </c>
-      <c r="I65" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66">
-        <v>93</v>
-      </c>
-      <c r="B66" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" t="s">
-        <v>25</v>
-      </c>
-      <c r="D66" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" t="s">
-        <v>59</v>
-      </c>
-      <c r="F66" t="s">
-        <v>56</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="I66" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67">
-        <v>94</v>
-      </c>
-      <c r="B67" t="s">
-        <v>37</v>
-      </c>
-      <c r="C67" t="s">
-        <v>68</v>
-      </c>
-      <c r="D67" t="s">
-        <v>1</v>
-      </c>
-      <c r="E67" t="s">
-        <v>67</v>
-      </c>
-      <c r="F67" t="s">
-        <v>56</v>
-      </c>
-      <c r="G67">
-        <v>2</v>
-      </c>
-      <c r="H67" t="s">
-        <v>133</v>
-      </c>
-      <c r="I67" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68">
-        <v>95</v>
-      </c>
-      <c r="B68" t="s">
-        <v>37</v>
-      </c>
-      <c r="C68" t="s">
-        <v>120</v>
-      </c>
-      <c r="D68" t="s">
-        <v>1</v>
-      </c>
-      <c r="E68" t="s">
-        <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>36</v>
-      </c>
-      <c r="G68" t="s">
-        <v>61</v>
-      </c>
-      <c r="H68" t="s">
-        <v>133</v>
-      </c>
-      <c r="I68" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69">
-        <v>96</v>
-      </c>
-      <c r="B69" t="s">
-        <v>37</v>
-      </c>
-      <c r="C69" t="s">
-        <v>120</v>
-      </c>
-      <c r="D69" t="s">
-        <v>1</v>
-      </c>
-      <c r="E69" t="s">
-        <v>136</v>
-      </c>
-      <c r="F69" t="s">
-        <v>56</v>
-      </c>
-      <c r="G69">
+      <c r="C70" t="s">
+        <v>106</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>122</v>
+      </c>
+      <c r="F70" t="s">
+        <v>55</v>
+      </c>
+      <c r="G70">
         <v>10</v>
       </c>
-      <c r="I69" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70">
-        <v>97</v>
-      </c>
-      <c r="B70" t="s">
-        <v>37</v>
-      </c>
-      <c r="C70" t="s">
-        <v>120</v>
-      </c>
-      <c r="D70" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" t="s">
-        <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>56</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
       <c r="I70" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>98</v>
       </c>
       <c r="B71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C71" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="D71" t="s">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="F71" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G71">
         <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>100</v>
       </c>
       <c r="B72" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D72" t="s">
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="F72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G72">
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>101</v>
       </c>
       <c r="B73" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D73" t="s">
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="F73" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G73">
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>102</v>
       </c>
       <c r="B74" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D74" t="s">
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="F74" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G74">
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>103</v>
       </c>
       <c r="B75" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D75" t="s">
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="F75" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G75">
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>104</v>
       </c>
       <c r="B76" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C76" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D76" t="s">
         <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="F76" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>105</v>
       </c>
       <c r="B77" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C77" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="F77" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="I77" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>106</v>
       </c>
       <c r="B78" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C78" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D78" t="s">
         <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="F78" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>107</v>
       </c>
       <c r="B79" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C79" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="F79" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G79">
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="I79" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>108</v>
       </c>
       <c r="B80" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C80" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D80" t="s">
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="F80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G80">
         <v>4</v>
       </c>
       <c r="I80" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>109</v>
       </c>
       <c r="B81" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C81" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D81" t="s">
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="F81" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G81">
         <v>3</v>
       </c>
       <c r="I81" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>110</v>
       </c>
       <c r="B82" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C82" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D82" t="s">
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F82" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G82">
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="I82" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>111</v>
       </c>
       <c r="B83" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C83" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D83" t="s">
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="F83" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G83">
         <v>2</v>
       </c>
       <c r="H83" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="I83" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>112</v>
       </c>
       <c r="B84" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C84" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D84" t="s">
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="F84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G84">
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>113</v>
       </c>
       <c r="B85" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C85" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="D85" t="s">
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="F85" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G85">
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Printer Part Codes.xlsx
+++ b/Docs/Printer Part Codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Repos\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A834F0E-032E-4227-9184-96857B9280B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49784819-83AB-46DA-888C-8271600ABB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="194">
   <si>
     <t>Component</t>
   </si>
@@ -385,12 +385,6 @@
   </si>
   <si>
     <t>75 - Electrical - Wiring - L Panel Faceplate.stl</t>
-  </si>
-  <si>
-    <t>Wire Guide</t>
-  </si>
-  <si>
-    <t>95 - Misc - Wiring - Wire Guide.stl</t>
   </si>
   <si>
     <t>Still Testing</t>
@@ -688,10 +682,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I85" totalsRowShown="0">
-  <autoFilter ref="A1:I85" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I85">
-    <sortCondition ref="A1:A85"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I84" totalsRowShown="0">
+  <autoFilter ref="A1:I84" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I84">
+    <sortCondition ref="A1:A84"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A8EA61BD-839A-4759-B873-CEDA7BEA684B}" name="Number"/>
@@ -1005,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC8DB31-6D45-4FED-94B6-5390BD4B0F2C}">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,7 +1425,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F16" t="s">
         <v>35</v>
@@ -1440,10 +1434,10 @@
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1838,7 +1832,7 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1865,7 +1859,7 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1892,7 +1886,7 @@
       </c>
       <c r="H33" s="1"/>
       <c r="I33" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1919,7 +1913,7 @@
       </c>
       <c r="H34" s="1"/>
       <c r="I34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1988,7 +1982,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F37" t="s">
         <v>55</v>
@@ -1997,7 +1991,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2023,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2049,7 +2043,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2075,7 +2069,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2164,7 +2158,7 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D44" t="s">
         <v>1</v>
@@ -2182,7 +2176,7 @@
         <v>63</v>
       </c>
       <c r="I44" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2193,7 +2187,7 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D45" t="s">
         <v>1</v>
@@ -2209,7 +2203,7 @@
       </c>
       <c r="H45" s="1"/>
       <c r="I45" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2220,7 +2214,7 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
@@ -2236,7 +2230,7 @@
       </c>
       <c r="H46" s="1"/>
       <c r="I46" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2415,16 +2409,16 @@
         <v>5</v>
       </c>
       <c r="E53" t="s">
+        <v>121</v>
+      </c>
+      <c r="F53" t="s">
+        <v>55</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
         <v>123</v>
-      </c>
-      <c r="F53" t="s">
-        <v>55</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="I53" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2441,7 +2435,7 @@
         <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F54" t="s">
         <v>55</v>
@@ -2450,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2467,7 +2461,7 @@
         <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F55" t="s">
         <v>55</v>
@@ -2476,7 +2470,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2493,7 +2487,7 @@
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F56" t="s">
         <v>55</v>
@@ -2502,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2519,7 +2513,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F57" t="s">
         <v>55</v>
@@ -2528,7 +2522,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2539,22 +2533,22 @@
         <v>105</v>
       </c>
       <c r="C58" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>128</v>
+      </c>
+      <c r="F58" t="s">
+        <v>55</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
         <v>129</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" t="s">
-        <v>130</v>
-      </c>
-      <c r="F58" t="s">
-        <v>55</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="I58" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2565,25 +2559,25 @@
         <v>105</v>
       </c>
       <c r="C59" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>136</v>
+      </c>
+      <c r="F59" t="s">
+        <v>55</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>134</v>
+      </c>
+      <c r="I59" t="s">
         <v>135</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1</v>
-      </c>
-      <c r="E59" t="s">
-        <v>138</v>
-      </c>
-      <c r="F59" t="s">
-        <v>55</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59" t="s">
-        <v>136</v>
-      </c>
-      <c r="I59" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2600,7 +2594,7 @@
         <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F60" t="s">
         <v>55</v>
@@ -2609,7 +2603,7 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2626,16 +2620,16 @@
         <v>9</v>
       </c>
       <c r="E61" t="s">
+        <v>137</v>
+      </c>
+      <c r="F61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
         <v>139</v>
-      </c>
-      <c r="F61" t="s">
-        <v>55</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="I61" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2652,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F62" t="s">
         <v>55</v>
@@ -2661,7 +2655,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2678,7 +2672,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F63" t="s">
         <v>55</v>
@@ -2687,7 +2681,7 @@
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2817,7 +2811,7 @@
         <v>2</v>
       </c>
       <c r="H68" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I68" t="s">
         <v>104</v>
@@ -2825,7 +2819,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B69" t="s">
         <v>36</v>
@@ -2837,24 +2831,21 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
-      </c>
-      <c r="G69" t="s">
-        <v>60</v>
-      </c>
-      <c r="H69" t="s">
+        <v>55</v>
+      </c>
+      <c r="G69">
+        <v>10</v>
+      </c>
+      <c r="I69" t="s">
         <v>119</v>
-      </c>
-      <c r="I69" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B70" t="s">
         <v>36</v>
@@ -2866,50 +2857,50 @@
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F70" t="s">
         <v>55</v>
       </c>
       <c r="G70">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I70" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B71" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="C71" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="D71" t="s">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="F71" t="s">
         <v>55</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C72" t="s">
         <v>39</v>
@@ -2918,7 +2909,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F72" t="s">
         <v>55</v>
@@ -2927,15 +2918,15 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C73" t="s">
         <v>39</v>
@@ -2953,15 +2944,15 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C74" t="s">
         <v>39</v>
@@ -2984,42 +2975,42 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B75" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C75" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="D75" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F75" t="s">
         <v>55</v>
       </c>
       <c r="G75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B76" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C76" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D76" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E76" t="s">
         <v>154</v>
@@ -3030,22 +3021,25 @@
       <c r="G76">
         <v>1</v>
       </c>
+      <c r="H76" t="s">
+        <v>171</v>
+      </c>
       <c r="I76" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B77" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E77" t="s">
         <v>156</v>
@@ -3056,25 +3050,22 @@
       <c r="G77">
         <v>1</v>
       </c>
-      <c r="H77" t="s">
-        <v>173</v>
-      </c>
       <c r="I77" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B78" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C78" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D78" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E78" t="s">
         <v>158</v>
@@ -3085,164 +3076,164 @@
       <c r="G78">
         <v>1</v>
       </c>
+      <c r="H78" t="s">
+        <v>170</v>
+      </c>
       <c r="I78" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B79" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E79" t="s">
+        <v>161</v>
+      </c>
+      <c r="F79" t="s">
+        <v>55</v>
+      </c>
+      <c r="G79">
+        <v>4</v>
+      </c>
+      <c r="I79" t="s">
         <v>160</v>
-      </c>
-      <c r="F79" t="s">
-        <v>55</v>
-      </c>
-      <c r="G79">
-        <v>1</v>
-      </c>
-      <c r="H79" t="s">
-        <v>172</v>
-      </c>
-      <c r="I79" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B80" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C80" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D80" t="s">
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F80" t="s">
         <v>55</v>
       </c>
       <c r="G80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I80" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B81" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C81" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D81" t="s">
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
         <v>55</v>
       </c>
       <c r="G81">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>165</v>
       </c>
       <c r="I81" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B82" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C82" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D82" t="s">
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="F82" t="s">
         <v>55</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H82" t="s">
+        <v>164</v>
+      </c>
+      <c r="I82" t="s">
         <v>167</v>
-      </c>
-      <c r="I82" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B83" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C83" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D83" t="s">
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F83" t="s">
         <v>55</v>
       </c>
       <c r="G83">
-        <v>2</v>
-      </c>
-      <c r="H83" t="s">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B84" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C84" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D84" t="s">
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F84" t="s">
         <v>55</v>
@@ -3251,33 +3242,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>113</v>
-      </c>
-      <c r="B85" t="s">
-        <v>144</v>
-      </c>
-      <c r="C85" t="s">
-        <v>153</v>
-      </c>
-      <c r="D85" t="s">
-        <v>1</v>
-      </c>
-      <c r="E85" t="s">
-        <v>174</v>
-      </c>
-      <c r="F85" t="s">
-        <v>55</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="I85" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Printer Part Codes.xlsx
+++ b/Docs/Printer Part Codes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Repos\clock-3\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49784819-83AB-46DA-888C-8271600ABB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FD71CE-3B83-4E0D-A356-01BF81D14064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="193">
   <si>
     <t>Component</t>
   </si>
@@ -387,9 +387,6 @@
     <t>75 - Electrical - Wiring - L Panel Faceplate.stl</t>
   </si>
   <si>
-    <t>Still Testing</t>
-  </si>
-  <si>
     <t>SKR Board Tray</t>
   </si>
   <si>
@@ -522,24 +519,6 @@
     <t>Grille</t>
   </si>
   <si>
-    <t>110 - Exterior - Skirt - Fan Intake.stl</t>
-  </si>
-  <si>
-    <t>Fan Exhuast</t>
-  </si>
-  <si>
-    <t>Interchangeable with 110</t>
-  </si>
-  <si>
-    <t>Interchangeable with 111</t>
-  </si>
-  <si>
-    <t>Screen Mount</t>
-  </si>
-  <si>
-    <t>111 - Exterior - Skirt - Fan Exhaust.stl</t>
-  </si>
-  <si>
     <t>92mm Fan Mount</t>
   </si>
   <si>
@@ -552,15 +531,6 @@
     <t>Power switch</t>
   </si>
   <si>
-    <t>Screen Adapter</t>
-  </si>
-  <si>
-    <t>113 - Exterior - Skirt - Screen Adapter.stl</t>
-  </si>
-  <si>
-    <t>112 - Exterior - Skirt - Screen Mount.stl</t>
-  </si>
-  <si>
     <t>PSU Mount</t>
   </si>
   <si>
@@ -616,6 +586,33 @@
   </si>
   <si>
     <t>No ID tag</t>
+  </si>
+  <si>
+    <t>Display Mount</t>
+  </si>
+  <si>
+    <t>Display Slot</t>
+  </si>
+  <si>
+    <t>113 - Exterior - Skirt - Display Slot.stl</t>
+  </si>
+  <si>
+    <t>112 - Exterior - Skirt - Display Mount.stl</t>
+  </si>
+  <si>
+    <t>111 - Exterior - Skirt - 92mm Fan Grille.stl</t>
+  </si>
+  <si>
+    <t>92mm Fan Grille</t>
+  </si>
+  <si>
+    <t>Needs redesign</t>
+  </si>
+  <si>
+    <t>SD Card Reader Mount</t>
+  </si>
+  <si>
+    <t>110 - Exterior - Skirt - SD Card Reader Mount.stl</t>
   </si>
 </sst>
 </file>
@@ -1001,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC8DB31-6D45-4FED-94B6-5390BD4B0F2C}">
   <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F16" t="s">
         <v>35</v>
@@ -1434,10 +1431,10 @@
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="I16" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1832,7 +1829,7 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1859,7 +1856,7 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1886,7 +1883,7 @@
       </c>
       <c r="H33" s="1"/>
       <c r="I33" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1913,7 +1910,7 @@
       </c>
       <c r="H34" s="1"/>
       <c r="I34" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1982,7 +1979,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F37" t="s">
         <v>55</v>
@@ -1991,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2017,7 +2014,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2043,7 +2040,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2069,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2158,7 +2155,7 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D44" t="s">
         <v>1</v>
@@ -2176,7 +2173,7 @@
         <v>63</v>
       </c>
       <c r="I44" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2187,7 +2184,7 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="D45" t="s">
         <v>1</v>
@@ -2203,7 +2200,7 @@
       </c>
       <c r="H45" s="1"/>
       <c r="I45" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2214,7 +2211,7 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
@@ -2230,7 +2227,7 @@
       </c>
       <c r="H46" s="1"/>
       <c r="I46" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -2409,7 +2406,7 @@
         <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F53" t="s">
         <v>55</v>
@@ -2418,7 +2415,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2435,16 +2432,16 @@
         <v>9</v>
       </c>
       <c r="E54" t="s">
+        <v>120</v>
+      </c>
+      <c r="F54" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="I54" t="s">
         <v>121</v>
-      </c>
-      <c r="F54" t="s">
-        <v>55</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="I54" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2461,7 +2458,7 @@
         <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F55" t="s">
         <v>55</v>
@@ -2470,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2487,7 +2484,7 @@
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F56" t="s">
         <v>55</v>
@@ -2496,7 +2493,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2513,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F57" t="s">
         <v>55</v>
@@ -2522,7 +2519,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2533,22 +2530,22 @@
         <v>105</v>
       </c>
       <c r="C58" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
         <v>127</v>
       </c>
-      <c r="D58" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
+        <v>55</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="I58" t="s">
         <v>128</v>
-      </c>
-      <c r="F58" t="s">
-        <v>55</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="I58" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2559,25 +2556,25 @@
         <v>105</v>
       </c>
       <c r="C59" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>135</v>
+      </c>
+      <c r="F59" t="s">
+        <v>55</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
         <v>133</v>
       </c>
-      <c r="D59" t="s">
-        <v>1</v>
-      </c>
-      <c r="E59" t="s">
-        <v>136</v>
-      </c>
-      <c r="F59" t="s">
-        <v>55</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>134</v>
-      </c>
-      <c r="I59" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2594,16 +2591,16 @@
         <v>5</v>
       </c>
       <c r="E60" t="s">
+        <v>136</v>
+      </c>
+      <c r="F60" t="s">
+        <v>55</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
         <v>137</v>
-      </c>
-      <c r="F60" t="s">
-        <v>55</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="I60" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2620,7 +2617,7 @@
         <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F61" t="s">
         <v>55</v>
@@ -2629,7 +2626,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2646,16 +2643,16 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
+        <v>139</v>
+      </c>
+      <c r="F62" t="s">
+        <v>55</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
         <v>140</v>
-      </c>
-      <c r="F62" t="s">
-        <v>55</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="I62" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2672,7 +2669,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F63" t="s">
         <v>55</v>
@@ -2681,7 +2678,7 @@
         <v>2</v>
       </c>
       <c r="I63" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2811,7 +2808,7 @@
         <v>2</v>
       </c>
       <c r="H68" t="s">
-        <v>117</v>
+        <v>190</v>
       </c>
       <c r="I68" t="s">
         <v>104</v>
@@ -2831,7 +2828,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F69" t="s">
         <v>55</v>
@@ -2840,7 +2837,7 @@
         <v>10</v>
       </c>
       <c r="I69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2857,16 +2854,16 @@
         <v>1</v>
       </c>
       <c r="E70" t="s">
+        <v>130</v>
+      </c>
+      <c r="F70" t="s">
+        <v>55</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
         <v>131</v>
-      </c>
-      <c r="F70" t="s">
-        <v>55</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="I70" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -2874,7 +2871,7 @@
         <v>100</v>
       </c>
       <c r="B71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C71" t="s">
         <v>39</v>
@@ -2883,7 +2880,7 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F71" t="s">
         <v>55</v>
@@ -2892,7 +2889,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -2900,7 +2897,7 @@
         <v>101</v>
       </c>
       <c r="B72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C72" t="s">
         <v>39</v>
@@ -2909,7 +2906,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F72" t="s">
         <v>55</v>
@@ -2918,7 +2915,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -2926,7 +2923,7 @@
         <v>102</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C73" t="s">
         <v>39</v>
@@ -2935,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F73" t="s">
         <v>55</v>
@@ -2944,7 +2941,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -2952,7 +2949,7 @@
         <v>103</v>
       </c>
       <c r="B74" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C74" t="s">
         <v>39</v>
@@ -2961,7 +2958,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F74" t="s">
         <v>55</v>
@@ -2970,7 +2967,7 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -2978,25 +2975,25 @@
         <v>104</v>
       </c>
       <c r="B75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C75" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D75" t="s">
         <v>5</v>
       </c>
       <c r="E75" t="s">
+        <v>151</v>
+      </c>
+      <c r="F75" t="s">
+        <v>55</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
         <v>152</v>
-      </c>
-      <c r="F75" t="s">
-        <v>55</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="I75" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3004,28 +3001,28 @@
         <v>105</v>
       </c>
       <c r="B76" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C76" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D76" t="s">
         <v>9</v>
       </c>
       <c r="E76" t="s">
+        <v>153</v>
+      </c>
+      <c r="F76" t="s">
+        <v>55</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76" t="s">
+        <v>164</v>
+      </c>
+      <c r="I76" t="s">
         <v>154</v>
-      </c>
-      <c r="F76" t="s">
-        <v>55</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-      <c r="H76" t="s">
-        <v>171</v>
-      </c>
-      <c r="I76" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3033,25 +3030,25 @@
         <v>106</v>
       </c>
       <c r="B77" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C77" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D77" t="s">
         <v>5</v>
       </c>
       <c r="E77" t="s">
+        <v>155</v>
+      </c>
+      <c r="F77" t="s">
+        <v>55</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="I77" t="s">
         <v>156</v>
-      </c>
-      <c r="F77" t="s">
-        <v>55</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="I77" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3059,28 +3056,28 @@
         <v>107</v>
       </c>
       <c r="B78" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C78" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D78" t="s">
         <v>9</v>
       </c>
       <c r="E78" t="s">
+        <v>157</v>
+      </c>
+      <c r="F78" t="s">
+        <v>55</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78" t="s">
+        <v>163</v>
+      </c>
+      <c r="I78" t="s">
         <v>158</v>
-      </c>
-      <c r="F78" t="s">
-        <v>55</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78" t="s">
-        <v>170</v>
-      </c>
-      <c r="I78" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3088,16 +3085,16 @@
         <v>108</v>
       </c>
       <c r="B79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C79" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D79" t="s">
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F79" t="s">
         <v>55</v>
@@ -3106,7 +3103,7 @@
         <v>4</v>
       </c>
       <c r="I79" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3114,16 +3111,16 @@
         <v>109</v>
       </c>
       <c r="B80" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C80" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D80" t="s">
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F80" t="s">
         <v>55</v>
@@ -3132,7 +3129,7 @@
         <v>3</v>
       </c>
       <c r="I80" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -3140,16 +3137,16 @@
         <v>110</v>
       </c>
       <c r="B81" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C81" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D81" t="s">
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="F81" t="s">
         <v>55</v>
@@ -3157,11 +3154,8 @@
       <c r="G81">
         <v>1</v>
       </c>
-      <c r="H81" t="s">
-        <v>165</v>
-      </c>
       <c r="I81" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -3169,28 +3163,25 @@
         <v>111</v>
       </c>
       <c r="B82" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C82" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D82" t="s">
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="F82" t="s">
         <v>55</v>
       </c>
       <c r="G82">
-        <v>2</v>
-      </c>
-      <c r="H82" t="s">
-        <v>164</v>
+        <v>3</v>
       </c>
       <c r="I82" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3198,16 +3189,16 @@
         <v>112</v>
       </c>
       <c r="B83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C83" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D83" t="s">
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="F83" t="s">
         <v>55</v>
@@ -3216,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3224,16 +3215,16 @@
         <v>113</v>
       </c>
       <c r="B84" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C84" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D84" t="s">
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="F84" t="s">
         <v>55</v>
@@ -3242,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Printer Part Codes.xlsx
+++ b/Docs/Printer Part Codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06FD71CE-3B83-4E0D-A356-01BF81D14064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D91260C-91C8-4A02-B838-20B3C9465528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
   </bookViews>
@@ -999,7 +999,7 @@
   <dimension ref="A1:I84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Docs/Printer Part Codes.xlsx
+++ b/Docs/Printer Part Codes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D91260C-91C8-4A02-B838-20B3C9465528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C92C89F-7627-4C27-9C45-2C31CA16F9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="196">
   <si>
     <t>Component</t>
   </si>
@@ -613,6 +614,15 @@
   </si>
   <si>
     <t>110 - Exterior - Skirt - SD Card Reader Mount.stl</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t>Camera Mount</t>
+  </si>
+  <si>
+    <t>87 - Electrical - Camera - Camera Mount.stl</t>
   </si>
 </sst>
 </file>
@@ -679,10 +689,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I84" totalsRowShown="0">
-  <autoFilter ref="A1:I84" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I84">
-    <sortCondition ref="A1:A84"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I85" totalsRowShown="0">
+  <autoFilter ref="A1:I85" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I85">
+    <sortCondition ref="A1:A85"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A8EA61BD-839A-4759-B873-CEDA7BEA684B}" name="Number"/>
@@ -996,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC8DB31-6D45-4FED-94B6-5390BD4B0F2C}">
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2683,166 +2693,166 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="C64" t="s">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="D64" t="s">
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="F64" t="s">
         <v>55</v>
       </c>
-      <c r="G64" t="s">
-        <v>60</v>
+      <c r="G64">
+        <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>100</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B65" t="s">
         <v>36</v>
       </c>
       <c r="C65" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D65" t="s">
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F65" t="s">
         <v>55</v>
       </c>
-      <c r="G65">
-        <v>5</v>
+      <c r="G65" t="s">
+        <v>60</v>
       </c>
       <c r="I65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B66" t="s">
         <v>36</v>
       </c>
       <c r="C66" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D66" t="s">
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="G66">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>40</v>
+      </c>
+      <c r="F67" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67">
         <v>4</v>
       </c>
-      <c r="C67" t="s">
-        <v>24</v>
-      </c>
-      <c r="D67" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" t="s">
-        <v>58</v>
-      </c>
-      <c r="F67" t="s">
-        <v>55</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
       <c r="I67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B68" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="D68" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E68" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F68" t="s">
         <v>55</v>
       </c>
       <c r="G68">
-        <v>2</v>
-      </c>
-      <c r="H68" t="s">
-        <v>190</v>
+        <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B69" t="s">
         <v>36</v>
       </c>
       <c r="C69" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D69" t="s">
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="F69" t="s">
         <v>55</v>
       </c>
       <c r="G69">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="H69" t="s">
+        <v>190</v>
       </c>
       <c r="I69" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B70" t="s">
         <v>36</v>
@@ -2854,47 +2864,47 @@
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="F70" t="s">
         <v>55</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I70" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B71" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="C71" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="D71" t="s">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="F71" t="s">
         <v>55</v>
       </c>
       <c r="G71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B72" t="s">
         <v>141</v>
@@ -2906,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F72" t="s">
         <v>55</v>
@@ -2915,12 +2925,12 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B73" t="s">
         <v>141</v>
@@ -2932,7 +2942,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F73" t="s">
         <v>55</v>
@@ -2941,12 +2951,12 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B74" t="s">
         <v>141</v>
@@ -2958,7 +2968,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F74" t="s">
         <v>55</v>
@@ -2967,38 +2977,38 @@
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B75" t="s">
         <v>141</v>
       </c>
       <c r="C75" t="s">
-        <v>150</v>
+        <v>39</v>
       </c>
       <c r="D75" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F75" t="s">
         <v>55</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B76" t="s">
         <v>141</v>
@@ -3007,10 +3017,10 @@
         <v>150</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F76" t="s">
         <v>55</v>
@@ -3018,16 +3028,13 @@
       <c r="G76">
         <v>1</v>
       </c>
-      <c r="H76" t="s">
-        <v>164</v>
-      </c>
       <c r="I76" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B77" t="s">
         <v>141</v>
@@ -3036,10 +3043,10 @@
         <v>150</v>
       </c>
       <c r="D77" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F77" t="s">
         <v>55</v>
@@ -3047,13 +3054,16 @@
       <c r="G77">
         <v>1</v>
       </c>
+      <c r="H77" t="s">
+        <v>164</v>
+      </c>
       <c r="I77" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B78" t="s">
         <v>141</v>
@@ -3062,10 +3072,10 @@
         <v>150</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F78" t="s">
         <v>55</v>
@@ -3073,16 +3083,13 @@
       <c r="G78">
         <v>1</v>
       </c>
-      <c r="H78" t="s">
-        <v>163</v>
-      </c>
       <c r="I78" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B79" t="s">
         <v>141</v>
@@ -3091,24 +3098,27 @@
         <v>150</v>
       </c>
       <c r="D79" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F79" t="s">
         <v>55</v>
       </c>
       <c r="G79">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>163</v>
       </c>
       <c r="I79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B80" t="s">
         <v>141</v>
@@ -3120,21 +3130,21 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F80" t="s">
         <v>55</v>
       </c>
       <c r="G80">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I80" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B81" t="s">
         <v>141</v>
@@ -3146,21 +3156,21 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="F81" t="s">
         <v>55</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I81" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B82" t="s">
         <v>141</v>
@@ -3172,21 +3182,21 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F82" t="s">
         <v>55</v>
       </c>
       <c r="G82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B83" t="s">
         <v>141</v>
@@ -3198,21 +3208,21 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F83" t="s">
         <v>55</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I83" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B84" t="s">
         <v>141</v>
@@ -3224,15 +3234,41 @@
         <v>1</v>
       </c>
       <c r="E84" t="s">
+        <v>184</v>
+      </c>
+      <c r="F84" t="s">
+        <v>55</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>113</v>
+      </c>
+      <c r="B85" t="s">
+        <v>141</v>
+      </c>
+      <c r="C85" t="s">
+        <v>150</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
         <v>185</v>
       </c>
-      <c r="F84" t="s">
-        <v>55</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="I84" t="s">
+      <c r="F85" t="s">
+        <v>55</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="I85" t="s">
         <v>186</v>
       </c>
     </row>

--- a/Docs/Printer Part Codes.xlsx
+++ b/Docs/Printer Part Codes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C92C89F-7627-4C27-9C45-2C31CA16F9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1892D0-F183-490F-AAAC-236D72221DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
   </bookViews>
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Docs/Printer Part Codes.xlsx
+++ b/Docs/Printer Part Codes.xlsx
@@ -1,19 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1892D0-F183-490F-AAAC-236D72221DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3296CC06-4556-4C35-8EFD-3EBB087CED5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="3" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="000 - Printed Parts" sheetId="1" r:id="rId1"/>
+    <sheet name="500 - Fasteners" sheetId="2" r:id="rId2"/>
+    <sheet name="600 - Transmission" sheetId="6" r:id="rId3"/>
+    <sheet name="700 - Framing" sheetId="5" r:id="rId4"/>
+    <sheet name="800 - Misc" sheetId="4" r:id="rId5"/>
+    <sheet name="900 - Electrical" sheetId="7" r:id="rId6"/>
+    <sheet name="1000 - Hotend" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="484">
   <si>
     <t>Component</t>
   </si>
@@ -148,9 +154,6 @@
     <t>Misc</t>
   </si>
   <si>
-    <t>Bracket Cover</t>
-  </si>
-  <si>
     <t>Limit Switch Cap</t>
   </si>
   <si>
@@ -190,9 +193,6 @@
     <t>BLTouch Mount</t>
   </si>
   <si>
-    <t>Belt Catch</t>
-  </si>
-  <si>
     <t>EVA Duct</t>
   </si>
   <si>
@@ -229,9 +229,6 @@
     <t>Hotend adapter for bowden</t>
   </si>
   <si>
-    <t>Gantry Lock</t>
-  </si>
-  <si>
     <t>Tools</t>
   </si>
   <si>
@@ -337,9 +334,6 @@
     <t>51 - ABL - Mount - BLTouch.stl</t>
   </si>
   <si>
-    <t>90 - Misc - Bracket Cover.stl</t>
-  </si>
-  <si>
     <t>91 - Misc - Limit Switch Cap.stl</t>
   </si>
   <si>
@@ -349,9 +343,6 @@
     <t>93 - XY - Motion - X Limit Switch Mount.stl</t>
   </si>
   <si>
-    <t>94 - Misc - Tools - Gantry Lock.stl</t>
-  </si>
-  <si>
     <t>Electrical</t>
   </si>
   <si>
@@ -412,21 +403,6 @@
     <t>79 - Electrical - Mount - R SKR Board Mount.stl</t>
   </si>
   <si>
-    <t>80mm Fan Mount</t>
-  </si>
-  <si>
-    <t>Fan Grill</t>
-  </si>
-  <si>
-    <t>80mm Fan Grill</t>
-  </si>
-  <si>
-    <t>81 - Electrical - Fan Grill - 80mm Fan Grill.stl</t>
-  </si>
-  <si>
-    <t>80 - Electrical - Fan Mount - 80mm Fan Mount.stl</t>
-  </si>
-  <si>
     <t>PTFE Tube Coupler</t>
   </si>
   <si>
@@ -457,9 +433,6 @@
     <t>5A Buck Mount</t>
   </si>
   <si>
-    <t>85 - Electrical - Mount - 5A Buck Mount.stl</t>
-  </si>
-  <si>
     <t>Exterior</t>
   </si>
   <si>
@@ -541,9 +514,6 @@
     <t>Mounting Bracket</t>
   </si>
   <si>
-    <t>40 - Gantry - Hotend - Mounting Bracket</t>
-  </si>
-  <si>
     <t>41 - Gantry - Hotend - Locking Collar.stl</t>
   </si>
   <si>
@@ -623,6 +593,906 @@
   </si>
   <si>
     <t>87 - Electrical - Camera - Camera Mount.stl</t>
+  </si>
+  <si>
+    <t>MIsc</t>
+  </si>
+  <si>
+    <t>PN016</t>
+  </si>
+  <si>
+    <t>PN015</t>
+  </si>
+  <si>
+    <t>PN001</t>
+  </si>
+  <si>
+    <t>PN002</t>
+  </si>
+  <si>
+    <t>PN003</t>
+  </si>
+  <si>
+    <t>PN004</t>
+  </si>
+  <si>
+    <t>PN107</t>
+  </si>
+  <si>
+    <t>PN017</t>
+  </si>
+  <si>
+    <t>PN091</t>
+  </si>
+  <si>
+    <t>Coupler, 5mm to 8mm, Spider</t>
+  </si>
+  <si>
+    <t>PN581</t>
+  </si>
+  <si>
+    <t>Coupler, 5mm to 8mm, Rigid</t>
+  </si>
+  <si>
+    <t>PN580</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>Washer, M5x10mm</t>
+  </si>
+  <si>
+    <t>PN578</t>
+  </si>
+  <si>
+    <t>Washer, M5, Split Lock</t>
+  </si>
+  <si>
+    <t>PN577</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>Tee Nut, 6mm Slot, M3, Slide In</t>
+  </si>
+  <si>
+    <t>PN576</t>
+  </si>
+  <si>
+    <t>Tee Nut, 6mm Slot, M5, Roll In</t>
+  </si>
+  <si>
+    <t>PN575</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>Screw, M4 x 16 SHCS</t>
+  </si>
+  <si>
+    <t>PN552</t>
+  </si>
+  <si>
+    <t>Screw, M4-0.7 x 6mm Set Screw</t>
+  </si>
+  <si>
+    <t>PN551</t>
+  </si>
+  <si>
+    <t>Screw, M4-0.7 x 45mm FHCS</t>
+  </si>
+  <si>
+    <t>PN550</t>
+  </si>
+  <si>
+    <t>Screw, M5-0.8 x 45mm BHCS</t>
+  </si>
+  <si>
+    <t>PN535</t>
+  </si>
+  <si>
+    <t>Screw, M5-0.8 x 25mm BHCS</t>
+  </si>
+  <si>
+    <t>PN534</t>
+  </si>
+  <si>
+    <t>Screw, M5-0.8 x 16mm BHCS</t>
+  </si>
+  <si>
+    <t>PN533</t>
+  </si>
+  <si>
+    <t>Screw, M5-0.8 x 12mm BHCS</t>
+  </si>
+  <si>
+    <t>PN532</t>
+  </si>
+  <si>
+    <t>Screw, M5-0.8 x 10mm BHCS</t>
+  </si>
+  <si>
+    <t>PN991</t>
+  </si>
+  <si>
+    <t>Screw, M5-0.8 x 8mm BHCS</t>
+  </si>
+  <si>
+    <t>PN530</t>
+  </si>
+  <si>
+    <t>Screw, M3-0.5 x 45mm SHCS</t>
+  </si>
+  <si>
+    <t>PN509</t>
+  </si>
+  <si>
+    <t>Screw, M3-0.5 x 40mm SHCS</t>
+  </si>
+  <si>
+    <t>PN508</t>
+  </si>
+  <si>
+    <t>Screw, M3-0.5 x 35mm SCHS</t>
+  </si>
+  <si>
+    <t>PN507</t>
+  </si>
+  <si>
+    <t>Screw, M3-0.5 x 30mm SHCS</t>
+  </si>
+  <si>
+    <t>PN506</t>
+  </si>
+  <si>
+    <t>Screw, M3-0.5 x 25mm SHCS</t>
+  </si>
+  <si>
+    <t>PN505</t>
+  </si>
+  <si>
+    <t>Screw, M3-0.5 x 20mm, SHCS</t>
+  </si>
+  <si>
+    <t>PN504</t>
+  </si>
+  <si>
+    <t>Screw, M3-0.5 x 16mm SHCS</t>
+  </si>
+  <si>
+    <t>PN503</t>
+  </si>
+  <si>
+    <t>Screw, M3-0.5 x 12mm SHCS</t>
+  </si>
+  <si>
+    <t>PN502</t>
+  </si>
+  <si>
+    <t>Screw, M3-0.5 x 8mm SHCS</t>
+  </si>
+  <si>
+    <t>PN501</t>
+  </si>
+  <si>
+    <t>Screw, M3-0.5 x 6mm SHCS</t>
+  </si>
+  <si>
+    <t>PN500</t>
+  </si>
+  <si>
+    <t>Metric Size</t>
+  </si>
+  <si>
+    <t>Description String</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Heatsink, 42x42x12mm</t>
+  </si>
+  <si>
+    <t>PN801</t>
+  </si>
+  <si>
+    <t>Vibration Damper, NEMA 17</t>
+  </si>
+  <si>
+    <t>PN800</t>
+  </si>
+  <si>
+    <t>Part Description</t>
+  </si>
+  <si>
+    <t>Linear Rod, 8mm OD, 250mm</t>
+  </si>
+  <si>
+    <t>PN621</t>
+  </si>
+  <si>
+    <t>Dowel Pin, 5mm OD, 25mm</t>
+  </si>
+  <si>
+    <t>PN620</t>
+  </si>
+  <si>
+    <t>Pulley, 2GT-2, 30T, 8mm Bore</t>
+  </si>
+  <si>
+    <t>PN611</t>
+  </si>
+  <si>
+    <t>Idler Pulley, 2GT-2 20T, 5mm Bore</t>
+  </si>
+  <si>
+    <t>PN610</t>
+  </si>
+  <si>
+    <t>Bearing, F695-2RS</t>
+  </si>
+  <si>
+    <t>PN601</t>
+  </si>
+  <si>
+    <t>Bearing, F688ZZ</t>
+  </si>
+  <si>
+    <t>PN600</t>
+  </si>
+  <si>
+    <t>PN631</t>
+  </si>
+  <si>
+    <t>Linear Rail, MGN12, 400mm</t>
+  </si>
+  <si>
+    <t>PN632</t>
+  </si>
+  <si>
+    <t>Linear Rail Carriage, MGN12H</t>
+  </si>
+  <si>
+    <t>Limit Switch</t>
+  </si>
+  <si>
+    <t>PN900</t>
+  </si>
+  <si>
+    <t>PN901</t>
+  </si>
+  <si>
+    <t>PN902</t>
+  </si>
+  <si>
+    <t>PN910</t>
+  </si>
+  <si>
+    <t>Hex Nut, M5</t>
+  </si>
+  <si>
+    <t>PN570</t>
+  </si>
+  <si>
+    <t>Hex Nut, M3</t>
+  </si>
+  <si>
+    <t>PN571</t>
+  </si>
+  <si>
+    <t>PN595</t>
+  </si>
+  <si>
+    <t>PN596</t>
+  </si>
+  <si>
+    <t>Heat Set Insert, M3x5.7mm</t>
+  </si>
+  <si>
+    <t>Heat Set Insert, M5x8.1mm</t>
+  </si>
+  <si>
+    <t>PN582</t>
+  </si>
+  <si>
+    <t>Lock Collar, 8mm</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>PN012</t>
+  </si>
+  <si>
+    <t>PN013</t>
+  </si>
+  <si>
+    <t>PN011</t>
+  </si>
+  <si>
+    <t>PN014</t>
+  </si>
+  <si>
+    <t>PN018</t>
+  </si>
+  <si>
+    <t>Stepper, NEMA 17, 48mm, 17HM19-2004S</t>
+  </si>
+  <si>
+    <t>A/B</t>
+  </si>
+  <si>
+    <t>Z1 &amp; Z2</t>
+  </si>
+  <si>
+    <t>Stepper, NEMA 17, 39mm, 17HS15-1504S-X1</t>
+  </si>
+  <si>
+    <t>Stepper, NEMA 17, 25mm, 17HS10-0704S</t>
+  </si>
+  <si>
+    <t>PN911</t>
+  </si>
+  <si>
+    <t>Power Switch, Toggle</t>
+  </si>
+  <si>
+    <t>TPST or SPST?</t>
+  </si>
+  <si>
+    <t>PN920</t>
+  </si>
+  <si>
+    <t>IEC C13 Socket with Fuse</t>
+  </si>
+  <si>
+    <t>PN980</t>
+  </si>
+  <si>
+    <t>BIGTREETECH Octopus V1.1</t>
+  </si>
+  <si>
+    <t>PN981</t>
+  </si>
+  <si>
+    <t>Stepper Driver, TMC2209</t>
+  </si>
+  <si>
+    <t>PN982</t>
+  </si>
+  <si>
+    <t>BTT Mini12864 LCD V1.0</t>
+  </si>
+  <si>
+    <t>PN912</t>
+  </si>
+  <si>
+    <t>Power Supply, 24V, 450W</t>
+  </si>
+  <si>
+    <t>Meanwell SE-450-24</t>
+  </si>
+  <si>
+    <t>PN983</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 4B</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 3B+</t>
+  </si>
+  <si>
+    <t>PN984</t>
+  </si>
+  <si>
+    <t>PN985</t>
+  </si>
+  <si>
+    <t>Raspberry Pi Camera</t>
+  </si>
+  <si>
+    <t>PN960</t>
+  </si>
+  <si>
+    <t>PN970</t>
+  </si>
+  <si>
+    <t>PN950</t>
+  </si>
+  <si>
+    <t>5050 RGB LED Pixel, 12mm PCB, 16.6mm Pitch</t>
+  </si>
+  <si>
+    <t>PN961</t>
+  </si>
+  <si>
+    <t>PN962</t>
+  </si>
+  <si>
+    <t>Panel Mount Extension, USB Type B</t>
+  </si>
+  <si>
+    <t>Panel Mount Extension, RJ-45</t>
+  </si>
+  <si>
+    <t>Panel Mount Extension, HDMI</t>
+  </si>
+  <si>
+    <t>USB A terminated</t>
+  </si>
+  <si>
+    <t>HDMI terminated on RPi 3B+, mini-HDMI on RPi4</t>
+  </si>
+  <si>
+    <t>PN963</t>
+  </si>
+  <si>
+    <t>SD Card Reader Extension</t>
+  </si>
+  <si>
+    <t>Removed from plastic housing</t>
+  </si>
+  <si>
+    <t>60 LED/m, typically WS2812B or WS2815</t>
+  </si>
+  <si>
+    <t>PN951</t>
+  </si>
+  <si>
+    <t>Fan, Radial, 50mm x 15mm</t>
+  </si>
+  <si>
+    <t>PN952</t>
+  </si>
+  <si>
+    <t>PN953</t>
+  </si>
+  <si>
+    <t>PN992</t>
+  </si>
+  <si>
+    <t>Fan, Radial, 75mm x 30mm</t>
+  </si>
+  <si>
+    <t>Fan, Axial, 40mm x 20mm</t>
+  </si>
+  <si>
+    <t>Fan, Axial, 80mm x 25mm</t>
+  </si>
+  <si>
+    <t>To be removed; use PN952</t>
+  </si>
+  <si>
+    <t>Fan, Axial, 92mm x 25mm</t>
+  </si>
+  <si>
+    <t>PN700</t>
+  </si>
+  <si>
+    <t>Corner Bracket, Tapped</t>
+  </si>
+  <si>
+    <t>HBKTS5-C</t>
+  </si>
+  <si>
+    <t>MISUMI Part Number</t>
+  </si>
+  <si>
+    <t>Corner Bracket, Inside Hidden</t>
+  </si>
+  <si>
+    <t>PN701</t>
+  </si>
+  <si>
+    <t>(None)</t>
+  </si>
+  <si>
+    <t>Corner Bracket, Super Thick, Tapped</t>
+  </si>
+  <si>
+    <t>HBKUS5-C</t>
+  </si>
+  <si>
+    <t>PN702</t>
+  </si>
+  <si>
+    <t>Door Frame Corner</t>
+  </si>
+  <si>
+    <t>HBLTC5</t>
+  </si>
+  <si>
+    <t>PN710</t>
+  </si>
+  <si>
+    <t>PN711</t>
+  </si>
+  <si>
+    <t>2020 Extrusion Hinge</t>
+  </si>
+  <si>
+    <t>HHPSN5</t>
+  </si>
+  <si>
+    <t>PN712</t>
+  </si>
+  <si>
+    <t>2020 Extrusion Handle</t>
+  </si>
+  <si>
+    <t>PN642</t>
+  </si>
+  <si>
+    <t>Lead Screw, Tr8x4, 500mm</t>
+  </si>
+  <si>
+    <t>PN643</t>
+  </si>
+  <si>
+    <t>Lead Screw Nut, Tr8x4</t>
+  </si>
+  <si>
+    <t>PN021</t>
+  </si>
+  <si>
+    <t>PN022</t>
+  </si>
+  <si>
+    <t>PN027</t>
+  </si>
+  <si>
+    <t>PN028</t>
+  </si>
+  <si>
+    <t>PN026</t>
+  </si>
+  <si>
+    <t>PN025</t>
+  </si>
+  <si>
+    <t>PN572</t>
+  </si>
+  <si>
+    <t>Hex Nut, M4</t>
+  </si>
+  <si>
+    <t>PN810</t>
+  </si>
+  <si>
+    <t>Bed Spring</t>
+  </si>
+  <si>
+    <t>PN811</t>
+  </si>
+  <si>
+    <t>Bed Leveling Nut</t>
+  </si>
+  <si>
+    <t>PN812</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Creality CR-10 Stock</t>
+  </si>
+  <si>
+    <t>310x310mm Build Plate</t>
+  </si>
+  <si>
+    <t>PN019</t>
+  </si>
+  <si>
+    <t>PN029</t>
+  </si>
+  <si>
+    <t>PN020</t>
+  </si>
+  <si>
+    <t>PN813</t>
+  </si>
+  <si>
+    <t>Idler Pulley Plate</t>
+  </si>
+  <si>
+    <t>PN092</t>
+  </si>
+  <si>
+    <t>PN062</t>
+  </si>
+  <si>
+    <t>Corner Bracket Cover</t>
+  </si>
+  <si>
+    <t>90 - Misc - Corner Bracket Cover.stl</t>
+  </si>
+  <si>
+    <t>PN090</t>
+  </si>
+  <si>
+    <t>94 - Misc - Tools - Gantry Service Bar.stl</t>
+  </si>
+  <si>
+    <t>Gantry Service Bar</t>
+  </si>
+  <si>
+    <t>PN094</t>
+  </si>
+  <si>
+    <t>Y Axis Front Rail Guide</t>
+  </si>
+  <si>
+    <t>99 - XY - Motion - Y Axis Front Rail Guide</t>
+  </si>
+  <si>
+    <t>PN099</t>
+  </si>
+  <si>
+    <t>97 - Misc - Frame -  Panel Mount Point, Double.stl</t>
+  </si>
+  <si>
+    <t>95 - Misc - Frame - Panel Mount Point, Single.stl</t>
+  </si>
+  <si>
+    <t>Panel Mount Point, Single</t>
+  </si>
+  <si>
+    <t>PN095</t>
+  </si>
+  <si>
+    <t>Panel Mount Point, Double</t>
+  </si>
+  <si>
+    <t>PN097</t>
+  </si>
+  <si>
+    <t>PN098</t>
+  </si>
+  <si>
+    <t>PN096</t>
+  </si>
+  <si>
+    <t>PN070</t>
+  </si>
+  <si>
+    <t>PN085</t>
+  </si>
+  <si>
+    <t>85 - Electrical - Mount - Buck Converter Mount, DROK 5A.stl</t>
+  </si>
+  <si>
+    <t>PN087</t>
+  </si>
+  <si>
+    <t>PN071</t>
+  </si>
+  <si>
+    <t>PN076</t>
+  </si>
+  <si>
+    <t>PN077</t>
+  </si>
+  <si>
+    <t>PN086</t>
+  </si>
+  <si>
+    <t>PN083</t>
+  </si>
+  <si>
+    <t>PN084</t>
+  </si>
+  <si>
+    <t>PN110</t>
+  </si>
+  <si>
+    <t>PN078</t>
+  </si>
+  <si>
+    <t>PN079</t>
+  </si>
+  <si>
+    <t>PN044</t>
+  </si>
+  <si>
+    <t>PN043</t>
+  </si>
+  <si>
+    <t>PN023</t>
+  </si>
+  <si>
+    <t>PN024</t>
+  </si>
+  <si>
+    <t>PN112</t>
+  </si>
+  <si>
+    <t>PN113</t>
+  </si>
+  <si>
+    <t>PN725</t>
+  </si>
+  <si>
+    <t>HFSP5-2020-440</t>
+  </si>
+  <si>
+    <t>2020 Extrusion, 440mm, Milled</t>
+  </si>
+  <si>
+    <t>PN093</t>
+  </si>
+  <si>
+    <t>PN005</t>
+  </si>
+  <si>
+    <t>PN006</t>
+  </si>
+  <si>
+    <t>PN007</t>
+  </si>
+  <si>
+    <t>PN008</t>
+  </si>
+  <si>
+    <t>PN009</t>
+  </si>
+  <si>
+    <t>PN010</t>
+  </si>
+  <si>
+    <t>2020 Extrusion, 540mm</t>
+  </si>
+  <si>
+    <t>HFS5-2020-620</t>
+  </si>
+  <si>
+    <t>HFS5-2020-540</t>
+  </si>
+  <si>
+    <t>PN726</t>
+  </si>
+  <si>
+    <t>PN727</t>
+  </si>
+  <si>
+    <t>2020 Extrusion, 620mm</t>
+  </si>
+  <si>
+    <t>2020 Extrusion, 540mm, Milled</t>
+  </si>
+  <si>
+    <t>HFSP5-2020-540</t>
+  </si>
+  <si>
+    <t>PN728</t>
+  </si>
+  <si>
+    <t>2020 Extrusion, 500mm</t>
+  </si>
+  <si>
+    <t>HFS5-2020-500</t>
+  </si>
+  <si>
+    <t>PN729</t>
+  </si>
+  <si>
+    <t>HFS5-2020-510</t>
+  </si>
+  <si>
+    <t>2020 Extrusion, 510mm</t>
+  </si>
+  <si>
+    <t>PN730</t>
+  </si>
+  <si>
+    <t>PN108</t>
+  </si>
+  <si>
+    <t>PN106</t>
+  </si>
+  <si>
+    <t>PN105</t>
+  </si>
+  <si>
+    <t>PN104</t>
+  </si>
+  <si>
+    <t>PN075</t>
+  </si>
+  <si>
+    <t>PN074</t>
+  </si>
+  <si>
+    <t>PN073</t>
+  </si>
+  <si>
+    <t>PN072</t>
+  </si>
+  <si>
+    <t>Belt Clamp</t>
+  </si>
+  <si>
+    <t>PN731</t>
+  </si>
+  <si>
+    <t>2020 Extrusion, Variable</t>
+  </si>
+  <si>
+    <t>Allowance is made for 540-580mm</t>
+  </si>
+  <si>
+    <t>PN080</t>
+  </si>
+  <si>
+    <t>Parametric, defaults provided</t>
+  </si>
+  <si>
+    <t>Parametric T Slot Cap</t>
+  </si>
+  <si>
+    <t>PN042</t>
+  </si>
+  <si>
+    <t>40 - Gantry - Hotend - Mounting Bracket.stl</t>
+  </si>
+  <si>
+    <t>PN040</t>
+  </si>
+  <si>
+    <t>PN041</t>
+  </si>
+  <si>
+    <t>Heater Cartridge, 24V, 40W</t>
+  </si>
+  <si>
+    <t>Thermistor, NTC 100K</t>
+  </si>
+  <si>
+    <t>E3D V6 Hotend</t>
+  </si>
+  <si>
+    <t>Or compatible clone</t>
+  </si>
+  <si>
+    <t>PN1000</t>
+  </si>
+  <si>
+    <t>PN1001</t>
+  </si>
+  <si>
+    <t>Bondtech BMG Extruder</t>
+  </si>
+  <si>
+    <t>Bondtech BMG-M Extruder</t>
+  </si>
+  <si>
+    <t>PN1100</t>
+  </si>
+  <si>
+    <t>PN1201</t>
+  </si>
+  <si>
+    <t>PN1200</t>
+  </si>
+  <si>
+    <t>PN1002</t>
+  </si>
+  <si>
+    <t>PTFE Tube</t>
+  </si>
+  <si>
+    <t>BLTouch V3.1</t>
+  </si>
+  <si>
+    <t>PN1300</t>
+  </si>
+  <si>
+    <t>OpenBuilds clone</t>
+  </si>
+  <si>
+    <t>Creality clone</t>
   </si>
 </sst>
 </file>
@@ -689,10 +1559,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I85" totalsRowShown="0">
-  <autoFilter ref="A1:I85" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I85">
-    <sortCondition ref="A1:A85"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I87" totalsRowShown="0">
+  <autoFilter ref="A1:I87" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I87">
+    <sortCondition ref="A1:A87"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A8EA61BD-839A-4759-B873-CEDA7BEA684B}" name="Number"/>
@@ -706,6 +1576,78 @@
     <tableColumn id="9" xr3:uid="{2CDB0871-5B60-47E8-947B-D1E55965C018}" name="STL Filename"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8089694C-6482-47D7-8E98-C409897AE123}" name="Table13" displayName="Table13" ref="A1:C32" totalsRowShown="0">
+  <autoFilter ref="A1:C32" xr:uid="{D1A3C8AC-EDAD-4865-884E-6154074F4784}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{BDDDE73C-3ECC-40F1-A465-07687B41711A}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{44B65DAB-6E70-4886-8A57-11EE25DF9B03}" name="Description String"/>
+    <tableColumn id="3" xr3:uid="{9A61B22B-07B7-4C49-AD6C-423CB21126D8}" name="Metric Size"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{30DB7FE6-6DE6-4419-8051-42F2B9BB18F2}" name="Table2" displayName="Table2" ref="A1:B12" totalsRowShown="0">
+  <autoFilter ref="A1:B12" xr:uid="{6ED8DD30-933D-405C-828B-C09D05641C68}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{F3B89618-5C6E-4C8A-9B32-75D07E4090AF}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{2736E36F-0247-4B7C-B56B-635598DB4C03}" name="Description String"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8570C666-3312-43F5-A12D-CA6F588D6A21}" name="Table6" displayName="Table6" ref="A1:D14" totalsRowShown="0">
+  <autoFilter ref="A1:D14" xr:uid="{8570C666-3312-43F5-A12D-CA6F588D6A21}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{DDE460B5-9815-4608-8551-C7DA640FABAE}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{00ECFD0D-B7D6-4B45-834E-6EA63127D17A}" name="Description String"/>
+    <tableColumn id="3" xr3:uid="{A73385B4-22B1-43B4-90BE-B9F2E271460B}" name="MISUMI Part Number"/>
+    <tableColumn id="4" xr3:uid="{BF49229A-27F9-4A1D-95A8-BC0296BAB7C8}" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{38E36A69-6DC9-48C9-A844-2C9B61CC67B5}" name="Table4" displayName="Table4" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7" xr:uid="{25A20098-4797-4CED-8859-6F0B389C74C7}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{4A8FA1ED-C774-4AAD-B05A-174EEF2A2E73}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{008547DD-D3A3-47C0-AA5C-98C260ED5CC8}" name="Part Description"/>
+    <tableColumn id="3" xr3:uid="{7272962D-D4B8-4C68-886D-6FECD762F844}" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E77F429E-7503-4CB6-829A-92647E35DDBE}" name="Table3" displayName="Table3" ref="A1:C24" totalsRowShown="0">
+  <autoFilter ref="A1:C24" xr:uid="{8BABF5E9-F118-4BB6-8CB6-73E52CF1CA9F}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{2640334D-8D49-433A-AC38-5E3A83CD6E82}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{6F287AD0-06D3-42F8-928A-6934737A719D}" name="Part Description"/>
+    <tableColumn id="3" xr3:uid="{69D95E68-9514-46EF-8275-3564DE1F3A94}" name="Note"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{732EFD3F-783F-4A9E-966D-47D3AC76FFEA}" name="Table7" displayName="Table7" ref="A1:C8" totalsRowShown="0">
+  <autoFilter ref="A1:C8" xr:uid="{732EFD3F-783F-4A9E-966D-47D3AC76FFEA}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{D27A1FD2-D68A-49A9-8486-A5E0A7C8139D}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{532CA9D2-6154-4580-96FD-1F398A1AAB41}" name="Description String"/>
+    <tableColumn id="3" xr3:uid="{6F2206D7-5CDF-4844-BCEA-9C03E2AE39DA}" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1006,10 +1948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC8DB31-6D45-4FED-94B6-5390BD4B0F2C}">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,7 +1964,7 @@
     <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="6.7109375" customWidth="1"/>
     <col min="8" max="8" width="26.28515625" customWidth="1"/>
-    <col min="9" max="9" width="48.140625" customWidth="1"/>
+    <col min="9" max="9" width="51.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1042,21 +1984,21 @@
         <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H1" t="s">
         <v>29</v>
       </c>
       <c r="I1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1071,18 +2013,18 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
+      <c r="A3" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1097,18 +2039,18 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
+      <c r="A4" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1123,18 +2065,18 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
+      <c r="A5" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1149,18 +2091,18 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>5</v>
+      <c r="A6" s="2" t="s">
+        <v>427</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1175,18 +2117,18 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
+      <c r="A7" s="2" t="s">
+        <v>428</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -1201,18 +2143,18 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
+      <c r="A8" s="2" t="s">
+        <v>429</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1227,18 +2169,18 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
+      <c r="A9" s="2" t="s">
+        <v>430</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -1253,18 +2195,18 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
+      <c r="A10" s="2" t="s">
+        <v>431</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -1279,18 +2221,18 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" t="s">
+        <v>432</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -1305,18 +2247,18 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" t="s">
+        <v>289</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -1331,18 +2273,18 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
+      <c r="A13" t="s">
+        <v>287</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -1357,18 +2299,18 @@
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
+      <c r="A14" t="s">
+        <v>288</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -1383,18 +2325,18 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G14">
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
+      <c r="A15" t="s">
+        <v>290</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -1409,18 +2351,18 @@
         <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G15">
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
+      <c r="A16" t="s">
+        <v>186</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -1432,7 +2374,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F16" t="s">
         <v>35</v>
@@ -1441,15 +2383,15 @@
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="I16" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
+      <c r="A17" t="s">
+        <v>185</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -1464,18 +2406,18 @@
         <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G17">
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
+      <c r="A18" t="s">
+        <v>192</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -1487,21 +2429,21 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
+      <c r="A19" t="s">
+        <v>291</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -1513,24 +2455,24 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
         <v>55</v>
       </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>57</v>
-      </c>
       <c r="I19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
+      <c r="A20" t="s">
+        <v>380</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -1542,21 +2484,21 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G20">
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
+      <c r="A21" t="s">
+        <v>382</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -1571,18 +2513,18 @@
         <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G21">
         <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
+      <c r="A22" t="s">
+        <v>364</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -1597,18 +2539,18 @@
         <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
+      <c r="A23" t="s">
+        <v>365</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1623,18 +2565,18 @@
         <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
+      <c r="A24" t="s">
+        <v>419</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1649,18 +2591,18 @@
         <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
+      <c r="A25" t="s">
+        <v>420</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1675,18 +2617,18 @@
         <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
+      <c r="A26" t="s">
+        <v>369</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1701,18 +2643,18 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
+      <c r="A27" t="s">
+        <v>368</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -1727,18 +2669,18 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
+      <c r="A28" t="s">
+        <v>366</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -1753,18 +2695,18 @@
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
+      <c r="A29" t="s">
+        <v>367</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -1779,18 +2721,18 @@
         <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
+      <c r="A30" t="s">
+        <v>381</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -1805,14 +2747,14 @@
         <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1823,23 +2765,23 @@
         <v>23</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1850,23 +2792,23 @@
         <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1877,23 +2819,23 @@
         <v>23</v>
       </c>
       <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
         <v>42</v>
       </c>
-      <c r="D33" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>43</v>
-      </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1904,23 +2846,23 @@
         <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1931,22 +2873,22 @@
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>456</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="I35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1957,27 +2899,27 @@
         <v>23</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>51</v>
+        <v>456</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>40</v>
+      <c r="A37" t="s">
+        <v>465</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
@@ -1989,21 +2931,21 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>168</v>
+        <v>464</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>41</v>
+      <c r="A38" t="s">
+        <v>466</v>
       </c>
       <c r="B38" t="s">
         <v>23</v>
@@ -2018,18 +2960,18 @@
         <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>42</v>
+      <c r="A39" t="s">
+        <v>463</v>
       </c>
       <c r="B39" t="s">
         <v>23</v>
@@ -2044,18 +2986,18 @@
         <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>43</v>
+      <c r="A40" t="s">
+        <v>418</v>
       </c>
       <c r="B40" t="s">
         <v>23</v>
@@ -2076,12 +3018,12 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>44</v>
+      <c r="A41" t="s">
+        <v>417</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
@@ -2093,16 +3035,16 @@
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2119,16 +3061,16 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2136,25 +3078,25 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
         <v>49</v>
       </c>
-      <c r="C43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" t="s">
-        <v>50</v>
-      </c>
       <c r="F43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2162,28 +3104,28 @@
         <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D44" t="s">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I44" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2191,541 +3133,541 @@
         <v>61</v>
       </c>
       <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>166</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
         <v>46</v>
       </c>
-      <c r="C45" t="s">
-        <v>178</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>47</v>
-      </c>
       <c r="F45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>62</v>
+      <c r="A46" t="s">
+        <v>386</v>
       </c>
       <c r="B46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
         <v>46</v>
       </c>
-      <c r="C46" t="s">
-        <v>179</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46" t="s">
-        <v>47</v>
-      </c>
       <c r="F46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>70</v>
+      <c r="A47" t="s">
+        <v>404</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C47" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I47" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>71</v>
+      <c r="A48" t="s">
+        <v>408</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C48" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I48" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>72</v>
+      <c r="A49" t="s">
+        <v>455</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>73</v>
+      <c r="A50" t="s">
+        <v>454</v>
       </c>
       <c r="B50" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>74</v>
+      <c r="A51" t="s">
+        <v>453</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F51" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>75</v>
+      <c r="A52" t="s">
+        <v>452</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>76</v>
+      <c r="A53" t="s">
+        <v>409</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D53" t="s">
         <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F53" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>77</v>
+      <c r="A54" t="s">
+        <v>410</v>
       </c>
       <c r="B54" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D54" t="s">
         <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>78</v>
+      <c r="A55" t="s">
+        <v>415</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>79</v>
+      <c r="A56" t="s">
+        <v>416</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D56" t="s">
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>80</v>
+      <c r="A57" t="s">
+        <v>460</v>
       </c>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D57" t="s">
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>125</v>
+        <v>462</v>
       </c>
       <c r="F57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
-      <c r="I57" t="s">
-        <v>129</v>
+      <c r="H57" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C58" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>125</v>
+      </c>
+      <c r="F58" t="s">
+        <v>53</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>123</v>
+      </c>
+      <c r="I58" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>412</v>
+      </c>
+      <c r="B59" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
         <v>126</v>
       </c>
-      <c r="D58" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="F59" t="s">
+        <v>53</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
         <v>127</v>
       </c>
-      <c r="F58" t="s">
-        <v>55</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="I58" t="s">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>413</v>
+      </c>
+      <c r="B60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>126</v>
+      </c>
+      <c r="F60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>82</v>
-      </c>
-      <c r="B59" t="s">
-        <v>105</v>
-      </c>
-      <c r="C59" t="s">
-        <v>132</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1</v>
-      </c>
-      <c r="E59" t="s">
-        <v>135</v>
-      </c>
-      <c r="F59" t="s">
-        <v>55</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59" t="s">
-        <v>133</v>
-      </c>
-      <c r="I59" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>83</v>
-      </c>
-      <c r="B60" t="s">
-        <v>105</v>
-      </c>
-      <c r="C60" t="s">
-        <v>48</v>
-      </c>
-      <c r="D60" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" t="s">
-        <v>136</v>
-      </c>
-      <c r="F60" t="s">
-        <v>55</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="I60" t="s">
-        <v>137</v>
-      </c>
-    </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>84</v>
+      <c r="A61" t="s">
+        <v>405</v>
       </c>
       <c r="B61" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F61" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>138</v>
+        <v>406</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>85</v>
+      <c r="A62" t="s">
+        <v>411</v>
       </c>
       <c r="B62" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D62" t="s">
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="F62" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>86</v>
+      <c r="A63" t="s">
+        <v>407</v>
       </c>
       <c r="B63" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C63" t="s">
-        <v>48</v>
+        <v>181</v>
       </c>
       <c r="D63" t="s">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="F63" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>87</v>
+      <c r="A64" t="s">
+        <v>389</v>
       </c>
       <c r="B64" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="C64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>387</v>
+      </c>
+      <c r="F64" t="s">
+        <v>53</v>
+      </c>
+      <c r="G64" t="s">
+        <v>58</v>
+      </c>
+      <c r="I64" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>193</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1</v>
-      </c>
-      <c r="E64" t="s">
-        <v>194</v>
-      </c>
-      <c r="F64" t="s">
-        <v>55</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="I64" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>90</v>
       </c>
       <c r="B65" t="s">
         <v>36</v>
       </c>
       <c r="C65" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D65" t="s">
         <v>1</v>
@@ -2734,542 +3676,588 @@
         <v>37</v>
       </c>
       <c r="F65" t="s">
-        <v>55</v>
-      </c>
-      <c r="G65" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="G65">
+        <v>5</v>
       </c>
       <c r="I65" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>91</v>
+      <c r="A66" t="s">
+        <v>385</v>
       </c>
       <c r="B66" t="s">
         <v>36</v>
       </c>
       <c r="C66" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>39</v>
+      </c>
+      <c r="F66" t="s">
+        <v>35</v>
+      </c>
+      <c r="G66">
+        <v>4</v>
+      </c>
+      <c r="I66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>426</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
         <v>24</v>
       </c>
-      <c r="D66" t="s">
-        <v>1</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>56</v>
+      </c>
+      <c r="F67" t="s">
+        <v>53</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>392</v>
+      </c>
+      <c r="B68" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" t="s">
+        <v>62</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>391</v>
+      </c>
+      <c r="F68" t="s">
+        <v>53</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+      <c r="H68" t="s">
+        <v>178</v>
+      </c>
+      <c r="I68" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>399</v>
+      </c>
+      <c r="B69" t="s">
+        <v>184</v>
+      </c>
+      <c r="C69" t="s">
         <v>38</v>
       </c>
-      <c r="F66" t="s">
-        <v>55</v>
-      </c>
-      <c r="G66">
-        <v>5</v>
-      </c>
-      <c r="I66" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>92</v>
-      </c>
-      <c r="B67" t="s">
-        <v>36</v>
-      </c>
-      <c r="C67" t="s">
-        <v>39</v>
-      </c>
-      <c r="D67" t="s">
-        <v>1</v>
-      </c>
-      <c r="E67" t="s">
-        <v>40</v>
-      </c>
-      <c r="F67" t="s">
-        <v>35</v>
-      </c>
-      <c r="G67">
-        <v>4</v>
-      </c>
-      <c r="I67" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>93</v>
-      </c>
-      <c r="B68" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" t="s">
-        <v>24</v>
-      </c>
-      <c r="D68" t="s">
-        <v>9</v>
-      </c>
-      <c r="E68" t="s">
-        <v>58</v>
-      </c>
-      <c r="F68" t="s">
-        <v>55</v>
-      </c>
-      <c r="G68">
-        <v>1</v>
-      </c>
-      <c r="I68" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>94</v>
-      </c>
-      <c r="B69" t="s">
-        <v>36</v>
-      </c>
-      <c r="C69" t="s">
-        <v>65</v>
-      </c>
       <c r="D69" t="s">
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>64</v>
+        <v>398</v>
       </c>
       <c r="F69" t="s">
-        <v>55</v>
-      </c>
-      <c r="G69">
-        <v>2</v>
-      </c>
-      <c r="H69" t="s">
-        <v>190</v>
+        <v>53</v>
       </c>
       <c r="I69" t="s">
-        <v>104</v>
+        <v>397</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>96</v>
+      <c r="A70" t="s">
+        <v>403</v>
       </c>
       <c r="B70" t="s">
         <v>36</v>
       </c>
       <c r="C70" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D70" t="s">
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G70">
         <v>10</v>
       </c>
       <c r="I70" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>98</v>
+      <c r="A71" t="s">
+        <v>401</v>
       </c>
       <c r="B71" t="s">
         <v>36</v>
       </c>
       <c r="C71" t="s">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="D71" t="s">
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>130</v>
+        <v>400</v>
       </c>
       <c r="F71" t="s">
-        <v>55</v>
-      </c>
-      <c r="G71">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="I71" t="s">
-        <v>131</v>
+        <v>396</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>100</v>
+      <c r="A72" t="s">
+        <v>402</v>
       </c>
       <c r="B72" t="s">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="C72" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="D72" t="s">
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="F72" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>101</v>
+      <c r="A73" t="s">
+        <v>395</v>
       </c>
       <c r="B73" t="s">
-        <v>141</v>
+        <v>4</v>
       </c>
       <c r="C73" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D73" t="s">
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>144</v>
+        <v>393</v>
       </c>
       <c r="F73" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G73">
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>143</v>
+        <v>394</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B74" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D74" t="s">
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F74" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G74">
         <v>2</v>
       </c>
       <c r="I74" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B75" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C75" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D75" t="s">
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="F75" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G75">
         <v>2</v>
       </c>
       <c r="I75" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B76" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C76" t="s">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="D76" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="F76" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B77" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C77" t="s">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F77" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G77">
-        <v>1</v>
-      </c>
-      <c r="H77" t="s">
-        <v>164</v>
+        <v>2</v>
       </c>
       <c r="I77" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>106</v>
+      <c r="A78" t="s">
+        <v>451</v>
       </c>
       <c r="B78" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C78" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D78" t="s">
         <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="F78" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>107</v>
+      <c r="A79" t="s">
+        <v>450</v>
       </c>
       <c r="B79" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C79" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="F79" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G79">
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="I79" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>108</v>
+      <c r="A80" t="s">
+        <v>449</v>
       </c>
       <c r="B80" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C80" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D80" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="F80" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="I80" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>191</v>
+      </c>
+      <c r="B81" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81" t="s">
+        <v>139</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" t="s">
+        <v>146</v>
+      </c>
+      <c r="F81" t="s">
+        <v>53</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>152</v>
+      </c>
+      <c r="I81" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>448</v>
+      </c>
+      <c r="B82" t="s">
+        <v>130</v>
+      </c>
+      <c r="C82" t="s">
+        <v>139</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>149</v>
+      </c>
+      <c r="F82" t="s">
+        <v>53</v>
+      </c>
+      <c r="G82">
         <v>4</v>
       </c>
-      <c r="I80" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>109</v>
-      </c>
-      <c r="B81" t="s">
-        <v>141</v>
-      </c>
-      <c r="C81" t="s">
-        <v>150</v>
-      </c>
-      <c r="D81" t="s">
-        <v>1</v>
-      </c>
-      <c r="E81" t="s">
-        <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>55</v>
-      </c>
-      <c r="G81">
-        <v>3</v>
-      </c>
-      <c r="I81" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>110</v>
-      </c>
-      <c r="B82" t="s">
-        <v>141</v>
-      </c>
-      <c r="C82" t="s">
-        <v>150</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1</v>
-      </c>
-      <c r="E82" t="s">
-        <v>191</v>
-      </c>
-      <c r="F82" t="s">
-        <v>55</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
       <c r="I82" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B83" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C83" t="s">
+        <v>139</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
         <v>150</v>
       </c>
-      <c r="D83" t="s">
-        <v>1</v>
-      </c>
-      <c r="E83" t="s">
-        <v>189</v>
-      </c>
       <c r="F83" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G83">
         <v>3</v>
       </c>
       <c r="I83" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>112</v>
+      <c r="A84" t="s">
+        <v>414</v>
       </c>
       <c r="B84" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C84" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D84" t="s">
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F84" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G84">
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B85" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C85" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D85" t="s">
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F85" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I85" t="s">
-        <v>186</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>421</v>
+      </c>
+      <c r="B86" t="s">
+        <v>130</v>
+      </c>
+      <c r="C86" t="s">
+        <v>139</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>172</v>
+      </c>
+      <c r="F86" t="s">
+        <v>53</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="I86" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>422</v>
+      </c>
+      <c r="B87" t="s">
+        <v>130</v>
+      </c>
+      <c r="C87" t="s">
+        <v>139</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>173</v>
+      </c>
+      <c r="F87" t="s">
+        <v>53</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="I87" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3279,4 +4267,1099 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165D9D9B-2E8A-4F3A-99A1-C30DA8072019}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>224</v>
+      </c>
+      <c r="B13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C16" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>216</v>
+      </c>
+      <c r="B17" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" t="s">
+        <v>211</v>
+      </c>
+      <c r="C19" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>277</v>
+      </c>
+      <c r="B21" t="s">
+        <v>278</v>
+      </c>
+      <c r="C21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>279</v>
+      </c>
+      <c r="B22" t="s">
+        <v>371</v>
+      </c>
+      <c r="C22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>370</v>
+      </c>
+      <c r="B23" t="s">
+        <v>276</v>
+      </c>
+      <c r="C23" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>205</v>
+      </c>
+      <c r="B25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>202</v>
+      </c>
+      <c r="B26" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>200</v>
+      </c>
+      <c r="B27" t="s">
+        <v>199</v>
+      </c>
+      <c r="C27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>284</v>
+      </c>
+      <c r="B30" t="s">
+        <v>285</v>
+      </c>
+      <c r="C30" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>280</v>
+      </c>
+      <c r="B31" t="s">
+        <v>282</v>
+      </c>
+      <c r="C31" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>281</v>
+      </c>
+      <c r="B32" t="s">
+        <v>283</v>
+      </c>
+      <c r="C32" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97440170-53C1-497E-AC50-82BD782247CF}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>256</v>
+      </c>
+      <c r="B7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>360</v>
+      </c>
+      <c r="B10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>362</v>
+      </c>
+      <c r="B11" t="s">
+        <v>363</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34FE8B7A-08B6-4B45-9B87-6CA9E22A21CF}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B6" t="s">
+        <v>356</v>
+      </c>
+      <c r="C6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>423</v>
+      </c>
+      <c r="B8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>437</v>
+      </c>
+      <c r="B10" t="s">
+        <v>438</v>
+      </c>
+      <c r="C10" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>441</v>
+      </c>
+      <c r="B11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>444</v>
+      </c>
+      <c r="B12" t="s">
+        <v>446</v>
+      </c>
+      <c r="C12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>447</v>
+      </c>
+      <c r="B13" t="s">
+        <v>433</v>
+      </c>
+      <c r="C13" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>457</v>
+      </c>
+      <c r="B14" t="s">
+        <v>458</v>
+      </c>
+      <c r="C14" t="s">
+        <v>435</v>
+      </c>
+      <c r="D14" t="s">
+        <v>459</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C344C7D-81F0-47D9-B06F-CFAE20D2FF21}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C6" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" t="s">
+        <v>482</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E074DA21-E52B-447A-962F-8A94683064C4}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>332</v>
+      </c>
+      <c r="B10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B12" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>317</v>
+      </c>
+      <c r="B14" t="s">
+        <v>323</v>
+      </c>
+      <c r="C14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>321</v>
+      </c>
+      <c r="B15" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>322</v>
+      </c>
+      <c r="B16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C16" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>328</v>
+      </c>
+      <c r="B17" t="s">
+        <v>329</v>
+      </c>
+      <c r="C17" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B18" t="s">
+        <v>320</v>
+      </c>
+      <c r="C18" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>302</v>
+      </c>
+      <c r="B19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B20" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>306</v>
+      </c>
+      <c r="B21" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>311</v>
+      </c>
+      <c r="B22" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>314</v>
+      </c>
+      <c r="B23" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>315</v>
+      </c>
+      <c r="B24" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7EF81F-45B8-4E66-A9E2-1FE1CC554550}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B4" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>477</v>
+      </c>
+      <c r="B6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C6" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B8" t="s">
+        <v>480</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Docs/Printer Part Codes.xlsx
+++ b/Docs/Printer Part Codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3296CC06-4556-4C35-8EFD-3EBB087CED5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2605EC-47F8-44A1-B1C4-E8AC282544DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="3" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
   </bookViews>
   <sheets>
     <sheet name="000 - Printed Parts" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="609">
   <si>
     <t>Component</t>
   </si>
@@ -577,9 +577,6 @@
     <t>92mm Fan Grille</t>
   </si>
   <si>
-    <t>Needs redesign</t>
-  </si>
-  <si>
     <t>SD Card Reader Mount</t>
   </si>
   <si>
@@ -682,9 +679,6 @@
     <t>PN551</t>
   </si>
   <si>
-    <t>Screw, M4-0.7 x 45mm FHCS</t>
-  </si>
-  <si>
     <t>PN550</t>
   </si>
   <si>
@@ -712,12 +706,6 @@
     <t>PN532</t>
   </si>
   <si>
-    <t>Screw, M5-0.8 x 10mm BHCS</t>
-  </si>
-  <si>
-    <t>PN991</t>
-  </si>
-  <si>
     <t>Screw, M5-0.8 x 8mm BHCS</t>
   </si>
   <si>
@@ -919,42 +907,24 @@
     <t>PN018</t>
   </si>
   <si>
-    <t>Stepper, NEMA 17, 48mm, 17HM19-2004S</t>
-  </si>
-  <si>
     <t>A/B</t>
   </si>
   <si>
     <t>Z1 &amp; Z2</t>
   </si>
   <si>
-    <t>Stepper, NEMA 17, 39mm, 17HS15-1504S-X1</t>
-  </si>
-  <si>
-    <t>Stepper, NEMA 17, 25mm, 17HS10-0704S</t>
-  </si>
-  <si>
     <t>PN911</t>
   </si>
   <si>
     <t>Power Switch, Toggle</t>
   </si>
   <si>
-    <t>TPST or SPST?</t>
-  </si>
-  <si>
     <t>PN920</t>
   </si>
   <si>
-    <t>IEC C13 Socket with Fuse</t>
-  </si>
-  <si>
     <t>PN980</t>
   </si>
   <si>
-    <t>BIGTREETECH Octopus V1.1</t>
-  </si>
-  <si>
     <t>PN981</t>
   </si>
   <si>
@@ -973,15 +943,9 @@
     <t>Power Supply, 24V, 450W</t>
   </si>
   <si>
-    <t>Meanwell SE-450-24</t>
-  </si>
-  <si>
     <t>PN983</t>
   </si>
   <si>
-    <t>Raspberry Pi 4B</t>
-  </si>
-  <si>
     <t>Raspberry Pi 3B+</t>
   </si>
   <si>
@@ -1042,9 +1006,6 @@
     <t>PN951</t>
   </si>
   <si>
-    <t>Fan, Radial, 50mm x 15mm</t>
-  </si>
-  <si>
     <t>PN952</t>
   </si>
   <si>
@@ -1054,15 +1015,6 @@
     <t>PN992</t>
   </si>
   <si>
-    <t>Fan, Radial, 75mm x 30mm</t>
-  </si>
-  <si>
-    <t>Fan, Axial, 40mm x 20mm</t>
-  </si>
-  <si>
-    <t>Fan, Axial, 80mm x 25mm</t>
-  </si>
-  <si>
     <t>To be removed; use PN952</t>
   </si>
   <si>
@@ -1078,9 +1030,6 @@
     <t>HBKTS5-C</t>
   </si>
   <si>
-    <t>MISUMI Part Number</t>
-  </si>
-  <si>
     <t>Corner Bracket, Inside Hidden</t>
   </si>
   <si>
@@ -1132,9 +1081,6 @@
     <t>PN643</t>
   </si>
   <si>
-    <t>Lead Screw Nut, Tr8x4</t>
-  </si>
-  <si>
     <t>PN021</t>
   </si>
   <si>
@@ -1168,9 +1114,6 @@
     <t>PN811</t>
   </si>
   <si>
-    <t>Bed Leveling Nut</t>
-  </si>
-  <si>
     <t>PN812</t>
   </si>
   <si>
@@ -1450,9 +1393,6 @@
     <t>Thermistor, NTC 100K</t>
   </si>
   <si>
-    <t>E3D V6 Hotend</t>
-  </si>
-  <si>
     <t>Or compatible clone</t>
   </si>
   <si>
@@ -1480,9 +1420,6 @@
     <t>PN1002</t>
   </si>
   <si>
-    <t>PTFE Tube</t>
-  </si>
-  <si>
     <t>BLTouch V3.1</t>
   </si>
   <si>
@@ -1493,13 +1430,451 @@
   </si>
   <si>
     <t>Creality clone</t>
+  </si>
+  <si>
+    <t>PN732</t>
+  </si>
+  <si>
+    <t>2020 Extrusion, 220mm</t>
+  </si>
+  <si>
+    <t>HFS5-2020-220</t>
+  </si>
+  <si>
+    <t>PN733</t>
+  </si>
+  <si>
+    <t>2020 Extrusion, 350mm</t>
+  </si>
+  <si>
+    <t>HFS5-2020-350</t>
+  </si>
+  <si>
+    <t>Bed frame</t>
+  </si>
+  <si>
+    <t>Y axis crossbar</t>
+  </si>
+  <si>
+    <t>X axis rail</t>
+  </si>
+  <si>
+    <t>Y axis rails</t>
+  </si>
+  <si>
+    <t>Z axis rails</t>
+  </si>
+  <si>
+    <t>Z axis crossbar (Y axis)</t>
+  </si>
+  <si>
+    <t>Z axis crossbar (X axis)</t>
+  </si>
+  <si>
+    <t>PN964</t>
+  </si>
+  <si>
+    <t>PN921</t>
+  </si>
+  <si>
+    <t>JST SM Pin, Male Pin</t>
+  </si>
+  <si>
+    <t>JST SM Pin, Female Socket</t>
+  </si>
+  <si>
+    <t>Reference Supplier Link</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>PN922</t>
+  </si>
+  <si>
+    <t>JST SM Connector, Male, 2 Pin</t>
+  </si>
+  <si>
+    <t>SMR-02V-B</t>
+  </si>
+  <si>
+    <t>PN923</t>
+  </si>
+  <si>
+    <t>PN924</t>
+  </si>
+  <si>
+    <t>PN925</t>
+  </si>
+  <si>
+    <t>JST SM Connector, Male, 3 Pin</t>
+  </si>
+  <si>
+    <t>JST SM Connector, Male, 4 Pin</t>
+  </si>
+  <si>
+    <t>JST SM Connector, Male, 5 Pin</t>
+  </si>
+  <si>
+    <t>SMR-03V-B</t>
+  </si>
+  <si>
+    <t>SMR-04V-B</t>
+  </si>
+  <si>
+    <t>SMR-05V-B</t>
+  </si>
+  <si>
+    <t>PN926</t>
+  </si>
+  <si>
+    <t>PN927</t>
+  </si>
+  <si>
+    <t>PN928</t>
+  </si>
+  <si>
+    <t>PN929</t>
+  </si>
+  <si>
+    <t>SMP-02V-BC</t>
+  </si>
+  <si>
+    <t>JST SM Connector, Female, 2 Pin</t>
+  </si>
+  <si>
+    <t>JST SM Connector, Female, 3 Pin</t>
+  </si>
+  <si>
+    <t>JST SM Connector, Female, 4 Pin</t>
+  </si>
+  <si>
+    <t>JST SM Connector, Female, 5 Pin</t>
+  </si>
+  <si>
+    <t>SMP-04V-BC</t>
+  </si>
+  <si>
+    <t>SMP-03V-BC</t>
+  </si>
+  <si>
+    <t>SMP-05V-BC</t>
+  </si>
+  <si>
+    <t>MISUMI</t>
+  </si>
+  <si>
+    <t>MISUMI USA</t>
+  </si>
+  <si>
+    <t>Ref Supplier</t>
+  </si>
+  <si>
+    <t>STEPPERONLINE</t>
+  </si>
+  <si>
+    <t>17HM19-2004S</t>
+  </si>
+  <si>
+    <t>17HS15-1504S-X1</t>
+  </si>
+  <si>
+    <t>17HS10-0704S</t>
+  </si>
+  <si>
+    <t>Ref Mfgr.</t>
+  </si>
+  <si>
+    <t>BIGTREETECH</t>
+  </si>
+  <si>
+    <t>BTT Octopus V1.1</t>
+  </si>
+  <si>
+    <t>Ref Mgr PN</t>
+  </si>
+  <si>
+    <t>JST</t>
+  </si>
+  <si>
+    <t>SYM-001T-P0.6(N)</t>
+  </si>
+  <si>
+    <t>SYF-001T-P0.6(LF)(SN)</t>
+  </si>
+  <si>
+    <t>Meanwell</t>
+  </si>
+  <si>
+    <t>SE-450-24</t>
+  </si>
+  <si>
+    <t>NKK Switches</t>
+  </si>
+  <si>
+    <t>S1F</t>
+  </si>
+  <si>
+    <t>Stepper, NEMA 17, 48mm, 0.9 Degree, 2A</t>
+  </si>
+  <si>
+    <t>stepperonline.com</t>
+  </si>
+  <si>
+    <t>Stepper, NEMA 17, 39mm, 1.8 Degree, 1.5A</t>
+  </si>
+  <si>
+    <t>Stepper, NEMA 17, 25mm, 1.8 Degree, 0.7A</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Creality</t>
+  </si>
+  <si>
+    <t>AMUS-LD-3D-AC-Limit switch</t>
+  </si>
+  <si>
+    <t>Usually 3pcs. Generic in 4pc and 5pc for less.</t>
+  </si>
+  <si>
+    <t>WINSINN</t>
+  </si>
+  <si>
+    <t>be quiet!</t>
+  </si>
+  <si>
+    <t>BL044</t>
+  </si>
+  <si>
+    <t>Wathai</t>
+  </si>
+  <si>
+    <t>Fan, Radial, 75mm x 30mm, 24V</t>
+  </si>
+  <si>
+    <t>Fan, Axial, 80mm x 25mm, 12V</t>
+  </si>
+  <si>
+    <t>Fan, Radial, 50mm x 15mm, 12V</t>
+  </si>
+  <si>
+    <t>Fan, Axial, 40mm x 20mm, 12V</t>
+  </si>
+  <si>
+    <t>LANMU</t>
+  </si>
+  <si>
+    <t>COMINHKPR105510</t>
+  </si>
+  <si>
+    <t>BIQU-UUU001791</t>
+  </si>
+  <si>
+    <t>KINGPRINTER-ZZB000540</t>
+  </si>
+  <si>
+    <t>KINGPRINT-ZZB000475</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 4B 2GB</t>
+  </si>
+  <si>
+    <t>Arducam</t>
+  </si>
+  <si>
+    <t>5MP OV5647</t>
+  </si>
+  <si>
+    <t>Raspberry Pi</t>
+  </si>
+  <si>
+    <t>Raspberry Pi 4B/2GB</t>
+  </si>
+  <si>
+    <t>IEC C14 Socket with Fuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WTN-1171R1-1 </t>
+  </si>
+  <si>
+    <t>Needs a 5 or 10 amp fuse.</t>
+  </si>
+  <si>
+    <t>Ref. Supplier</t>
+  </si>
+  <si>
+    <t>Ref. Mfgr.</t>
+  </si>
+  <si>
+    <t>Ref Mfgr PN</t>
+  </si>
+  <si>
+    <t>Bel Fuse</t>
+  </si>
+  <si>
+    <t>5ET 5-R</t>
+  </si>
+  <si>
+    <t>PN913</t>
+  </si>
+  <si>
+    <t>Fuse, 5x20mm, Fast Blow, 5A</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>Ref. Mfgr. PN</t>
+  </si>
+  <si>
+    <t>F688ZZ</t>
+  </si>
+  <si>
+    <t>F695-2RS</t>
+  </si>
+  <si>
+    <t>6MHL20B5T</t>
+  </si>
+  <si>
+    <t>ReliaBot</t>
+  </si>
+  <si>
+    <t>IT-RD048</t>
+  </si>
+  <si>
+    <t>Lead Screw Nut, Tr8x4, Anti-Backlash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	RZ035-2anti-M3</t>
+  </si>
+  <si>
+    <t>EU-RZ007-37</t>
+  </si>
+  <si>
+    <t>UniTak3D</t>
+  </si>
+  <si>
+    <t>UniT091</t>
+  </si>
+  <si>
+    <t>Ref Mfgr</t>
+  </si>
+  <si>
+    <t>MonsterBolts</t>
+  </si>
+  <si>
+    <t>SHCS - Stain M3.8.10</t>
+  </si>
+  <si>
+    <t>SHCS - Stain M3.16.10</t>
+  </si>
+  <si>
+    <t>SHCS - Stain M3.20.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	SHCS - Stain M3.6.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	SHCS - Stain M3.12.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	SHCS - Stain M3.30.10</t>
+  </si>
+  <si>
+    <t>SHCS - Stain M3.35.10</t>
+  </si>
+  <si>
+    <t>Included with bed leveling nuts</t>
+  </si>
+  <si>
+    <t>Included with hidden corner brackets</t>
+  </si>
+  <si>
+    <t>Included with spider couplers</t>
+  </si>
+  <si>
+    <t>Screw, M4-0.7 x 35mm FHCS</t>
+  </si>
+  <si>
+    <t>Bed Leveling Nut, 60mm</t>
+  </si>
+  <si>
+    <t>Befenybay</t>
+  </si>
+  <si>
+    <t>BE022-fba</t>
+  </si>
+  <si>
+    <t>SHCS - Stain M5.8.10</t>
+  </si>
+  <si>
+    <t>SHCS - Stain M5.12.10</t>
+  </si>
+  <si>
+    <t>SHCS - Stain M5.16.10</t>
+  </si>
+  <si>
+    <t>SHCS - Stain M5.25.10</t>
+  </si>
+  <si>
+    <t>KOOTANS</t>
+  </si>
+  <si>
+    <t>iplusmile</t>
+  </si>
+  <si>
+    <t>Hilitchi</t>
+  </si>
+  <si>
+    <t>PN802</t>
+  </si>
+  <si>
+    <t>Thermal Glue</t>
+  </si>
+  <si>
+    <t>GENNEL</t>
+  </si>
+  <si>
+    <t>ZT931264ZTHL272</t>
+  </si>
+  <si>
+    <t>OpenBuilds</t>
+  </si>
+  <si>
+    <t>Digikey doesn't carry this, for some reason</t>
+  </si>
+  <si>
+    <t>Gulfcoast Robotics</t>
+  </si>
+  <si>
+    <t>V6B</t>
+  </si>
+  <si>
+    <t>E3D V6 (Direct Drive)</t>
+  </si>
+  <si>
+    <t>Bondtech</t>
+  </si>
+  <si>
+    <t>EXT-BMG</t>
+  </si>
+  <si>
+    <t>EXT-BMG-LH</t>
+  </si>
+  <si>
+    <t>ANTCLABS</t>
+  </si>
+  <si>
+    <t>PTFE Tube, 4mm OD, 2mm ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1511,6 +1886,26 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1533,19 +1928,57 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1580,35 +2013,44 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8089694C-6482-47D7-8E98-C409897AE123}" name="Table13" displayName="Table13" ref="A1:C32" totalsRowShown="0">
-  <autoFilter ref="A1:C32" xr:uid="{D1A3C8AC-EDAD-4865-884E-6154074F4784}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8089694C-6482-47D7-8E98-C409897AE123}" name="Table13" displayName="Table13" ref="A1:G31" totalsRowShown="0">
+  <autoFilter ref="A1:G31" xr:uid="{D1A3C8AC-EDAD-4865-884E-6154074F4784}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{BDDDE73C-3ECC-40F1-A465-07687B41711A}" name="ID"/>
     <tableColumn id="2" xr3:uid="{44B65DAB-6E70-4886-8A57-11EE25DF9B03}" name="Description String"/>
     <tableColumn id="3" xr3:uid="{9A61B22B-07B7-4C49-AD6C-423CB21126D8}" name="Metric Size"/>
+    <tableColumn id="4" xr3:uid="{CE73034B-0127-42E5-B9E1-E9B4EB91E0CC}" name="Ref Supplier"/>
+    <tableColumn id="5" xr3:uid="{EB6C2C06-373B-4C57-B846-2C5E393312BA}" name="Ref Mfgr"/>
+    <tableColumn id="7" xr3:uid="{6C77B3C5-4643-417F-8DB7-BC1E6AFBF430}" name="Ref Mfgr PN"/>
+    <tableColumn id="8" xr3:uid="{9BA21117-6304-4640-83D9-83CF6BAAABA7}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{30DB7FE6-6DE6-4419-8051-42F2B9BB18F2}" name="Table2" displayName="Table2" ref="A1:B12" totalsRowShown="0">
-  <autoFilter ref="A1:B12" xr:uid="{6ED8DD30-933D-405C-828B-C09D05641C68}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{30DB7FE6-6DE6-4419-8051-42F2B9BB18F2}" name="Table2" displayName="Table2" ref="A1:E12" totalsRowShown="0">
+  <autoFilter ref="A1:E12" xr:uid="{6ED8DD30-933D-405C-828B-C09D05641C68}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F3B89618-5C6E-4C8A-9B32-75D07E4090AF}" name="ID"/>
     <tableColumn id="2" xr3:uid="{2736E36F-0247-4B7C-B56B-635598DB4C03}" name="Description String"/>
+    <tableColumn id="4" xr3:uid="{D7BB4F47-905F-4552-9FA2-6A11435699D5}" name="Ref Supplier"/>
+    <tableColumn id="5" xr3:uid="{C5B4E700-6A0C-40E7-B910-9B32D7847360}" name="Ref. Mfgr."/>
+    <tableColumn id="6" xr3:uid="{A894CD33-9EE0-45F2-B344-F76A17AFF6F4}" name="Ref. Mfgr. PN"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8570C666-3312-43F5-A12D-CA6F588D6A21}" name="Table6" displayName="Table6" ref="A1:D14" totalsRowShown="0">
-  <autoFilter ref="A1:D14" xr:uid="{8570C666-3312-43F5-A12D-CA6F588D6A21}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8570C666-3312-43F5-A12D-CA6F588D6A21}" name="Table6" displayName="Table6" ref="A1:F16" totalsRowShown="0">
+  <autoFilter ref="A1:F16" xr:uid="{8570C666-3312-43F5-A12D-CA6F588D6A21}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DDE460B5-9815-4608-8551-C7DA640FABAE}" name="ID"/>
     <tableColumn id="2" xr3:uid="{00ECFD0D-B7D6-4B45-834E-6EA63127D17A}" name="Description String"/>
-    <tableColumn id="3" xr3:uid="{A73385B4-22B1-43B4-90BE-B9F2E271460B}" name="MISUMI Part Number"/>
+    <tableColumn id="5" xr3:uid="{B8967CAB-4C4C-4240-95A4-18DDF9B51795}" name="Ref. Supplier"/>
+    <tableColumn id="6" xr3:uid="{B006825A-1B14-4AA4-9745-636D80EEE743}" name="Ref. Mfgr."/>
+    <tableColumn id="3" xr3:uid="{A73385B4-22B1-43B4-90BE-B9F2E271460B}" name="Ref. Mfgr. PN"/>
     <tableColumn id="4" xr3:uid="{BF49229A-27F9-4A1D-95A8-BC0296BAB7C8}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1616,11 +2058,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{38E36A69-6DC9-48C9-A844-2C9B61CC67B5}" name="Table4" displayName="Table4" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7" xr:uid="{25A20098-4797-4CED-8859-6F0B389C74C7}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{38E36A69-6DC9-48C9-A844-2C9B61CC67B5}" name="Table4" displayName="Table4" ref="A1:F9" totalsRowShown="0">
+  <autoFilter ref="A1:F9" xr:uid="{25A20098-4797-4CED-8859-6F0B389C74C7}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4A8FA1ED-C774-4AAD-B05A-174EEF2A2E73}" name="ID"/>
     <tableColumn id="2" xr3:uid="{008547DD-D3A3-47C0-AA5C-98C260ED5CC8}" name="Part Description"/>
+    <tableColumn id="4" xr3:uid="{7BE69A7F-33F5-4669-A20F-C52D6EDC0ADD}" name="Ref. Supplier"/>
+    <tableColumn id="6" xr3:uid="{3701F368-CF06-4CA9-824E-94C2FA4E8BBF}" name="Ref. Mfgr."/>
+    <tableColumn id="5" xr3:uid="{372E6957-2FA0-4591-8C0D-9A27891ED900}" name="Ref Mfgr PN"/>
     <tableColumn id="3" xr3:uid="{7272962D-D4B8-4C68-886D-6FECD762F844}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1628,11 +2073,14 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E77F429E-7503-4CB6-829A-92647E35DDBE}" name="Table3" displayName="Table3" ref="A1:C24" totalsRowShown="0">
-  <autoFilter ref="A1:C24" xr:uid="{8BABF5E9-F118-4BB6-8CB6-73E52CF1CA9F}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E77F429E-7503-4CB6-829A-92647E35DDBE}" name="Table3" displayName="Table3" ref="A1:F39" totalsRowShown="0">
+  <autoFilter ref="A1:F39" xr:uid="{8BABF5E9-F118-4BB6-8CB6-73E52CF1CA9F}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2640334D-8D49-433A-AC38-5E3A83CD6E82}" name="ID"/>
     <tableColumn id="2" xr3:uid="{6F287AD0-06D3-42F8-928A-6934737A719D}" name="Part Description"/>
+    <tableColumn id="4" xr3:uid="{D0FA9E4B-93C4-40DC-A000-6A5DEDFE3EB6}" name="Reference Supplier Link"/>
+    <tableColumn id="5" xr3:uid="{0616B489-8C61-4325-83CC-5086601A046F}" name="Ref Mfgr."/>
+    <tableColumn id="6" xr3:uid="{EE752F26-5451-4F63-9491-B7A1442D27F9}" name="Ref Mgr PN"/>
     <tableColumn id="3" xr3:uid="{69D95E68-9514-46EF-8275-3564DE1F3A94}" name="Note"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1640,11 +2088,14 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{732EFD3F-783F-4A9E-966D-47D3AC76FFEA}" name="Table7" displayName="Table7" ref="A1:C8" totalsRowShown="0">
-  <autoFilter ref="A1:C8" xr:uid="{732EFD3F-783F-4A9E-966D-47D3AC76FFEA}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{732EFD3F-783F-4A9E-966D-47D3AC76FFEA}" name="Table7" displayName="Table7" ref="A1:F8" totalsRowShown="0">
+  <autoFilter ref="A1:F8" xr:uid="{732EFD3F-783F-4A9E-966D-47D3AC76FFEA}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D27A1FD2-D68A-49A9-8486-A5E0A7C8139D}" name="ID"/>
     <tableColumn id="2" xr3:uid="{532CA9D2-6154-4580-96FD-1F398A1AAB41}" name="Description String"/>
+    <tableColumn id="4" xr3:uid="{254E71EF-50AE-4115-A712-B0880E4C4BEB}" name="Ref. Supplier"/>
+    <tableColumn id="5" xr3:uid="{0F8AAA45-1680-42E6-A715-760EA775009F}" name="Ref. Mfgr." dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{2D763FC2-8F98-4FA3-858F-EAD8A1E357FF}" name="Ref. Mfgr. PN" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{6F2206D7-5CDF-4844-BCEA-9C03E2AE39DA}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1950,8 +2401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC8DB31-6D45-4FED-94B6-5390BD4B0F2C}">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1998,7 +2449,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2024,7 +2475,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -2050,7 +2501,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -2076,7 +2527,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -2102,7 +2553,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -2128,7 +2579,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -2154,7 +2605,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>429</v>
+        <v>410</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -2180,7 +2631,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>430</v>
+        <v>411</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -2206,7 +2657,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -2232,7 +2683,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -2258,7 +2709,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -2284,7 +2735,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -2310,7 +2761,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -2336,7 +2787,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -2362,7 +2813,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -2391,7 +2842,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -2417,7 +2868,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -2443,7 +2894,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -2472,7 +2923,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -2498,7 +2949,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -2524,7 +2975,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -2550,7 +3001,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -2576,7 +3027,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -2602,7 +3053,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -2628,7 +3079,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -2654,7 +3105,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -2680,7 +3131,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -2706,7 +3157,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -2732,7 +3183,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -2879,7 +3330,7 @@
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="F35" t="s">
         <v>53</v>
@@ -2905,7 +3356,7 @@
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="F36" t="s">
         <v>53</v>
@@ -2919,7 +3370,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
@@ -2940,12 +3391,12 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="B38" t="s">
         <v>23</v>
@@ -2971,7 +3422,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="B39" t="s">
         <v>23</v>
@@ -2997,7 +3448,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="B40" t="s">
         <v>23</v>
@@ -3023,7 +3474,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
@@ -3157,7 +3608,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
@@ -3184,7 +3635,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="B47" t="s">
         <v>100</v>
@@ -3213,7 +3664,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="B48" t="s">
         <v>100</v>
@@ -3242,7 +3693,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="B49" t="s">
         <v>100</v>
@@ -3268,7 +3719,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="B50" t="s">
         <v>100</v>
@@ -3294,7 +3745,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="B51" t="s">
         <v>100</v>
@@ -3320,7 +3771,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="B52" t="s">
         <v>100</v>
@@ -3346,7 +3797,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="B53" t="s">
         <v>100</v>
@@ -3372,7 +3823,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="B54" t="s">
         <v>100</v>
@@ -3398,7 +3849,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>415</v>
+        <v>396</v>
       </c>
       <c r="B55" t="s">
         <v>100</v>
@@ -3424,7 +3875,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="B56" t="s">
         <v>100</v>
@@ -3450,7 +3901,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="B57" t="s">
         <v>100</v>
@@ -3462,7 +3913,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="F57" t="s">
         <v>53</v>
@@ -3471,7 +3922,7 @@
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3505,7 +3956,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="B59" t="s">
         <v>100</v>
@@ -3531,7 +3982,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="B60" t="s">
         <v>100</v>
@@ -3557,7 +4008,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="B61" t="s">
         <v>100</v>
@@ -3578,12 +4029,12 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="B62" t="s">
         <v>100</v>
@@ -3609,33 +4060,33 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="B63" t="s">
         <v>100</v>
       </c>
       <c r="C63" t="s">
+        <v>180</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
         <v>181</v>
       </c>
-      <c r="D63" t="s">
-        <v>1</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
+        <v>53</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="I63" t="s">
         <v>182</v>
-      </c>
-      <c r="F63" t="s">
-        <v>53</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="I63" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="B64" t="s">
         <v>36</v>
@@ -3647,7 +4098,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="F64" t="s">
         <v>53</v>
@@ -3656,12 +4107,12 @@
         <v>58</v>
       </c>
       <c r="I64" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B65" t="s">
         <v>36</v>
@@ -3687,7 +4138,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="B66" t="s">
         <v>36</v>
@@ -3713,7 +4164,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
@@ -3739,7 +4190,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="B68" t="s">
         <v>36</v>
@@ -3751,7 +4202,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="F68" t="s">
         <v>53</v>
@@ -3759,19 +4210,16 @@
       <c r="G68">
         <v>2</v>
       </c>
-      <c r="H68" t="s">
-        <v>178</v>
-      </c>
       <c r="I68" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="B69" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C69" t="s">
         <v>38</v>
@@ -3780,18 +4228,18 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="F69" t="s">
         <v>53</v>
       </c>
       <c r="I69" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="B70" t="s">
         <v>36</v>
@@ -3817,7 +4265,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="B71" t="s">
         <v>36</v>
@@ -3829,18 +4277,18 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="F71" t="s">
         <v>53</v>
       </c>
       <c r="I71" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="B72" t="s">
         <v>36</v>
@@ -3866,7 +4314,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
@@ -3878,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="F73" t="s">
         <v>53</v>
@@ -3887,7 +4335,7 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3996,7 +4444,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="B78" t="s">
         <v>130</v>
@@ -4022,7 +4470,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="B79" t="s">
         <v>130</v>
@@ -4051,7 +4499,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="B80" t="s">
         <v>130</v>
@@ -4077,7 +4525,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B81" t="s">
         <v>130</v>
@@ -4106,7 +4554,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="B82" t="s">
         <v>130</v>
@@ -4158,7 +4606,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="B84" t="s">
         <v>130</v>
@@ -4170,16 +4618,16 @@
         <v>1</v>
       </c>
       <c r="E84" t="s">
+        <v>178</v>
+      </c>
+      <c r="F84" t="s">
+        <v>53</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="I84" t="s">
         <v>179</v>
-      </c>
-      <c r="F84" t="s">
-        <v>53</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="I84" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -4210,7 +4658,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="B86" t="s">
         <v>130</v>
@@ -4236,7 +4684,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="B87" t="s">
         <v>130</v>
@@ -4271,1095 +4719,2152 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165D9D9B-2E8A-4F3A-99A1-C30DA8072019}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="D1" t="s">
+        <v>508</v>
+      </c>
+      <c r="E1" t="s">
+        <v>572</v>
+      </c>
+      <c r="F1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E2" t="s">
+        <v>573</v>
+      </c>
+      <c r="F2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E3" t="s">
+        <v>573</v>
+      </c>
+      <c r="F3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E4" t="s">
+        <v>573</v>
+      </c>
+      <c r="F4" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E5" t="s">
+        <v>573</v>
+      </c>
+      <c r="F5" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E6" t="s">
+        <v>573</v>
+      </c>
+      <c r="F6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E7" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E8" t="s">
+        <v>573</v>
+      </c>
+      <c r="F8" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E9" t="s">
+        <v>573</v>
+      </c>
+      <c r="F9" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E10" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E12" t="s">
+        <v>573</v>
+      </c>
+      <c r="F12" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E13" t="s">
+        <v>573</v>
+      </c>
+      <c r="F13" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E14" t="s">
+        <v>573</v>
+      </c>
+      <c r="F14" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E15" t="s">
+        <v>573</v>
+      </c>
+      <c r="F15" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E16" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" t="s">
+        <v>584</v>
+      </c>
+      <c r="C17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E17" t="s">
+        <v>586</v>
+      </c>
+      <c r="F17" t="s">
+        <v>587</v>
+      </c>
+      <c r="G17" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>211</v>
+      </c>
+      <c r="B18" t="s">
+        <v>210</v>
+      </c>
+      <c r="C18" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E18" t="s">
+        <v>592</v>
+      </c>
+      <c r="G18" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E19" t="s">
+        <v>586</v>
+      </c>
+      <c r="G19" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>273</v>
+      </c>
+      <c r="B20" t="s">
+        <v>274</v>
+      </c>
+      <c r="C20" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E20" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>275</v>
+      </c>
+      <c r="B21" t="s">
+        <v>353</v>
+      </c>
+      <c r="C21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E21" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>352</v>
+      </c>
+      <c r="B22" t="s">
+        <v>272</v>
+      </c>
+      <c r="C22" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E22" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E23" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>204</v>
+      </c>
+      <c r="B24" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>242</v>
-      </c>
-      <c r="B4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>240</v>
-      </c>
-      <c r="B5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B7" t="s">
-        <v>235</v>
-      </c>
-      <c r="C7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B8" t="s">
-        <v>233</v>
-      </c>
-      <c r="C8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>232</v>
-      </c>
-      <c r="B9" t="s">
-        <v>231</v>
-      </c>
-      <c r="C9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>228</v>
-      </c>
-      <c r="B11" t="s">
-        <v>227</v>
-      </c>
-      <c r="C11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>226</v>
-      </c>
-      <c r="B12" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="C24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E24" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E25" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B26" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>224</v>
-      </c>
-      <c r="B13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>222</v>
-      </c>
-      <c r="B14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C14" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>220</v>
-      </c>
-      <c r="B15" t="s">
-        <v>219</v>
-      </c>
-      <c r="C15" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>218</v>
-      </c>
-      <c r="B16" t="s">
-        <v>217</v>
-      </c>
-      <c r="C16" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>216</v>
-      </c>
-      <c r="B17" t="s">
-        <v>215</v>
-      </c>
-      <c r="C17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>214</v>
-      </c>
-      <c r="B18" t="s">
-        <v>213</v>
-      </c>
-      <c r="C18" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>212</v>
-      </c>
-      <c r="B19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C19" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>210</v>
-      </c>
-      <c r="B20" t="s">
-        <v>209</v>
-      </c>
-      <c r="C20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E26" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>196</v>
+      </c>
+      <c r="B27" t="s">
+        <v>195</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E27" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" t="s">
+        <v>193</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>280</v>
+      </c>
+      <c r="B29" t="s">
+        <v>281</v>
+      </c>
+      <c r="C29" t="s">
+        <v>282</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E29" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>276</v>
+      </c>
+      <c r="B30" t="s">
+        <v>278</v>
+      </c>
+      <c r="C30" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E30" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>277</v>
       </c>
-      <c r="B21" t="s">
-        <v>278</v>
-      </c>
-      <c r="C21" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B31" t="s">
         <v>279</v>
       </c>
-      <c r="B22" t="s">
-        <v>371</v>
-      </c>
-      <c r="C22" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>370</v>
-      </c>
-      <c r="B23" t="s">
-        <v>276</v>
-      </c>
-      <c r="C23" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>207</v>
-      </c>
-      <c r="B24" t="s">
-        <v>206</v>
-      </c>
-      <c r="C24" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>205</v>
-      </c>
-      <c r="B25" t="s">
-        <v>204</v>
-      </c>
-      <c r="C25" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>202</v>
-      </c>
-      <c r="B26" t="s">
-        <v>201</v>
-      </c>
-      <c r="C26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>200</v>
-      </c>
-      <c r="B27" t="s">
-        <v>199</v>
-      </c>
-      <c r="C27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C31" t="s">
         <v>197</v>
       </c>
-      <c r="B28" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B29" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>284</v>
-      </c>
-      <c r="B30" t="s">
-        <v>285</v>
-      </c>
-      <c r="C30" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>280</v>
-      </c>
-      <c r="B31" t="s">
-        <v>282</v>
-      </c>
-      <c r="C31" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>281</v>
-      </c>
-      <c r="B32" t="s">
-        <v>283</v>
-      </c>
-      <c r="C32" t="s">
-        <v>198</v>
+      <c r="D31" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E31" t="s">
+        <v>594</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{D0DD80FF-F580-4577-B31A-E016FB7B7580}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{B5468CEC-66FD-45FD-960C-F9463EC28AB8}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{A18FCCB0-178D-4192-9F37-034675F0F3B4}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{AFCC3DD1-9EF0-43F4-A1E1-0123D20C2353}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{A576801F-9493-4FFB-A5A4-249D22FD5756}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{3C872E67-38C6-442D-A1C1-820684476D7F}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{385D6F51-8FF1-439A-9F1A-388C2B395470}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{D133720F-14BA-43E1-839D-FBFC4D2CAF22}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{D65D917A-DA3B-48F2-A6C8-7FC8AAD19C0A}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{52231945-F4C3-4480-926F-9004330175E8}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{14E1B4F2-8D44-4EE4-9D91-ADB9C95AED99}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{E52EA145-1628-4432-949D-B976E46021CB}"/>
+    <hyperlink ref="D15" r:id="rId13" xr:uid="{80808BA1-2D93-4B47-8F34-BE64FB12D1C6}"/>
+    <hyperlink ref="D16" r:id="rId14" xr:uid="{1E060253-FFA3-45F3-8EA6-43186EB37C8A}"/>
+    <hyperlink ref="D17" r:id="rId15" xr:uid="{61267F9E-73C2-4B3B-8636-B478620F8212}"/>
+    <hyperlink ref="D18" r:id="rId16" xr:uid="{FA76891E-54C0-4535-8226-F555F7564066}"/>
+    <hyperlink ref="D19" r:id="rId17" xr:uid="{738A931E-4384-45A4-9834-0ACD2D94F48A}"/>
+    <hyperlink ref="D28" r:id="rId18" xr:uid="{E8505316-54F9-46C3-A2CA-94AC2D27583D}"/>
+    <hyperlink ref="D27" r:id="rId19" xr:uid="{6728DE42-917B-4288-90FE-D15CA28AEE96}"/>
+    <hyperlink ref="D29" r:id="rId20" xr:uid="{F9D6C61B-CAE0-48B9-8FE5-B4E4A232CC58}"/>
+    <hyperlink ref="D23" r:id="rId21" xr:uid="{10B30C42-FC8E-4AE4-A17A-B74C13C20460}"/>
+    <hyperlink ref="D24" r:id="rId22" xr:uid="{E88AB393-9F2D-4308-8DF1-E133626368E0}"/>
+    <hyperlink ref="D25" r:id="rId23" xr:uid="{E5C8E4CC-F95B-472A-97DC-3B46AE5C4894}"/>
+    <hyperlink ref="D26" r:id="rId24" xr:uid="{AE39EE47-74D2-47C6-A4C1-20A941347053}"/>
+    <hyperlink ref="D20" r:id="rId25" xr:uid="{15BA94F2-F832-4B6E-9F91-283D67D891D2}"/>
+    <hyperlink ref="D21" r:id="rId26" xr:uid="{F674551C-E668-487B-9973-1142D17246DC}"/>
+    <hyperlink ref="D22" r:id="rId27" xr:uid="{F7200A17-B2D4-435C-AD77-942BEC711684}"/>
+    <hyperlink ref="D30" r:id="rId28" xr:uid="{6866099E-7F7A-4790-BE72-398E76CE2748}"/>
+    <hyperlink ref="D31" r:id="rId29" xr:uid="{A64F4A56-02C9-489C-98F9-45F5DBD60271}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId30"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97440170-53C1-497E-AC50-82BD782247CF}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="C1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D3" t="s">
+        <v>560</v>
+      </c>
+      <c r="E3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D4" t="s">
+        <v>532</v>
+      </c>
+      <c r="E4" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D5" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D7" t="s">
+        <v>565</v>
+      </c>
+      <c r="E7" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D8" t="s">
+        <v>570</v>
+      </c>
+      <c r="E8" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9" t="s">
         <v>266</v>
       </c>
-      <c r="B2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B5" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>256</v>
-      </c>
-      <c r="B7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>267</v>
-      </c>
-      <c r="B8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>269</v>
-      </c>
-      <c r="B9" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D9" t="s">
+        <v>570</v>
+      </c>
+      <c r="E9" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="B10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D10" t="s">
+        <v>565</v>
+      </c>
+      <c r="E10" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="B11" t="s">
-        <v>363</v>
+        <v>567</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D11" t="s">
+        <v>565</v>
+      </c>
+      <c r="E11" t="s">
+        <v>568</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{9DC44804-497D-4754-A352-C87A7952A36D}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{0F972221-1A3F-46FB-B264-6F804423D51B}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{3A9FB5A4-CFCF-4CC7-8F80-C7D84F096058}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{0EC7E0D8-9195-4F29-8267-CE77DCB30A1E}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{E8BAF002-4C44-4580-B0A2-483E0629AA15}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{56E2AE8F-4896-429E-8C21-0B1125E994C3}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{11A48671-57A0-45C1-952E-655D64C03199}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{3657EB87-CB49-4673-AE15-9C11A34249C4}"/>
+    <hyperlink ref="C8" r:id="rId9" xr:uid="{175325B3-F4B0-44C4-AA64-7AA02320238A}"/>
+    <hyperlink ref="C9" r:id="rId10" xr:uid="{4F713B6C-808F-4F88-96C8-46C57245B1F9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34FE8B7A-08B6-4B45-9B87-6CA9E22A21CF}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" customWidth="1"/>
+    <col min="3" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C1" t="s">
-        <v>345</v>
+        <v>553</v>
       </c>
       <c r="D1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+      <c r="E1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D4" t="s">
+        <v>506</v>
+      </c>
+      <c r="E4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5" t="s">
+        <v>507</v>
+      </c>
+      <c r="D5" t="s">
+        <v>506</v>
+      </c>
+      <c r="E5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C6" t="s">
+        <v>507</v>
+      </c>
+      <c r="D6" t="s">
+        <v>506</v>
+      </c>
+      <c r="E6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B7" t="s">
         <v>342</v>
       </c>
-      <c r="B2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B3" t="s">
-        <v>346</v>
-      </c>
-      <c r="C3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>351</v>
-      </c>
-      <c r="B4" t="s">
-        <v>349</v>
-      </c>
-      <c r="C4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>354</v>
-      </c>
-      <c r="B5" t="s">
-        <v>352</v>
-      </c>
-      <c r="C5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>355</v>
-      </c>
-      <c r="B6" t="s">
-        <v>356</v>
-      </c>
-      <c r="C6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>358</v>
-      </c>
-      <c r="B7" t="s">
-        <v>359</v>
-      </c>
-      <c r="C7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C8" t="s">
+        <v>507</v>
+      </c>
+      <c r="D8" t="s">
+        <v>506</v>
+      </c>
+      <c r="E8" t="s">
+        <v>405</v>
+      </c>
+      <c r="F8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>417</v>
+      </c>
+      <c r="B9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C9" t="s">
+        <v>507</v>
+      </c>
+      <c r="D9" t="s">
+        <v>506</v>
+      </c>
+      <c r="E9" t="s">
+        <v>421</v>
+      </c>
+      <c r="F9" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>418</v>
+      </c>
+      <c r="B10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C10" t="s">
+        <v>507</v>
+      </c>
+      <c r="D10" t="s">
+        <v>506</v>
+      </c>
+      <c r="E10" t="s">
+        <v>415</v>
+      </c>
+      <c r="F10" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>422</v>
+      </c>
+      <c r="B11" t="s">
         <v>423</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C11" t="s">
+        <v>507</v>
+      </c>
+      <c r="D11" t="s">
+        <v>506</v>
+      </c>
+      <c r="E11" t="s">
+        <v>424</v>
+      </c>
+      <c r="F11" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>425</v>
       </c>
-      <c r="C8" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>436</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B12" t="s">
+        <v>427</v>
+      </c>
+      <c r="C12" t="s">
+        <v>507</v>
+      </c>
+      <c r="D12" t="s">
+        <v>506</v>
+      </c>
+      <c r="E12" t="s">
+        <v>426</v>
+      </c>
+      <c r="F12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>428</v>
+      </c>
+      <c r="B13" t="s">
+        <v>414</v>
+      </c>
+      <c r="C13" t="s">
+        <v>507</v>
+      </c>
+      <c r="D13" t="s">
+        <v>506</v>
+      </c>
+      <c r="E13" t="s">
+        <v>416</v>
+      </c>
+      <c r="F13" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>438</v>
+      </c>
+      <c r="B14" t="s">
         <v>439</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C14" t="s">
+        <v>507</v>
+      </c>
+      <c r="D14" t="s">
+        <v>506</v>
+      </c>
+      <c r="E14" t="s">
+        <v>416</v>
+      </c>
+      <c r="F14" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>437</v>
-      </c>
-      <c r="B10" t="s">
-        <v>438</v>
-      </c>
-      <c r="C10" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>441</v>
-      </c>
-      <c r="B11" t="s">
-        <v>442</v>
-      </c>
-      <c r="C11" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>444</v>
-      </c>
-      <c r="B12" t="s">
-        <v>446</v>
-      </c>
-      <c r="C12" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>447</v>
-      </c>
-      <c r="B13" t="s">
-        <v>433</v>
-      </c>
-      <c r="C13" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>457</v>
-      </c>
-      <c r="B14" t="s">
-        <v>458</v>
-      </c>
-      <c r="C14" t="s">
-        <v>435</v>
-      </c>
-      <c r="D14" t="s">
-        <v>459</v>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>463</v>
+      </c>
+      <c r="B15" t="s">
+        <v>464</v>
+      </c>
+      <c r="C15" t="s">
+        <v>507</v>
+      </c>
+      <c r="D15" t="s">
+        <v>506</v>
+      </c>
+      <c r="E15" t="s">
+        <v>465</v>
+      </c>
+      <c r="F15" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>466</v>
+      </c>
+      <c r="B16" t="s">
+        <v>467</v>
+      </c>
+      <c r="C16" t="s">
+        <v>507</v>
+      </c>
+      <c r="D16" t="s">
+        <v>506</v>
+      </c>
+      <c r="E16" t="s">
+        <v>468</v>
+      </c>
+      <c r="F16" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{BD613481-F644-449A-9D7C-A2AC298E1EDE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C344C7D-81F0-47D9-B06F-CFAE20D2FF21}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>249</v>
       </c>
-      <c r="B1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>253</v>
-      </c>
       <c r="B2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>372</v>
+        <v>595</v>
       </c>
       <c r="B4" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="B5" t="s">
-        <v>375</v>
-      </c>
-      <c r="C5" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D5" t="s">
+        <v>586</v>
+      </c>
+      <c r="E5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="B6" t="s">
-        <v>379</v>
-      </c>
-      <c r="C6" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D6" t="s">
+        <v>586</v>
+      </c>
+      <c r="E6" t="s">
+        <v>587</v>
+      </c>
+      <c r="F6" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>383</v>
+        <v>357</v>
       </c>
       <c r="B7" t="s">
-        <v>384</v>
-      </c>
-      <c r="C7" t="s">
-        <v>482</v>
+        <v>360</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D7" t="s">
+        <v>529</v>
+      </c>
+      <c r="E7" t="s">
+        <v>598</v>
+      </c>
+      <c r="F7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="D8" t="s">
+        <v>599</v>
+      </c>
+      <c r="E8">
+        <v>570</v>
+      </c>
+      <c r="F8" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{028CE3F7-58BE-4824-8215-CED960B12663}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{901D71D6-F8BA-488A-AA16-E03149045AF7}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{7FADECBE-307C-462B-94E9-4A5FA5A57A22}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{02CC9097-E80D-460A-8536-4D94AF3EC6D4}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{D83D3F9E-FE84-483B-9E79-A83854009024}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{FEDCB7FF-7863-4E93-B2EC-D53A88FB6BD5}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{8FE5EEE1-3A87-4EB9-81E7-B383C7D93C59}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E074DA21-E52B-447A-962F-8A94683064C4}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="41.5703125" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D1" t="s">
+        <v>513</v>
+      </c>
+      <c r="E1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B2" t="s">
+        <v>524</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="D2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E2" t="s">
+        <v>510</v>
+      </c>
+      <c r="F2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="D3" t="s">
+        <v>509</v>
+      </c>
+      <c r="E3" t="s">
+        <v>511</v>
+      </c>
+      <c r="F3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="D4" t="s">
+        <v>509</v>
+      </c>
+      <c r="E4" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D5" t="s">
+        <v>529</v>
+      </c>
+      <c r="E5" t="s">
+        <v>530</v>
+      </c>
+      <c r="F5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B7" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D7" t="s">
+        <v>520</v>
+      </c>
+      <c r="E7" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>558</v>
+      </c>
+      <c r="B8" t="s">
+        <v>559</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D8" t="s">
+        <v>556</v>
+      </c>
+      <c r="E8" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>292</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B12" t="s">
+        <v>478</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D12" t="s">
+        <v>517</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>477</v>
+      </c>
+      <c r="B13" t="s">
+        <v>479</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D13" t="s">
+        <v>517</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>482</v>
+      </c>
+      <c r="B14" t="s">
+        <v>483</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D14" t="s">
+        <v>517</v>
+      </c>
+      <c r="E14" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>485</v>
+      </c>
+      <c r="B15" t="s">
+        <v>488</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D15" t="s">
+        <v>517</v>
+      </c>
+      <c r="E15" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>486</v>
+      </c>
+      <c r="B16" t="s">
+        <v>489</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D16" t="s">
+        <v>517</v>
+      </c>
+      <c r="E16" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>487</v>
+      </c>
+      <c r="B17" t="s">
+        <v>490</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D17" t="s">
+        <v>517</v>
+      </c>
+      <c r="E17" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>494</v>
+      </c>
+      <c r="B18" t="s">
+        <v>499</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D18" t="s">
+        <v>517</v>
+      </c>
+      <c r="E18" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>495</v>
+      </c>
+      <c r="B19" t="s">
+        <v>500</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D19" t="s">
+        <v>517</v>
+      </c>
+      <c r="E19" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>496</v>
+      </c>
+      <c r="B20" t="s">
+        <v>501</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D20" t="s">
+        <v>517</v>
+      </c>
+      <c r="E20" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>497</v>
+      </c>
+      <c r="B21" t="s">
+        <v>502</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D21" t="s">
+        <v>517</v>
+      </c>
+      <c r="E21" t="s">
+        <v>505</v>
+      </c>
+      <c r="F21" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>307</v>
+      </c>
+      <c r="B23" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>320</v>
+      </c>
+      <c r="B24" t="s">
+        <v>538</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D24" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>321</v>
+      </c>
+      <c r="B25" t="s">
+        <v>537</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D25" t="s">
+        <v>533</v>
+      </c>
+      <c r="E25" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>322</v>
+      </c>
+      <c r="B26" t="s">
+        <v>536</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D26" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>305</v>
+      </c>
+      <c r="B28" t="s">
+        <v>311</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D28" t="s">
+        <v>560</v>
+      </c>
+      <c r="F28" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>309</v>
+      </c>
+      <c r="B29" t="s">
+        <v>312</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D29" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>310</v>
+      </c>
+      <c r="B30" t="s">
+        <v>313</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D30" t="s">
+        <v>560</v>
+      </c>
+      <c r="F30" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>316</v>
+      </c>
+      <c r="B31" t="s">
+        <v>317</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D31" t="s">
+        <v>540</v>
+      </c>
+      <c r="E31" t="s">
+        <v>541</v>
+      </c>
+      <c r="F31" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>476</v>
+      </c>
+      <c r="B32" t="s">
+        <v>550</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="D32" t="s">
+        <v>506</v>
+      </c>
+      <c r="E32" t="s">
+        <v>551</v>
+      </c>
+      <c r="F32" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>306</v>
+      </c>
+      <c r="B33" t="s">
+        <v>308</v>
+      </c>
+      <c r="F33" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>273</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B34" t="s">
+        <v>515</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D34" t="s">
+        <v>514</v>
+      </c>
+      <c r="E34" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>294</v>
+      </c>
+      <c r="B35" t="s">
         <v>295</v>
       </c>
-      <c r="C3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C35" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D35" t="s">
+        <v>514</v>
+      </c>
+      <c r="E35" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>275</v>
-      </c>
-      <c r="B5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B36" t="s">
         <v>297</v>
       </c>
-      <c r="B6" t="s">
-        <v>298</v>
-      </c>
-      <c r="C6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>308</v>
-      </c>
-      <c r="B7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C36" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D36" t="s">
+        <v>514</v>
+      </c>
+      <c r="E36" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>300</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B37" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>319</v>
-      </c>
-      <c r="B9" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>332</v>
-      </c>
-      <c r="B10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>334</v>
-      </c>
-      <c r="B11" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>335</v>
-      </c>
-      <c r="B12" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>317</v>
-      </c>
-      <c r="B14" t="s">
-        <v>323</v>
-      </c>
-      <c r="C14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>321</v>
-      </c>
-      <c r="B15" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>322</v>
-      </c>
-      <c r="B16" t="s">
-        <v>325</v>
-      </c>
-      <c r="C16" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>328</v>
-      </c>
-      <c r="B17" t="s">
-        <v>329</v>
-      </c>
-      <c r="C17" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>318</v>
-      </c>
-      <c r="B18" t="s">
-        <v>320</v>
-      </c>
-      <c r="C18" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="D37" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>302</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B38" t="s">
+        <v>545</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="D38" t="s">
+        <v>548</v>
+      </c>
+      <c r="E38" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B39" t="s">
         <v>304</v>
       </c>
-      <c r="B20" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>306</v>
-      </c>
-      <c r="B21" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>311</v>
-      </c>
-      <c r="B22" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>314</v>
-      </c>
-      <c r="B23" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>315</v>
-      </c>
-      <c r="B24" t="s">
-        <v>316</v>
+      <c r="C39" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D39" t="s">
+        <v>546</v>
+      </c>
+      <c r="E39" t="s">
+        <v>547</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{7985D248-2698-4CE0-953D-017CA1DF6B55}"/>
+    <hyperlink ref="C13" r:id="rId2" xr:uid="{9D3E3691-4218-46E8-87AB-03C0AE519544}"/>
+    <hyperlink ref="C14" r:id="rId3" xr:uid="{DB312B00-E2A6-49E6-8D3C-C346BB5DFA80}"/>
+    <hyperlink ref="C15" r:id="rId4" xr:uid="{45169648-44D3-4254-97EB-3F4A1849926D}"/>
+    <hyperlink ref="C16" r:id="rId5" xr:uid="{EDDE63E7-0AE2-43D6-840D-B750F4F5BE44}"/>
+    <hyperlink ref="C17" r:id="rId6" xr:uid="{AC441A03-5C3B-4063-85F4-A02BE1A36AFA}"/>
+    <hyperlink ref="C18" r:id="rId7" xr:uid="{94AD87E8-F19C-4807-8EEF-F600A05E0D59}"/>
+    <hyperlink ref="C19" r:id="rId8" xr:uid="{3A56A037-4288-4BE8-9B37-B39F56AB2660}"/>
+    <hyperlink ref="C20" r:id="rId9" xr:uid="{D76C86A9-2E12-4F62-8598-52F5CF201FC4}"/>
+    <hyperlink ref="C21" r:id="rId10" display="MISUMI" xr:uid="{A365E804-6677-425E-BCEB-0D13AA5DAA2F}"/>
+    <hyperlink ref="C7" r:id="rId11" xr:uid="{29008C5B-4869-4AE4-BB3F-D1CCB96C73C7}"/>
+    <hyperlink ref="C6" r:id="rId12" xr:uid="{5759A6CA-5FA0-4FFC-8AA6-BF5DBC91E0B4}"/>
+    <hyperlink ref="C2" r:id="rId13" xr:uid="{DF69915F-44B4-4132-BA92-C0F98C17F23D}"/>
+    <hyperlink ref="C3" r:id="rId14" xr:uid="{31AC947B-A1F6-4545-9622-C2ED25C2C20F}"/>
+    <hyperlink ref="C4" r:id="rId15" xr:uid="{40D02E9D-BA00-4439-9B1F-8607D69B666C}"/>
+    <hyperlink ref="C5" r:id="rId16" xr:uid="{51E3785A-577F-4F8D-AE9D-32FB44444C14}"/>
+    <hyperlink ref="C25" r:id="rId17" xr:uid="{CFB7316E-DF90-4094-92D3-D30DF906966D}"/>
+    <hyperlink ref="C26" r:id="rId18" xr:uid="{8A795FB9-BFE7-42F8-9106-82D4EFACD311}"/>
+    <hyperlink ref="C24" r:id="rId19" xr:uid="{7D55B654-DACB-4169-99AD-D418895D95CC}"/>
+    <hyperlink ref="C30" r:id="rId20" xr:uid="{181A5BA6-A9EC-4451-A145-87E15B3F8AA2}"/>
+    <hyperlink ref="C28" r:id="rId21" xr:uid="{6028D50A-83AA-4E0F-A6DF-FB6CFBA0B74F}"/>
+    <hyperlink ref="C29" r:id="rId22" xr:uid="{3353FF92-25E9-4FCA-8D76-F6D91949B600}"/>
+    <hyperlink ref="C31" r:id="rId23" xr:uid="{99D76979-3473-47D7-9FF5-32DDB351AEE2}"/>
+    <hyperlink ref="C35" r:id="rId24" xr:uid="{714DC61F-EF8E-4C00-B13A-8408249D6EBE}"/>
+    <hyperlink ref="C34" r:id="rId25" xr:uid="{F702D288-7B8C-4AA5-A480-E7EACE27A0C2}"/>
+    <hyperlink ref="C36" r:id="rId26" xr:uid="{94325D96-442F-4F6B-A64E-C298BE4FDFAE}"/>
+    <hyperlink ref="C39" r:id="rId27" xr:uid="{0A3FCA0F-E9E6-4192-BFC7-7F7D22169DF5}"/>
+    <hyperlink ref="C38" r:id="rId28" xr:uid="{6193D052-518E-4B75-B0DE-407E21909619}"/>
+    <hyperlink ref="C32" r:id="rId29" xr:uid="{D38E43C2-F03C-47D7-95DD-38A601A9303D}"/>
+    <hyperlink ref="C8" r:id="rId30" xr:uid="{2D116DCD-594D-4E2E-8554-A97D8BDD5BF7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId31"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId32"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7EF81F-45B8-4E66-A9E2-1FE1CC554550}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C1" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+      <c r="D1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E1" t="s">
+        <v>561</v>
+      </c>
+      <c r="F1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="B2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="B3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="B4" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>608</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="B5" t="s">
-        <v>469</v>
-      </c>
-      <c r="C5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="F5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>477</v>
-      </c>
-      <c r="B6" t="s">
-        <v>473</v>
-      </c>
-      <c r="C6" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>457</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="B7" t="s">
-        <v>474</v>
-      </c>
-      <c r="C7" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="F7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="B8" t="s">
-        <v>480</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="E8" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{BE7421FD-6E82-4EFB-83BF-681B660075D4}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{FD578E84-73EE-485A-A20E-23456B738A57}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{66D2DB1C-C488-4DC7-9529-081AD1715AAE}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{DB35E28D-2642-4AA3-86A6-A96F1D4D45D9}"/>
+    <hyperlink ref="C4" r:id="rId5" xr:uid="{F3B6BC83-9180-404D-851A-5678063A8099}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Docs/Printer Part Codes.xlsx
+++ b/Docs/Printer Part Codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2605EC-47F8-44A1-B1C4-E8AC282544DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF56DB5-7784-4570-87AE-FC43E4D734AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
+    <workbookView xWindow="2820" yWindow="2040" windowWidth="23250" windowHeight="12480" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
   </bookViews>
   <sheets>
     <sheet name="000 - Printed Parts" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="672">
   <si>
     <t>Component</t>
   </si>
@@ -223,12 +223,6 @@
     <t>STL Filename</t>
   </si>
   <si>
-    <t>Bowden Coupler</t>
-  </si>
-  <si>
-    <t>Hotend adapter for bowden</t>
-  </si>
-  <si>
     <t>Tools</t>
   </si>
   <si>
@@ -412,9 +406,6 @@
     <t>Lighting</t>
   </si>
   <si>
-    <t>144 LEDs/m</t>
-  </si>
-  <si>
     <t>82 - Electrical - Lighting - LED Guide, 12mm.stl</t>
   </si>
   <si>
@@ -436,30 +427,6 @@
     <t>Exterior</t>
   </si>
   <si>
-    <t>100 - Exterior - Frame - Base Cap Type 1.stl</t>
-  </si>
-  <si>
-    <t>101 - Exterior - Frame - Base Cap Type 2.stl</t>
-  </si>
-  <si>
-    <t>Base Cap Type 2</t>
-  </si>
-  <si>
-    <t>Base Cap Type 1</t>
-  </si>
-  <si>
-    <t>Top Cap Type 1</t>
-  </si>
-  <si>
-    <t>102 - Exterior - Frame - Top Cap Type 1.stl</t>
-  </si>
-  <si>
-    <t>Top Cap Type 2</t>
-  </si>
-  <si>
-    <t>103 - Exterior - Frame - Top Cap Type 2.stl</t>
-  </si>
-  <si>
     <t>Skirt</t>
   </si>
   <si>
@@ -535,9 +502,6 @@
     <t>33 - Gantry - Carriage - Front Mount.stl</t>
   </si>
   <si>
-    <t>60 - Extruder - Bowden - Coupler.stl</t>
-  </si>
-  <si>
     <t>61 - Extruder - DD - BMG Mount.stl</t>
   </si>
   <si>
@@ -577,6 +541,9 @@
     <t>92mm Fan Grille</t>
   </si>
   <si>
+    <t>Needs redesign</t>
+  </si>
+  <si>
     <t>SD Card Reader Mount</t>
   </si>
   <si>
@@ -916,9 +883,6 @@
     <t>PN911</t>
   </si>
   <si>
-    <t>Power Switch, Toggle</t>
-  </si>
-  <si>
     <t>PN920</t>
   </si>
   <si>
@@ -943,12 +907,6 @@
     <t>Power Supply, 24V, 450W</t>
   </si>
   <si>
-    <t>PN983</t>
-  </si>
-  <si>
-    <t>Raspberry Pi 3B+</t>
-  </si>
-  <si>
     <t>PN984</t>
   </si>
   <si>
@@ -1363,9 +1321,6 @@
     <t>2020 Extrusion, Variable</t>
   </si>
   <si>
-    <t>Allowance is made for 540-580mm</t>
-  </si>
-  <si>
     <t>PN080</t>
   </si>
   <si>
@@ -1453,9 +1408,6 @@
     <t>Bed frame</t>
   </si>
   <si>
-    <t>Y axis crossbar</t>
-  </si>
-  <si>
     <t>X axis rail</t>
   </si>
   <si>
@@ -1702,6 +1654,9 @@
     <t>Needs a 5 or 10 amp fuse.</t>
   </si>
   <si>
+    <t>PN814</t>
+  </si>
+  <si>
     <t>Ref. Supplier</t>
   </si>
   <si>
@@ -1720,9 +1675,6 @@
     <t>PN913</t>
   </si>
   <si>
-    <t>Fuse, 5x20mm, Fast Blow, 5A</t>
-  </si>
-  <si>
     <t>Generic</t>
   </si>
   <si>
@@ -1868,6 +1820,243 @@
   </si>
   <si>
     <t>PTFE Tube, 4mm OD, 2mm ID</t>
+  </si>
+  <si>
+    <t>60 - Extruder - Bowden - Hotend Adapter.stl</t>
+  </si>
+  <si>
+    <t>Hotend Adapter</t>
+  </si>
+  <si>
+    <t>(Placeholder)</t>
+  </si>
+  <si>
+    <t>60 LEDs/m</t>
+  </si>
+  <si>
+    <t>PN899</t>
+  </si>
+  <si>
+    <t>Zip ties, 4"</t>
+  </si>
+  <si>
+    <t>PN898</t>
+  </si>
+  <si>
+    <t>Zip ties, 6"</t>
+  </si>
+  <si>
+    <t>PN713</t>
+  </si>
+  <si>
+    <t>2020 Door Panel Gasket</t>
+  </si>
+  <si>
+    <t>HFSSK5-2000</t>
+  </si>
+  <si>
+    <t>PN750</t>
+  </si>
+  <si>
+    <t>404020 Extrusion, 620mm</t>
+  </si>
+  <si>
+    <t>HFS5-404020-620</t>
+  </si>
+  <si>
+    <t>PN740</t>
+  </si>
+  <si>
+    <t>2040 Extrusion, 800mm</t>
+  </si>
+  <si>
+    <t>HFS5-2040-800</t>
+  </si>
+  <si>
+    <t>External vertical frame</t>
+  </si>
+  <si>
+    <t>PN741</t>
+  </si>
+  <si>
+    <t>2040 Extrusion, 620mm</t>
+  </si>
+  <si>
+    <t>HFS5-2040-620</t>
+  </si>
+  <si>
+    <t>External top bar, front and rear</t>
+  </si>
+  <si>
+    <t>PN742</t>
+  </si>
+  <si>
+    <t>2040 Extrusion, 540mm</t>
+  </si>
+  <si>
+    <t>HFS5-2040-540</t>
+  </si>
+  <si>
+    <t>Side interior crossbars</t>
+  </si>
+  <si>
+    <t>Lower frame crossbar, all sides</t>
+  </si>
+  <si>
+    <t>Y axis crossbar, external top side bar</t>
+  </si>
+  <si>
+    <t>PN760</t>
+  </si>
+  <si>
+    <t>Acrylic Sheet, 577x659x5mm</t>
+  </si>
+  <si>
+    <t>PN761</t>
+  </si>
+  <si>
+    <t>Acrylic Sheet, 614x696x5mm</t>
+  </si>
+  <si>
+    <t>PN770</t>
+  </si>
+  <si>
+    <t>Rear Panel</t>
+  </si>
+  <si>
+    <t>PN771</t>
+  </si>
+  <si>
+    <t>Side Panel</t>
+  </si>
+  <si>
+    <t>PN772</t>
+  </si>
+  <si>
+    <t>Roof Panel, Rear</t>
+  </si>
+  <si>
+    <t>PN773</t>
+  </si>
+  <si>
+    <t>Roof Panel, Front</t>
+  </si>
+  <si>
+    <t>PN774</t>
+  </si>
+  <si>
+    <t>Floor Access Panel, Rear</t>
+  </si>
+  <si>
+    <t>PN775</t>
+  </si>
+  <si>
+    <t>Floor Access Panel, Front</t>
+  </si>
+  <si>
+    <t>PN776</t>
+  </si>
+  <si>
+    <t>Left Floor Cover</t>
+  </si>
+  <si>
+    <t>PN777</t>
+  </si>
+  <si>
+    <t>Right Floor Cover</t>
+  </si>
+  <si>
+    <t>Outer door window</t>
+  </si>
+  <si>
+    <t>Inner door window</t>
+  </si>
+  <si>
+    <t>Locally Sourced</t>
+  </si>
+  <si>
+    <t>Allowance is made for 540-580mm as a PN727 substitute</t>
+  </si>
+  <si>
+    <t>Build Plate, Spring Steel</t>
+  </si>
+  <si>
+    <t>Fulament</t>
+  </si>
+  <si>
+    <t>301652346813</t>
+  </si>
+  <si>
+    <t>Hookup Wire, Silicone, 22 AWG</t>
+  </si>
+  <si>
+    <t>Hookup Wire, Silicone, 24 AWG</t>
+  </si>
+  <si>
+    <t>PN914</t>
+  </si>
+  <si>
+    <t>Hookup Wire, Silicone, 16 AWG</t>
+  </si>
+  <si>
+    <t>PN915</t>
+  </si>
+  <si>
+    <t>PN917</t>
+  </si>
+  <si>
+    <t>Switch, Panel Mount, &gt;5A VAC</t>
+  </si>
+  <si>
+    <t>12-12.5mm circular cutout, either SPST or DPST</t>
+  </si>
+  <si>
+    <t>Fuse, 5x20mm, Glass, Fast Blow, 5A</t>
+  </si>
+  <si>
+    <t>Combination of 6mm and 10mm is also suitable.</t>
+  </si>
+  <si>
+    <t>Wire wrap, Spiral, 8mm</t>
+  </si>
+  <si>
+    <t>PN918</t>
+  </si>
+  <si>
+    <t>Heatshrink tubing</t>
+  </si>
+  <si>
+    <t>2-4mm</t>
+  </si>
+  <si>
+    <t>PN965</t>
+  </si>
+  <si>
+    <t>HDMI Mini to HDMI Adapter</t>
+  </si>
+  <si>
+    <t>For extending the bed wire</t>
+  </si>
+  <si>
+    <t>PN919</t>
+  </si>
+  <si>
+    <t>PN103</t>
+  </si>
+  <si>
+    <t>PN102</t>
+  </si>
+  <si>
+    <t>80mm Fan Mount</t>
+  </si>
+  <si>
+    <t>80mm Fan Grille</t>
+  </si>
+  <si>
+    <t>102 - Exterior - Skirt - 80mm Fan Mount.stl</t>
+  </si>
+  <si>
+    <t>103 - Exterior - Skirt - 80mm Fan Grille.stl</t>
   </si>
 </sst>
 </file>
@@ -1932,7 +2121,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1944,12 +2133,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1992,10 +2185,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I87" totalsRowShown="0">
-  <autoFilter ref="A1:I87" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I87">
-    <sortCondition ref="A1:A87"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I85" totalsRowShown="0">
+  <autoFilter ref="A1:I85" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I85">
+    <sortCondition ref="A1:A85"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A8EA61BD-839A-4759-B873-CEDA7BEA684B}" name="Number"/>
@@ -2043,8 +2236,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8570C666-3312-43F5-A12D-CA6F588D6A21}" name="Table6" displayName="Table6" ref="A1:F16" totalsRowShown="0">
-  <autoFilter ref="A1:F16" xr:uid="{8570C666-3312-43F5-A12D-CA6F588D6A21}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8570C666-3312-43F5-A12D-CA6F588D6A21}" name="Table6" displayName="Table6" ref="A1:F31" totalsRowShown="0">
+  <autoFilter ref="A1:F31" xr:uid="{8570C666-3312-43F5-A12D-CA6F588D6A21}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{DDE460B5-9815-4608-8551-C7DA640FABAE}" name="ID"/>
     <tableColumn id="2" xr3:uid="{00ECFD0D-B7D6-4B45-834E-6EA63127D17A}" name="Description String"/>
@@ -2058,14 +2251,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{38E36A69-6DC9-48C9-A844-2C9B61CC67B5}" name="Table4" displayName="Table4" ref="A1:F9" totalsRowShown="0">
-  <autoFilter ref="A1:F9" xr:uid="{25A20098-4797-4CED-8859-6F0B389C74C7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{38E36A69-6DC9-48C9-A844-2C9B61CC67B5}" name="Table4" displayName="Table4" ref="A1:F15" totalsRowShown="0">
+  <autoFilter ref="A1:F15" xr:uid="{25A20098-4797-4CED-8859-6F0B389C74C7}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4A8FA1ED-C774-4AAD-B05A-174EEF2A2E73}" name="ID"/>
     <tableColumn id="2" xr3:uid="{008547DD-D3A3-47C0-AA5C-98C260ED5CC8}" name="Part Description"/>
     <tableColumn id="4" xr3:uid="{7BE69A7F-33F5-4669-A20F-C52D6EDC0ADD}" name="Ref. Supplier"/>
     <tableColumn id="6" xr3:uid="{3701F368-CF06-4CA9-824E-94C2FA4E8BBF}" name="Ref. Mfgr."/>
-    <tableColumn id="5" xr3:uid="{372E6957-2FA0-4591-8C0D-9A27891ED900}" name="Ref Mfgr PN"/>
+    <tableColumn id="5" xr3:uid="{372E6957-2FA0-4591-8C0D-9A27891ED900}" name="Ref Mfgr PN" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{7272962D-D4B8-4C68-886D-6FECD762F844}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2073,8 +2266,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E77F429E-7503-4CB6-829A-92647E35DDBE}" name="Table3" displayName="Table3" ref="A1:F39" totalsRowShown="0">
-  <autoFilter ref="A1:F39" xr:uid="{8BABF5E9-F118-4BB6-8CB6-73E52CF1CA9F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E77F429E-7503-4CB6-829A-92647E35DDBE}" name="Table3" displayName="Table3" ref="A1:F41" totalsRowShown="0">
+  <autoFilter ref="A1:F41" xr:uid="{8BABF5E9-F118-4BB6-8CB6-73E52CF1CA9F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2640334D-8D49-433A-AC38-5E3A83CD6E82}" name="ID"/>
     <tableColumn id="2" xr3:uid="{6F287AD0-06D3-42F8-928A-6934737A719D}" name="Part Description"/>
@@ -2094,8 +2287,8 @@
     <tableColumn id="1" xr3:uid="{D27A1FD2-D68A-49A9-8486-A5E0A7C8139D}" name="ID"/>
     <tableColumn id="2" xr3:uid="{532CA9D2-6154-4580-96FD-1F398A1AAB41}" name="Description String"/>
     <tableColumn id="4" xr3:uid="{254E71EF-50AE-4115-A712-B0880E4C4BEB}" name="Ref. Supplier"/>
-    <tableColumn id="5" xr3:uid="{0F8AAA45-1680-42E6-A715-760EA775009F}" name="Ref. Mfgr." dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{2D763FC2-8F98-4FA3-858F-EAD8A1E357FF}" name="Ref. Mfgr. PN" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{0F8AAA45-1680-42E6-A715-760EA775009F}" name="Ref. Mfgr." dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{2D763FC2-8F98-4FA3-858F-EAD8A1E357FF}" name="Ref. Mfgr. PN" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{6F2206D7-5CDF-4844-BCEA-9C03E2AE39DA}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2399,10 +2592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC8DB31-6D45-4FED-94B6-5390BD4B0F2C}">
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2449,7 +2642,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2470,12 +2663,12 @@
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -2496,12 +2689,12 @@
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -2522,12 +2715,12 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -2548,12 +2741,12 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -2574,12 +2767,12 @@
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -2600,12 +2793,12 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -2626,12 +2819,12 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -2652,12 +2845,12 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -2678,12 +2871,12 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -2704,12 +2897,12 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -2730,12 +2923,12 @@
         <v>2</v>
       </c>
       <c r="I12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -2756,12 +2949,12 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -2782,12 +2975,12 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -2808,12 +3001,12 @@
         <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -2825,7 +3018,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="F16" t="s">
         <v>35</v>
@@ -2834,15 +3027,15 @@
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -2863,12 +3056,12 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -2889,12 +3082,12 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -2918,12 +3111,12 @@
         <v>55</v>
       </c>
       <c r="I19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -2935,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F20" t="s">
         <v>53</v>
@@ -2944,12 +3137,12 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -2970,12 +3163,12 @@
         <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -2996,12 +3189,12 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -3022,12 +3215,12 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -3048,12 +3241,12 @@
         <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -3074,12 +3267,12 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -3100,12 +3293,12 @@
         <v>1</v>
       </c>
       <c r="I26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -3126,12 +3319,12 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -3152,12 +3345,12 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -3178,12 +3371,12 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -3205,7 +3398,7 @@
       </c>
       <c r="H30" s="1"/>
       <c r="I30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -3232,7 +3425,7 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -3259,7 +3452,7 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -3286,7 +3479,7 @@
       </c>
       <c r="H33" s="1"/>
       <c r="I33" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -3313,7 +3506,7 @@
       </c>
       <c r="H34" s="1"/>
       <c r="I34" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -3330,7 +3523,7 @@
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="F35" t="s">
         <v>53</v>
@@ -3338,8 +3531,11 @@
       <c r="G35">
         <v>1</v>
       </c>
+      <c r="H35" t="s">
+        <v>159</v>
+      </c>
       <c r="I35" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -3356,7 +3552,7 @@
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="F36" t="s">
         <v>53</v>
@@ -3364,13 +3560,16 @@
       <c r="G36">
         <v>1</v>
       </c>
+      <c r="H36" t="s">
+        <v>159</v>
+      </c>
       <c r="I36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
@@ -3382,7 +3581,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F37" t="s">
         <v>53</v>
@@ -3390,13 +3589,16 @@
       <c r="G37">
         <v>1</v>
       </c>
+      <c r="H37" t="s">
+        <v>159</v>
+      </c>
       <c r="I37" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="B38" t="s">
         <v>23</v>
@@ -3416,13 +3618,16 @@
       <c r="G38">
         <v>1</v>
       </c>
+      <c r="H38" t="s">
+        <v>159</v>
+      </c>
       <c r="I38" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="B39" t="s">
         <v>23</v>
@@ -3442,13 +3647,16 @@
       <c r="G39">
         <v>1</v>
       </c>
+      <c r="H39" t="s">
+        <v>159</v>
+      </c>
       <c r="I39" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="B40" t="s">
         <v>23</v>
@@ -3468,13 +3676,16 @@
       <c r="G40">
         <v>1</v>
       </c>
+      <c r="H40" t="s">
+        <v>159</v>
+      </c>
       <c r="I40" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
@@ -3494,8 +3705,11 @@
       <c r="G41">
         <v>1</v>
       </c>
+      <c r="H41" t="s">
+        <v>159</v>
+      </c>
       <c r="I41" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -3520,8 +3734,11 @@
       <c r="G42">
         <v>1</v>
       </c>
+      <c r="H42" t="s">
+        <v>159</v>
+      </c>
       <c r="I42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -3546,8 +3763,11 @@
       <c r="G43">
         <v>1</v>
       </c>
+      <c r="H43" t="s">
+        <v>159</v>
+      </c>
       <c r="I43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -3558,13 +3778,13 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D44" t="s">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>60</v>
+        <v>594</v>
       </c>
       <c r="F44" t="s">
         <v>53</v>
@@ -3573,10 +3793,10 @@
         <v>1</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>61</v>
+        <v>595</v>
       </c>
       <c r="I44" t="s">
-        <v>164</v>
+        <v>593</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -3587,7 +3807,7 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D45" t="s">
         <v>1</v>
@@ -3603,18 +3823,18 @@
       </c>
       <c r="H45" s="1"/>
       <c r="I45" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
@@ -3628,55 +3848,57 @@
       <c r="G46">
         <v>1</v>
       </c>
-      <c r="H46" s="1"/>
+      <c r="H46" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="I46" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
       </c>
       <c r="E47" t="s">
+        <v>100</v>
+      </c>
+      <c r="F47" t="s">
+        <v>53</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>101</v>
+      </c>
+      <c r="I47" t="s">
         <v>102</v>
-      </c>
-      <c r="F47" t="s">
-        <v>53</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47" t="s">
-        <v>103</v>
-      </c>
-      <c r="I47" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="B48" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F48" t="s">
         <v>53</v>
@@ -3685,53 +3907,53 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
+        <v>101</v>
+      </c>
+      <c r="I48" t="s">
         <v>103</v>
-      </c>
-      <c r="I48" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="B49" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C49" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D49" t="s">
         <v>9</v>
       </c>
       <c r="E49" t="s">
+        <v>104</v>
+      </c>
+      <c r="F49" t="s">
+        <v>53</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
         <v>106</v>
-      </c>
-      <c r="F49" t="s">
-        <v>53</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="I49" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
       </c>
       <c r="E50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F50" t="s">
         <v>53</v>
@@ -3740,24 +3962,24 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="B51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F51" t="s">
         <v>53</v>
@@ -3765,25 +3987,28 @@
       <c r="G51">
         <v>1</v>
       </c>
+      <c r="H51" t="s">
+        <v>159</v>
+      </c>
       <c r="I51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F52" t="s">
         <v>53</v>
@@ -3791,16 +4016,19 @@
       <c r="G52">
         <v>1</v>
       </c>
+      <c r="H52" t="s">
+        <v>159</v>
+      </c>
       <c r="I52" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C53" t="s">
         <v>47</v>
@@ -3809,24 +4037,24 @@
         <v>5</v>
       </c>
       <c r="E53" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" t="s">
+        <v>53</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="I53" t="s">
         <v>115</v>
-      </c>
-      <c r="F53" t="s">
-        <v>53</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="I53" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="B54" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C54" t="s">
         <v>47</v>
@@ -3835,7 +4063,7 @@
         <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F54" t="s">
         <v>53</v>
@@ -3844,15 +4072,15 @@
         <v>1</v>
       </c>
       <c r="I54" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="B55" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C55" t="s">
         <v>47</v>
@@ -3861,7 +4089,7 @@
         <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F55" t="s">
         <v>53</v>
@@ -3870,15 +4098,15 @@
         <v>1</v>
       </c>
       <c r="I55" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C56" t="s">
         <v>47</v>
@@ -3887,7 +4115,7 @@
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F56" t="s">
         <v>53</v>
@@ -3896,15 +4124,15 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C57" t="s">
         <v>47</v>
@@ -3913,7 +4141,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="F57" t="s">
         <v>53</v>
@@ -3922,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3930,17 +4158,17 @@
         <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C58" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
         <v>122</v>
       </c>
-      <c r="D58" t="s">
-        <v>1</v>
-      </c>
-      <c r="E58" t="s">
-        <v>125</v>
-      </c>
       <c r="F58" t="s">
         <v>53</v>
       </c>
@@ -3948,18 +4176,18 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>123</v>
+        <v>596</v>
       </c>
       <c r="I58" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="B59" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C59" t="s">
         <v>47</v>
@@ -3968,7 +4196,7 @@
         <v>5</v>
       </c>
       <c r="E59" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F59" t="s">
         <v>53</v>
@@ -3977,15 +4205,15 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="B60" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C60" t="s">
         <v>47</v>
@@ -3994,7 +4222,7 @@
         <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F60" t="s">
         <v>53</v>
@@ -4003,15 +4231,15 @@
         <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="B61" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C61" t="s">
         <v>47</v>
@@ -4020,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F61" t="s">
         <v>53</v>
@@ -4029,15 +4257,15 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="B62" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C62" t="s">
         <v>47</v>
@@ -4046,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="F62" t="s">
         <v>53</v>
@@ -4055,24 +4283,24 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="B63" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C63" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="D63" t="s">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F63" t="s">
         <v>53</v>
@@ -4080,13 +4308,16 @@
       <c r="G63">
         <v>1</v>
       </c>
+      <c r="H63" t="s">
+        <v>159</v>
+      </c>
       <c r="I63" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="B64" t="s">
         <v>36</v>
@@ -4098,7 +4329,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="F64" t="s">
         <v>53</v>
@@ -4107,12 +4338,12 @@
         <v>58</v>
       </c>
       <c r="I64" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B65" t="s">
         <v>36</v>
@@ -4132,13 +4363,16 @@
       <c r="G65">
         <v>5</v>
       </c>
+      <c r="H65" t="s">
+        <v>159</v>
+      </c>
       <c r="I65" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B66" t="s">
         <v>36</v>
@@ -4158,13 +4392,16 @@
       <c r="G66">
         <v>4</v>
       </c>
+      <c r="H66" t="s">
+        <v>159</v>
+      </c>
       <c r="I66" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
@@ -4185,24 +4422,24 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B68" t="s">
         <v>36</v>
       </c>
       <c r="C68" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D68" t="s">
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="F68" t="s">
         <v>53</v>
@@ -4210,16 +4447,19 @@
       <c r="G68">
         <v>2</v>
       </c>
+      <c r="H68" t="s">
+        <v>159</v>
+      </c>
       <c r="I68" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="B69" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C69" t="s">
         <v>38</v>
@@ -4228,30 +4468,30 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F69" t="s">
         <v>53</v>
       </c>
       <c r="I69" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="B70" t="s">
         <v>36</v>
       </c>
       <c r="C70" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D70" t="s">
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F70" t="s">
         <v>53</v>
@@ -4260,12 +4500,12 @@
         <v>10</v>
       </c>
       <c r="I70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="B71" t="s">
         <v>36</v>
@@ -4277,30 +4517,30 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="F71" t="s">
         <v>53</v>
       </c>
       <c r="I71" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="B72" t="s">
         <v>36</v>
       </c>
       <c r="C72" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D72" t="s">
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F72" t="s">
         <v>53</v>
@@ -4309,12 +4549,12 @@
         <v>1</v>
       </c>
       <c r="I72" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
@@ -4326,7 +4566,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="F73" t="s">
         <v>53</v>
@@ -4335,128 +4575,131 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>100</v>
+      <c r="A74" t="s">
+        <v>667</v>
       </c>
       <c r="B74" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" t="s">
+        <v>128</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>668</v>
+      </c>
+      <c r="F74" t="s">
+        <v>53</v>
+      </c>
+      <c r="G74">
+        <v>3</v>
+      </c>
+      <c r="I74" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>666</v>
+      </c>
+      <c r="B75" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" t="s">
+        <v>128</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>669</v>
+      </c>
+      <c r="F75" t="s">
+        <v>53</v>
+      </c>
+      <c r="G75">
+        <v>3</v>
+      </c>
+      <c r="I75" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>418</v>
+      </c>
+      <c r="B76" t="s">
+        <v>127</v>
+      </c>
+      <c r="C76" t="s">
+        <v>128</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" t="s">
+        <v>129</v>
+      </c>
+      <c r="F76" t="s">
+        <v>53</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="I76" t="s">
         <v>130</v>
       </c>
-      <c r="C74" t="s">
-        <v>38</v>
-      </c>
-      <c r="D74" t="s">
-        <v>1</v>
-      </c>
-      <c r="E74" t="s">
-        <v>134</v>
-      </c>
-      <c r="F74" t="s">
-        <v>53</v>
-      </c>
-      <c r="G74">
-        <v>2</v>
-      </c>
-      <c r="I74" t="s">
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>417</v>
+      </c>
+      <c r="B77" t="s">
+        <v>127</v>
+      </c>
+      <c r="C77" t="s">
+        <v>128</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>101</v>
-      </c>
-      <c r="B75" t="s">
-        <v>130</v>
-      </c>
-      <c r="C75" t="s">
-        <v>38</v>
-      </c>
-      <c r="D75" t="s">
-        <v>1</v>
-      </c>
-      <c r="E75" t="s">
-        <v>133</v>
-      </c>
-      <c r="F75" t="s">
-        <v>53</v>
-      </c>
-      <c r="G75">
-        <v>2</v>
-      </c>
-      <c r="I75" t="s">
+      <c r="F77" t="s">
+        <v>53</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>142</v>
+      </c>
+      <c r="I77" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>102</v>
-      </c>
-      <c r="B76" t="s">
-        <v>130</v>
-      </c>
-      <c r="C76" t="s">
-        <v>38</v>
-      </c>
-      <c r="D76" t="s">
-        <v>1</v>
-      </c>
-      <c r="E76" t="s">
-        <v>135</v>
-      </c>
-      <c r="F76" t="s">
-        <v>53</v>
-      </c>
-      <c r="G76">
-        <v>2</v>
-      </c>
-      <c r="I76" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>103</v>
-      </c>
-      <c r="B77" t="s">
-        <v>130</v>
-      </c>
-      <c r="C77" t="s">
-        <v>38</v>
-      </c>
-      <c r="D77" t="s">
-        <v>1</v>
-      </c>
-      <c r="E77" t="s">
-        <v>137</v>
-      </c>
-      <c r="F77" t="s">
-        <v>53</v>
-      </c>
-      <c r="G77">
-        <v>2</v>
-      </c>
-      <c r="I77" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="B78" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C78" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D78" t="s">
         <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F78" t="s">
         <v>53</v>
@@ -4465,24 +4708,24 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>431</v>
+        <v>179</v>
       </c>
       <c r="B79" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C79" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F79" t="s">
         <v>53</v>
@@ -4491,108 +4734,105 @@
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="I79" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="B80" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C80" t="s">
+        <v>128</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>138</v>
+      </c>
+      <c r="F80" t="s">
+        <v>53</v>
+      </c>
+      <c r="G80">
+        <v>4</v>
+      </c>
+      <c r="I80" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>109</v>
+      </c>
+      <c r="B81" t="s">
+        <v>127</v>
+      </c>
+      <c r="C81" t="s">
+        <v>128</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
         <v>139</v>
       </c>
-      <c r="D80" t="s">
-        <v>5</v>
-      </c>
-      <c r="E80" t="s">
-        <v>144</v>
-      </c>
-      <c r="F80" t="s">
-        <v>53</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-      <c r="I80" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>190</v>
-      </c>
-      <c r="B81" t="s">
-        <v>130</v>
-      </c>
-      <c r="C81" t="s">
-        <v>139</v>
-      </c>
-      <c r="D81" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81" t="s">
-        <v>146</v>
-      </c>
       <c r="F81" t="s">
         <v>53</v>
       </c>
       <c r="G81">
-        <v>1</v>
-      </c>
-      <c r="H81" t="s">
-        <v>152</v>
+        <v>3</v>
       </c>
       <c r="I81" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>429</v>
+        <v>381</v>
       </c>
       <c r="B82" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C82" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D82" t="s">
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="F82" t="s">
         <v>53</v>
       </c>
       <c r="G82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B83" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C83" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D83" t="s">
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F83" t="s">
         <v>53</v>
@@ -4601,24 +4841,24 @@
         <v>3</v>
       </c>
       <c r="I83" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B84" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C84" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D84" t="s">
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="F84" t="s">
         <v>53</v>
@@ -4627,85 +4867,33 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>111</v>
+      <c r="A85" t="s">
+        <v>389</v>
       </c>
       <c r="B85" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C85" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D85" t="s">
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
         <v>53</v>
       </c>
       <c r="G85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>402</v>
-      </c>
-      <c r="B86" t="s">
-        <v>130</v>
-      </c>
-      <c r="C86" t="s">
-        <v>139</v>
-      </c>
-      <c r="D86" t="s">
-        <v>1</v>
-      </c>
-      <c r="E86" t="s">
-        <v>172</v>
-      </c>
-      <c r="F86" t="s">
-        <v>53</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="I86" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>403</v>
-      </c>
-      <c r="B87" t="s">
-        <v>130</v>
-      </c>
-      <c r="C87" t="s">
-        <v>139</v>
-      </c>
-      <c r="D87" t="s">
-        <v>1</v>
-      </c>
-      <c r="E87" t="s">
-        <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>53</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-      <c r="I87" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4736,568 +4924,568 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C1" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D1" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="E1" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="F1" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="G1" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="E2" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="F2" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B3" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="E3" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="F3" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B4" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C4" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="E4" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="F4" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B5" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C5" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="E5" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="F5" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="E6" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="F6" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B7" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C7" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="E7" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B8" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C8" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="E8" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="F8" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B9" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C9" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="E9" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="F9" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B10" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C10" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="E10" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B11" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C11" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C12" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="E12" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="F12" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B13" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C13" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="E13" t="s">
+        <v>557</v>
+      </c>
+      <c r="F13" t="s">
         <v>573</v>
-      </c>
-      <c r="F13" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B14" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="E14" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="F14" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="B15" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C15" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="E15" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="F15" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="B16" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C16" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="E16" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="C17" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="E17" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="F17" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="G17" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C18" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="E18" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="G18" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C19" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="E19" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="G19" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B20" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C20" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="E20" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B21" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="C21" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="E21" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="B22" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C22" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="E22" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="B23" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C23" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="E23" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B24" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C24" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="E24" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="B25" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C25" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="E25" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="B26" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C26" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="E26" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B27" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="E27" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B28" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="E28" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C29" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="E29" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B30" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C30" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="E30" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C31" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="E31" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -5358,183 +5546,183 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C1" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="D1" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="E1" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="D2" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="E2" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="D3" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="E3" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="B4" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="D4" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="E4" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="D5" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B6" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="D6" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="D7" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="E7" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B8" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="D8" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="E8" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B9" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="D9" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="E9" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="B10" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="D10" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="E10" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="B11" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="D11" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="E11" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -5560,10 +5748,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34FE8B7A-08B6-4B45-9B87-6CA9E22A21CF}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5572,468 +5760,776 @@
     <col min="2" max="2" width="30.5703125" customWidth="1"/>
     <col min="3" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" customWidth="1"/>
+    <col min="6" max="6" width="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C1" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="D1" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="E1" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="F1" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C2" t="s">
-        <v>507</v>
+        <v>313</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="D2" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="E2" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="D3" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B4" t="s">
-        <v>332</v>
-      </c>
-      <c r="C4" t="s">
-        <v>507</v>
+        <v>318</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="D4" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="E4" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C5" t="s">
-        <v>507</v>
+        <v>321</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="D5" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="E5" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="B6" t="s">
-        <v>339</v>
-      </c>
-      <c r="C6" t="s">
-        <v>507</v>
+        <v>325</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="D6" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="E6" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="B7" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="E7" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>404</v>
+        <v>601</v>
       </c>
       <c r="B8" t="s">
-        <v>406</v>
-      </c>
-      <c r="C8" t="s">
-        <v>507</v>
+        <v>602</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="D8" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="E8" t="s">
-        <v>405</v>
-      </c>
-      <c r="F8" t="s">
-        <v>471</v>
+        <v>603</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
       <c r="B9" t="s">
-        <v>420</v>
-      </c>
-      <c r="C9" t="s">
-        <v>507</v>
+        <v>392</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="D9" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="E9" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="F9" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="B10" t="s">
-        <v>419</v>
-      </c>
-      <c r="C10" t="s">
-        <v>507</v>
+        <v>406</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="D10" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="E10" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="F10" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="B11" t="s">
-        <v>423</v>
-      </c>
-      <c r="C11" t="s">
-        <v>507</v>
+        <v>405</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="D11" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="E11" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="F11" t="s">
-        <v>475</v>
+        <v>620</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="B12" t="s">
-        <v>427</v>
-      </c>
-      <c r="C12" t="s">
-        <v>507</v>
+        <v>409</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="D12" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="E12" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="F12" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="B13" t="s">
-        <v>414</v>
-      </c>
-      <c r="C13" t="s">
-        <v>507</v>
+        <v>413</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="D13" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="E13" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F13" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="B14" t="s">
-        <v>439</v>
-      </c>
-      <c r="C14" t="s">
-        <v>507</v>
+        <v>400</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>491</v>
       </c>
       <c r="D14" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="E14" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="F14" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>463</v>
+        <v>424</v>
       </c>
       <c r="B15" t="s">
-        <v>464</v>
+        <v>425</v>
       </c>
       <c r="C15" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="D15" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="E15" t="s">
-        <v>465</v>
+        <v>402</v>
       </c>
       <c r="F15" t="s">
-        <v>469</v>
+        <v>644</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="B16" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="C16" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="D16" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="E16" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="F16" t="s">
-        <v>469</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>451</v>
+      </c>
+      <c r="B17" t="s">
+        <v>452</v>
+      </c>
+      <c r="C17" t="s">
+        <v>491</v>
+      </c>
+      <c r="D17" t="s">
+        <v>490</v>
+      </c>
+      <c r="E17" t="s">
+        <v>453</v>
+      </c>
+      <c r="F17" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>607</v>
+      </c>
+      <c r="B18" t="s">
+        <v>608</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="D18" t="s">
+        <v>490</v>
+      </c>
+      <c r="E18" t="s">
+        <v>609</v>
+      </c>
+      <c r="F18" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>611</v>
+      </c>
+      <c r="B19" t="s">
+        <v>612</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="D19" t="s">
+        <v>490</v>
+      </c>
+      <c r="E19" t="s">
+        <v>613</v>
+      </c>
+      <c r="F19" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>615</v>
+      </c>
+      <c r="B20" t="s">
+        <v>616</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="D20" t="s">
+        <v>490</v>
+      </c>
+      <c r="E20" t="s">
+        <v>617</v>
+      </c>
+      <c r="F20" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>604</v>
+      </c>
+      <c r="B21" t="s">
+        <v>605</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="D21" t="s">
+        <v>490</v>
+      </c>
+      <c r="E21" t="s">
+        <v>606</v>
+      </c>
+      <c r="F21" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>621</v>
+      </c>
+      <c r="B22" t="s">
+        <v>622</v>
+      </c>
+      <c r="C22" t="s">
+        <v>643</v>
+      </c>
+      <c r="D22" t="s">
+        <v>643</v>
+      </c>
+      <c r="F22" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>623</v>
+      </c>
+      <c r="B23" t="s">
+        <v>624</v>
+      </c>
+      <c r="C23" t="s">
+        <v>643</v>
+      </c>
+      <c r="D23" t="s">
+        <v>643</v>
+      </c>
+      <c r="F23" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>625</v>
+      </c>
+      <c r="B24" t="s">
+        <v>626</v>
+      </c>
+      <c r="C24" t="s">
+        <v>643</v>
+      </c>
+      <c r="D24" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>627</v>
+      </c>
+      <c r="B25" t="s">
+        <v>628</v>
+      </c>
+      <c r="C25" t="s">
+        <v>643</v>
+      </c>
+      <c r="D25" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>629</v>
+      </c>
+      <c r="B26" t="s">
+        <v>630</v>
+      </c>
+      <c r="C26" t="s">
+        <v>643</v>
+      </c>
+      <c r="D26" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>631</v>
+      </c>
+      <c r="B27" t="s">
+        <v>632</v>
+      </c>
+      <c r="C27" t="s">
+        <v>643</v>
+      </c>
+      <c r="D27" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>633</v>
+      </c>
+      <c r="B28" t="s">
+        <v>634</v>
+      </c>
+      <c r="C28" t="s">
+        <v>643</v>
+      </c>
+      <c r="D28" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>635</v>
+      </c>
+      <c r="B29" t="s">
+        <v>636</v>
+      </c>
+      <c r="C29" t="s">
+        <v>643</v>
+      </c>
+      <c r="D29" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>637</v>
+      </c>
+      <c r="B30" t="s">
+        <v>638</v>
+      </c>
+      <c r="C30" t="s">
+        <v>643</v>
+      </c>
+      <c r="D30" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>639</v>
+      </c>
+      <c r="B31" t="s">
+        <v>640</v>
+      </c>
+      <c r="C31" t="s">
+        <v>643</v>
+      </c>
+      <c r="D31" t="s">
+        <v>643</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{BD613481-F644-449A-9D7C-A2AC298E1EDE}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{5EE8D568-1314-47C8-AB5D-0AA48AEBDFA0}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{00FF4E2C-B63F-4739-8C92-12339C380FE4}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{6A4ADA2F-90C7-474B-81A7-2AEEFEA82C81}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{9B216669-F6B6-4EDA-BD09-BD0E93B8B171}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{E4C2F59B-0EED-48B1-BD41-00E39B304B3E}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{7495B18F-242B-4D14-9F0C-1DC2B0980596}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{E6D73755-AD95-411E-B5B3-B161EE491E6F}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{DD1AEE39-2E61-46A5-A4B4-92AEE7273CCD}"/>
+    <hyperlink ref="C10" r:id="rId10" xr:uid="{E153AE37-3C21-4C18-9FF5-D8BF932DFE5B}"/>
+    <hyperlink ref="C18" r:id="rId11" xr:uid="{D4539FA7-D199-49DA-BE54-95EA22CBD815}"/>
+    <hyperlink ref="C19" r:id="rId12" xr:uid="{4CD744BE-0D40-44B9-9364-A8A63FDB93D0}"/>
+    <hyperlink ref="C21" r:id="rId13" xr:uid="{7D5522D7-2C66-4460-A94B-116D8711A7F3}"/>
+    <hyperlink ref="C20" r:id="rId14" xr:uid="{88FE4BFF-AAD7-4E03-B49E-75B9F220F8A6}"/>
+    <hyperlink ref="C13" r:id="rId15" xr:uid="{BFF63971-669E-4310-A764-BAB1967618DE}"/>
+    <hyperlink ref="C14" r:id="rId16" xr:uid="{9F90323F-0131-4C88-824A-A57B906B874D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C344C7D-81F0-47D9-B06F-CFAE20D2FF21}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B15" sqref="A12:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C1" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="D1" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="E1" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="F1" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="D2" t="s">
-        <v>514</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="D3" t="s">
-        <v>514</v>
-      </c>
+        <v>498</v>
+      </c>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="B4" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="D4" t="s">
-        <v>597</v>
-      </c>
+        <v>581</v>
+      </c>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="B5" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="D5" t="s">
-        <v>586</v>
-      </c>
-      <c r="E5" t="s">
-        <v>587</v>
+        <v>570</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="B6" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="D6" t="s">
-        <v>586</v>
-      </c>
-      <c r="E6" t="s">
-        <v>587</v>
+        <v>570</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>571</v>
       </c>
       <c r="F6" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="B7" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="D7" t="s">
-        <v>529</v>
-      </c>
-      <c r="E7" t="s">
-        <v>598</v>
+        <v>513</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>582</v>
       </c>
       <c r="F7" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="B8" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D8" t="s">
+        <v>583</v>
+      </c>
+      <c r="E8" s="9">
+        <v>570</v>
+      </c>
+      <c r="F8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>537</v>
+      </c>
+      <c r="B9" t="s">
+        <v>645</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D9" t="s">
+        <v>646</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>597</v>
+      </c>
+      <c r="B10" t="s">
+        <v>598</v>
+      </c>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>599</v>
       </c>
-      <c r="D8" t="s">
-        <v>599</v>
-      </c>
-      <c r="E8">
-        <v>570</v>
-      </c>
-      <c r="F8" t="s">
-        <v>461</v>
-      </c>
+      <c r="B11" t="s">
+        <v>600</v>
+      </c>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6044,45 +6540,47 @@
     <hyperlink ref="C4" r:id="rId5" xr:uid="{D83D3F9E-FE84-483B-9E79-A83854009024}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{FEDCB7FF-7863-4E93-B2EC-D53A88FB6BD5}"/>
     <hyperlink ref="C8" r:id="rId7" xr:uid="{8FE5EEE1-3A87-4EB9-81E7-B383C7D93C59}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{1F78706B-4359-4865-9440-FEA982D7C6E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E074DA21-E52B-447A-962F-8A94683064C4}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="41.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="5" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
     <col min="6" max="6" width="44" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B1" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C1" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="D1" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E1" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="F1" t="s">
         <v>29</v>
@@ -6090,618 +6588,701 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B2" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="D2" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="E2" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="F2" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B3" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="D3" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="E3" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="F3" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B4" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="D4" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="E4" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B5" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="D5" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="E5" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="F5" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B6" t="s">
-        <v>291</v>
+        <v>654</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>523</v>
+        <v>507</v>
+      </c>
+      <c r="F6" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="B7" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="D7" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="E7" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="B8" t="s">
-        <v>559</v>
+        <v>656</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="D8" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="E8" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="4"/>
+      <c r="A9" t="s">
+        <v>650</v>
+      </c>
+      <c r="B9" t="s">
+        <v>658</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D9" t="s">
+        <v>544</v>
+      </c>
+      <c r="F9" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="4"/>
+      <c r="A10" t="s">
+        <v>652</v>
+      </c>
+      <c r="B10" t="s">
+        <v>651</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D10" t="s">
+        <v>544</v>
+      </c>
+      <c r="F10" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="4"/>
+      <c r="A11" t="s">
+        <v>653</v>
+      </c>
+      <c r="B11" t="s">
+        <v>648</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D11" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>292</v>
+        <v>659</v>
       </c>
       <c r="B12" t="s">
-        <v>478</v>
+        <v>649</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>481</v>
+        <v>512</v>
       </c>
       <c r="D12" t="s">
-        <v>517</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>477</v>
+        <v>665</v>
       </c>
       <c r="B13" t="s">
-        <v>479</v>
+        <v>660</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>481</v>
+        <v>512</v>
       </c>
       <c r="D13" t="s">
-        <v>517</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>519</v>
+        <v>544</v>
+      </c>
+      <c r="F13" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>482</v>
+        <v>280</v>
       </c>
       <c r="B14" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="D14" t="s">
-        <v>517</v>
-      </c>
-      <c r="E14" t="s">
-        <v>484</v>
+        <v>501</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="B15" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="D15" t="s">
-        <v>517</v>
-      </c>
-      <c r="E15" t="s">
-        <v>491</v>
+        <v>501</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="B16" t="s">
-        <v>489</v>
+        <v>467</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="D16" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="E16" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="B17" t="s">
-        <v>490</v>
+        <v>472</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="D17" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="E17" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="B18" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="D18" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="E18" t="s">
-        <v>498</v>
+        <v>476</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="B19" t="s">
-        <v>500</v>
+        <v>474</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="D19" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="E19" t="s">
-        <v>504</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="B20" t="s">
+        <v>483</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D20" t="s">
         <v>501</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="D20" t="s">
-        <v>517</v>
-      </c>
       <c r="E20" t="s">
-        <v>503</v>
+        <v>482</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="B21" t="s">
-        <v>502</v>
+        <v>484</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>507</v>
+        <v>465</v>
       </c>
       <c r="D21" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
       <c r="E21" t="s">
-        <v>505</v>
-      </c>
-      <c r="F21" t="s">
-        <v>600</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="A22" t="s">
+        <v>480</v>
+      </c>
+      <c r="B22" t="s">
+        <v>485</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D22" t="s">
+        <v>501</v>
+      </c>
+      <c r="E22" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>307</v>
+        <v>481</v>
       </c>
       <c r="B23" t="s">
-        <v>539</v>
+        <v>486</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="D23" t="s">
+        <v>501</v>
+      </c>
+      <c r="E23" t="s">
+        <v>489</v>
+      </c>
+      <c r="F23" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>320</v>
-      </c>
-      <c r="B24" t="s">
-        <v>538</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="D24" t="s">
-        <v>532</v>
-      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="B25" t="s">
-        <v>537</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="D25" t="s">
-        <v>533</v>
-      </c>
-      <c r="E25" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="B26" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="D26" t="s">
-        <v>535</v>
+        <v>516</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
-        <v>324</v>
+      <c r="A27" t="s">
+        <v>307</v>
+      </c>
+      <c r="B27" t="s">
+        <v>521</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D27" t="s">
+        <v>517</v>
+      </c>
+      <c r="E27" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B28" t="s">
+        <v>520</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D28" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="D28" t="s">
-        <v>560</v>
-      </c>
-      <c r="F28" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>309</v>
-      </c>
-      <c r="B29" t="s">
-        <v>312</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="D29" t="s">
-        <v>560</v>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="B30" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="D30" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="F30" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="B31" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="D31" t="s">
-        <v>540</v>
-      </c>
-      <c r="E31" t="s">
-        <v>541</v>
-      </c>
-      <c r="F31" t="s">
-        <v>318</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>476</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s">
-        <v>550</v>
+        <v>299</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="D32" t="s">
-        <v>506</v>
-      </c>
-      <c r="E32" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F32" t="s">
-        <v>552</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B33" t="s">
-        <v>308</v>
+        <v>303</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D33" t="s">
+        <v>524</v>
+      </c>
+      <c r="E33" t="s">
+        <v>525</v>
       </c>
       <c r="F33" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>293</v>
+        <v>460</v>
       </c>
       <c r="B34" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>528</v>
+        <v>491</v>
       </c>
       <c r="D34" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="E34" t="s">
-        <v>543</v>
+        <v>535</v>
+      </c>
+      <c r="F34" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>294</v>
+        <v>662</v>
       </c>
       <c r="B35" t="s">
-        <v>295</v>
+        <v>663</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="D35" t="s">
-        <v>514</v>
-      </c>
-      <c r="E35" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B36" t="s">
-        <v>297</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="D36" t="s">
-        <v>514</v>
-      </c>
-      <c r="E36" t="s">
-        <v>544</v>
+        <v>294</v>
+      </c>
+      <c r="F36" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="B37" t="s">
-        <v>301</v>
+        <v>499</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>512</v>
       </c>
       <c r="D37" t="s">
-        <v>548</v>
+        <v>498</v>
+      </c>
+      <c r="E37" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="B38" t="s">
-        <v>545</v>
+        <v>283</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>481</v>
+        <v>512</v>
       </c>
       <c r="D38" t="s">
-        <v>548</v>
+        <v>498</v>
       </c>
       <c r="E38" t="s">
-        <v>549</v>
+        <v>526</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="B39" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="C39" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D39" t="s">
+        <v>498</v>
+      </c>
+      <c r="E39" t="s">
         <v>528</v>
       </c>
-      <c r="D39" t="s">
-        <v>546</v>
-      </c>
-      <c r="E39" t="s">
-        <v>547</v>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>288</v>
+      </c>
+      <c r="B40" t="s">
+        <v>529</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D40" t="s">
+        <v>532</v>
+      </c>
+      <c r="E40" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>289</v>
+      </c>
+      <c r="B41" t="s">
+        <v>290</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="D41" t="s">
+        <v>530</v>
+      </c>
+      <c r="E41" t="s">
+        <v>531</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" xr:uid="{7985D248-2698-4CE0-953D-017CA1DF6B55}"/>
-    <hyperlink ref="C13" r:id="rId2" xr:uid="{9D3E3691-4218-46E8-87AB-03C0AE519544}"/>
-    <hyperlink ref="C14" r:id="rId3" xr:uid="{DB312B00-E2A6-49E6-8D3C-C346BB5DFA80}"/>
-    <hyperlink ref="C15" r:id="rId4" xr:uid="{45169648-44D3-4254-97EB-3F4A1849926D}"/>
-    <hyperlink ref="C16" r:id="rId5" xr:uid="{EDDE63E7-0AE2-43D6-840D-B750F4F5BE44}"/>
-    <hyperlink ref="C17" r:id="rId6" xr:uid="{AC441A03-5C3B-4063-85F4-A02BE1A36AFA}"/>
-    <hyperlink ref="C18" r:id="rId7" xr:uid="{94AD87E8-F19C-4807-8EEF-F600A05E0D59}"/>
-    <hyperlink ref="C19" r:id="rId8" xr:uid="{3A56A037-4288-4BE8-9B37-B39F56AB2660}"/>
-    <hyperlink ref="C20" r:id="rId9" xr:uid="{D76C86A9-2E12-4F62-8598-52F5CF201FC4}"/>
-    <hyperlink ref="C21" r:id="rId10" display="MISUMI" xr:uid="{A365E804-6677-425E-BCEB-0D13AA5DAA2F}"/>
+    <hyperlink ref="C14" r:id="rId1" xr:uid="{7985D248-2698-4CE0-953D-017CA1DF6B55}"/>
+    <hyperlink ref="C15" r:id="rId2" xr:uid="{9D3E3691-4218-46E8-87AB-03C0AE519544}"/>
+    <hyperlink ref="C16" r:id="rId3" xr:uid="{DB312B00-E2A6-49E6-8D3C-C346BB5DFA80}"/>
+    <hyperlink ref="C17" r:id="rId4" xr:uid="{45169648-44D3-4254-97EB-3F4A1849926D}"/>
+    <hyperlink ref="C18" r:id="rId5" xr:uid="{EDDE63E7-0AE2-43D6-840D-B750F4F5BE44}"/>
+    <hyperlink ref="C19" r:id="rId6" xr:uid="{AC441A03-5C3B-4063-85F4-A02BE1A36AFA}"/>
+    <hyperlink ref="C20" r:id="rId7" xr:uid="{94AD87E8-F19C-4807-8EEF-F600A05E0D59}"/>
+    <hyperlink ref="C21" r:id="rId8" xr:uid="{3A56A037-4288-4BE8-9B37-B39F56AB2660}"/>
+    <hyperlink ref="C22" r:id="rId9" xr:uid="{D76C86A9-2E12-4F62-8598-52F5CF201FC4}"/>
+    <hyperlink ref="C23" r:id="rId10" display="MISUMI" xr:uid="{A365E804-6677-425E-BCEB-0D13AA5DAA2F}"/>
     <hyperlink ref="C7" r:id="rId11" xr:uid="{29008C5B-4869-4AE4-BB3F-D1CCB96C73C7}"/>
     <hyperlink ref="C6" r:id="rId12" xr:uid="{5759A6CA-5FA0-4FFC-8AA6-BF5DBC91E0B4}"/>
     <hyperlink ref="C2" r:id="rId13" xr:uid="{DF69915F-44B4-4132-BA92-C0F98C17F23D}"/>
     <hyperlink ref="C3" r:id="rId14" xr:uid="{31AC947B-A1F6-4545-9622-C2ED25C2C20F}"/>
     <hyperlink ref="C4" r:id="rId15" xr:uid="{40D02E9D-BA00-4439-9B1F-8607D69B666C}"/>
     <hyperlink ref="C5" r:id="rId16" xr:uid="{51E3785A-577F-4F8D-AE9D-32FB44444C14}"/>
-    <hyperlink ref="C25" r:id="rId17" xr:uid="{CFB7316E-DF90-4094-92D3-D30DF906966D}"/>
-    <hyperlink ref="C26" r:id="rId18" xr:uid="{8A795FB9-BFE7-42F8-9106-82D4EFACD311}"/>
-    <hyperlink ref="C24" r:id="rId19" xr:uid="{7D55B654-DACB-4169-99AD-D418895D95CC}"/>
-    <hyperlink ref="C30" r:id="rId20" xr:uid="{181A5BA6-A9EC-4451-A145-87E15B3F8AA2}"/>
-    <hyperlink ref="C28" r:id="rId21" xr:uid="{6028D50A-83AA-4E0F-A6DF-FB6CFBA0B74F}"/>
-    <hyperlink ref="C29" r:id="rId22" xr:uid="{3353FF92-25E9-4FCA-8D76-F6D91949B600}"/>
-    <hyperlink ref="C31" r:id="rId23" xr:uid="{99D76979-3473-47D7-9FF5-32DDB351AEE2}"/>
-    <hyperlink ref="C35" r:id="rId24" xr:uid="{714DC61F-EF8E-4C00-B13A-8408249D6EBE}"/>
-    <hyperlink ref="C34" r:id="rId25" xr:uid="{F702D288-7B8C-4AA5-A480-E7EACE27A0C2}"/>
-    <hyperlink ref="C36" r:id="rId26" xr:uid="{94325D96-442F-4F6B-A64E-C298BE4FDFAE}"/>
-    <hyperlink ref="C39" r:id="rId27" xr:uid="{0A3FCA0F-E9E6-4192-BFC7-7F7D22169DF5}"/>
-    <hyperlink ref="C38" r:id="rId28" xr:uid="{6193D052-518E-4B75-B0DE-407E21909619}"/>
-    <hyperlink ref="C32" r:id="rId29" xr:uid="{D38E43C2-F03C-47D7-95DD-38A601A9303D}"/>
+    <hyperlink ref="C27" r:id="rId17" xr:uid="{CFB7316E-DF90-4094-92D3-D30DF906966D}"/>
+    <hyperlink ref="C28" r:id="rId18" xr:uid="{8A795FB9-BFE7-42F8-9106-82D4EFACD311}"/>
+    <hyperlink ref="C26" r:id="rId19" xr:uid="{7D55B654-DACB-4169-99AD-D418895D95CC}"/>
+    <hyperlink ref="C32" r:id="rId20" xr:uid="{181A5BA6-A9EC-4451-A145-87E15B3F8AA2}"/>
+    <hyperlink ref="C30" r:id="rId21" xr:uid="{6028D50A-83AA-4E0F-A6DF-FB6CFBA0B74F}"/>
+    <hyperlink ref="C31" r:id="rId22" xr:uid="{3353FF92-25E9-4FCA-8D76-F6D91949B600}"/>
+    <hyperlink ref="C33" r:id="rId23" xr:uid="{99D76979-3473-47D7-9FF5-32DDB351AEE2}"/>
+    <hyperlink ref="C38" r:id="rId24" xr:uid="{714DC61F-EF8E-4C00-B13A-8408249D6EBE}"/>
+    <hyperlink ref="C37" r:id="rId25" xr:uid="{F702D288-7B8C-4AA5-A480-E7EACE27A0C2}"/>
+    <hyperlink ref="C39" r:id="rId26" xr:uid="{94325D96-442F-4F6B-A64E-C298BE4FDFAE}"/>
+    <hyperlink ref="C41" r:id="rId27" xr:uid="{0A3FCA0F-E9E6-4192-BFC7-7F7D22169DF5}"/>
+    <hyperlink ref="C40" r:id="rId28" xr:uid="{6193D052-518E-4B75-B0DE-407E21909619}"/>
+    <hyperlink ref="C34" r:id="rId29" xr:uid="{D38E43C2-F03C-47D7-95DD-38A601A9303D}"/>
     <hyperlink ref="C8" r:id="rId30" xr:uid="{2D116DCD-594D-4E2E-8554-A97D8BDD5BF7}"/>
+    <hyperlink ref="C9" r:id="rId31" xr:uid="{E6B3F304-81B5-4915-931D-E468BC4FFA67}"/>
+    <hyperlink ref="C13" r:id="rId32" xr:uid="{64E1CD54-6E7E-4224-821D-D9507F05DA83}"/>
+    <hyperlink ref="C35" r:id="rId33" xr:uid="{24AD492A-2238-4AA0-8782-8AD407BBE200}"/>
+    <hyperlink ref="C10" r:id="rId34" xr:uid="{3A6C787A-84A0-480C-BD0A-7EF41527CDD0}"/>
+    <hyperlink ref="C11" r:id="rId35" xr:uid="{694951C2-2E18-4459-BAC8-302200F7F754}"/>
+    <hyperlink ref="C12" r:id="rId36" xr:uid="{6873B827-98E9-4869-834B-2198504DA68C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId31"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
   <tableParts count="1">
-    <tablePart r:id="rId32"/>
+    <tablePart r:id="rId38"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6711,7 +7292,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6725,131 +7306,131 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C1" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="D1" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="E1" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="F1" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="B2" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="B3" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="B4" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="B5" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="F5" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="F6" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="B7" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="F7" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="B8" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
       <c r="E8" s="7"/>
     </row>

--- a/Docs/Printer Part Codes.xlsx
+++ b/Docs/Printer Part Codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jon\Documents\3D Print\Clockmaker\clock-3\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF56DB5-7784-4570-87AE-FC43E4D734AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609536D8-715D-473C-A457-D6E8C172E6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="2040" windowWidth="23250" windowHeight="12480" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
+    <workbookView xWindow="3735" yWindow="1560" windowWidth="23250" windowHeight="12480" firstSheet="1" activeTab="4" xr2:uid="{7E6554FF-2F4B-4318-87E0-43D225F4F170}"/>
   </bookViews>
   <sheets>
     <sheet name="000 - Printed Parts" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="700 - Framing" sheetId="5" r:id="rId4"/>
     <sheet name="800 - Misc" sheetId="4" r:id="rId5"/>
     <sheet name="900 - Electrical" sheetId="7" r:id="rId6"/>
-    <sheet name="1000 - Hotend" sheetId="3" r:id="rId7"/>
+    <sheet name="1000 - Gantry" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="724">
   <si>
     <t>Component</t>
   </si>
@@ -460,15 +460,6 @@
     <t>Grille</t>
   </si>
   <si>
-    <t>92mm Fan Mount</t>
-  </si>
-  <si>
-    <t>109 - Exterior - Skirt - 92mm Fan Mount.stl</t>
-  </si>
-  <si>
-    <t>IEC (power) plug</t>
-  </si>
-  <si>
     <t>Power switch</t>
   </si>
   <si>
@@ -535,12 +526,6 @@
     <t>112 - Exterior - Skirt - Display Mount.stl</t>
   </si>
   <si>
-    <t>111 - Exterior - Skirt - 92mm Fan Grille.stl</t>
-  </si>
-  <si>
-    <t>92mm Fan Grille</t>
-  </si>
-  <si>
     <t>Needs redesign</t>
   </si>
   <si>
@@ -772,9 +757,6 @@
     <t>Dowel Pin, 5mm OD, 25mm</t>
   </si>
   <si>
-    <t>PN620</t>
-  </si>
-  <si>
     <t>Pulley, 2GT-2, 30T, 8mm Bore</t>
   </si>
   <si>
@@ -943,9 +925,6 @@
     <t>Panel Mount Extension, HDMI</t>
   </si>
   <si>
-    <t>USB A terminated</t>
-  </si>
-  <si>
     <t>HDMI terminated on RPi 3B+, mini-HDMI on RPi4</t>
   </si>
   <si>
@@ -970,15 +949,6 @@
     <t>PN953</t>
   </si>
   <si>
-    <t>PN992</t>
-  </si>
-  <si>
-    <t>To be removed; use PN952</t>
-  </si>
-  <si>
-    <t>Fan, Axial, 92mm x 25mm</t>
-  </si>
-  <si>
     <t>PN700</t>
   </si>
   <si>
@@ -1351,12 +1321,6 @@
     <t>Or compatible clone</t>
   </si>
   <si>
-    <t>PN1000</t>
-  </si>
-  <si>
-    <t>PN1001</t>
-  </si>
-  <si>
     <t>Bondtech BMG Extruder</t>
   </si>
   <si>
@@ -1372,18 +1336,12 @@
     <t>PN1200</t>
   </si>
   <si>
-    <t>PN1002</t>
-  </si>
-  <si>
     <t>BLTouch V3.1</t>
   </si>
   <si>
     <t>PN1300</t>
   </si>
   <si>
-    <t>OpenBuilds clone</t>
-  </si>
-  <si>
     <t>Creality clone</t>
   </si>
   <si>
@@ -1423,9 +1381,15 @@
     <t>Z axis crossbar (X axis)</t>
   </si>
   <si>
+    <t>PN930</t>
+  </si>
+  <si>
     <t>PN964</t>
   </si>
   <si>
+    <t>PN931</t>
+  </si>
+  <si>
     <t>PN921</t>
   </si>
   <si>
@@ -1435,18 +1399,12 @@
     <t>JST SM Pin, Female Socket</t>
   </si>
   <si>
-    <t>Reference Supplier Link</t>
-  </si>
-  <si>
     <t>Digikey</t>
   </si>
   <si>
     <t>PN922</t>
   </si>
   <si>
-    <t>JST SM Connector, Male, 2 Pin</t>
-  </si>
-  <si>
     <t>SMR-02V-B</t>
   </si>
   <si>
@@ -1459,15 +1417,6 @@
     <t>PN925</t>
   </si>
   <si>
-    <t>JST SM Connector, Male, 3 Pin</t>
-  </si>
-  <si>
-    <t>JST SM Connector, Male, 4 Pin</t>
-  </si>
-  <si>
-    <t>JST SM Connector, Male, 5 Pin</t>
-  </si>
-  <si>
     <t>SMR-03V-B</t>
   </si>
   <si>
@@ -1492,18 +1441,6 @@
     <t>SMP-02V-BC</t>
   </si>
   <si>
-    <t>JST SM Connector, Female, 2 Pin</t>
-  </si>
-  <si>
-    <t>JST SM Connector, Female, 3 Pin</t>
-  </si>
-  <si>
-    <t>JST SM Connector, Female, 4 Pin</t>
-  </si>
-  <si>
-    <t>JST SM Connector, Female, 5 Pin</t>
-  </si>
-  <si>
     <t>SMP-04V-BC</t>
   </si>
   <si>
@@ -1555,6 +1492,9 @@
     <t>SYF-001T-P0.6(LF)(SN)</t>
   </si>
   <si>
+    <t>FYSETC</t>
+  </si>
+  <si>
     <t>Meanwell</t>
   </si>
   <si>
@@ -1681,10 +1621,7 @@
     <t>Ref. Mfgr. PN</t>
   </si>
   <si>
-    <t>F688ZZ</t>
-  </si>
-  <si>
-    <t>F695-2RS</t>
+    <t>uxcell</t>
   </si>
   <si>
     <t>6MHL20B5T</t>
@@ -2026,18 +1963,12 @@
     <t>Heatshrink tubing</t>
   </si>
   <si>
-    <t>2-4mm</t>
-  </si>
-  <si>
     <t>PN965</t>
   </si>
   <si>
     <t>HDMI Mini to HDMI Adapter</t>
   </si>
   <si>
-    <t>For extending the bed wire</t>
-  </si>
-  <si>
     <t>PN919</t>
   </si>
   <si>
@@ -2057,6 +1988,231 @@
   </si>
   <si>
     <t>103 - Exterior - Skirt - 80mm Fan Grille.stl</t>
+  </si>
+  <si>
+    <t>2.5-4mm</t>
+  </si>
+  <si>
+    <t>Red and black</t>
+  </si>
+  <si>
+    <t>Preferably six colors</t>
+  </si>
+  <si>
+    <t>Some variation between mfgrs in dimensions</t>
+  </si>
+  <si>
+    <t>USB B terminated</t>
+  </si>
+  <si>
+    <t>Not needed with RPi 3B+</t>
+  </si>
+  <si>
+    <t>Coolerguys</t>
+  </si>
+  <si>
+    <t>CG4020L12S</t>
+  </si>
+  <si>
+    <t>CSHBTS-SUS-M5-45</t>
+  </si>
+  <si>
+    <t>Amazon Link</t>
+  </si>
+  <si>
+    <t>Sunco</t>
+  </si>
+  <si>
+    <t>CSHZ-SUS-M3-45</t>
+  </si>
+  <si>
+    <t>PN573</t>
+  </si>
+  <si>
+    <t>Tee Nut, 6mm Slot, M3, Drop In</t>
+  </si>
+  <si>
+    <t>PN574</t>
+  </si>
+  <si>
+    <t>Tee Nut, 6mm Slot, M5, Drop In</t>
+  </si>
+  <si>
+    <t>Long M3 screws can usually be found in multi-size packs on Amazon (25-45mm)</t>
+  </si>
+  <si>
+    <t>PN612</t>
+  </si>
+  <si>
+    <t>Transmission</t>
+  </si>
+  <si>
+    <t>Framing</t>
+  </si>
+  <si>
+    <t>PN751</t>
+  </si>
+  <si>
+    <t>PN752</t>
+  </si>
+  <si>
+    <t>2020 Door Extrusion, 564mm</t>
+  </si>
+  <si>
+    <t>2020 Door Extrusion, 646mm</t>
+  </si>
+  <si>
+    <t>Vertical door frame</t>
+  </si>
+  <si>
+    <t>Horizontal door frame</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Fastener</t>
+  </si>
+  <si>
+    <t>PN971</t>
+  </si>
+  <si>
+    <t>PN972</t>
+  </si>
+  <si>
+    <t>PN815</t>
+  </si>
+  <si>
+    <t>HFTF5-2020-564-TPW</t>
+  </si>
+  <si>
+    <t>HFTF5-2020-646-TPW</t>
+  </si>
+  <si>
+    <t>PN045</t>
+  </si>
+  <si>
+    <t>PN051</t>
+  </si>
+  <si>
+    <t>PN061</t>
+  </si>
+  <si>
+    <t>PN035</t>
+  </si>
+  <si>
+    <t>PN034</t>
+  </si>
+  <si>
+    <t>PN033</t>
+  </si>
+  <si>
+    <t>PN032</t>
+  </si>
+  <si>
+    <t>PN031</t>
+  </si>
+  <si>
+    <t>PN030</t>
+  </si>
+  <si>
+    <t>Belt, 2GT-2, 6mm, Fiberglass Core</t>
+  </si>
+  <si>
+    <t>HDMI, USB, Ethernet plugs</t>
+  </si>
+  <si>
+    <t>A stepper plug</t>
+  </si>
+  <si>
+    <t>IEC (power), B stepper plugs</t>
+  </si>
+  <si>
+    <t>US-5M Open Belt</t>
+  </si>
+  <si>
+    <t>‎A18111400ux0060</t>
+  </si>
+  <si>
+    <t>A/B steppers</t>
+  </si>
+  <si>
+    <t>Z steppers</t>
+  </si>
+  <si>
+    <t>PN602</t>
+  </si>
+  <si>
+    <t>Bearing, Thrust, F8-16M</t>
+  </si>
+  <si>
+    <t>a18121800ux0506</t>
+  </si>
+  <si>
+    <t>a19091100ux0628</t>
+  </si>
+  <si>
+    <t>a19112500ux0072</t>
+  </si>
+  <si>
+    <t>May switch to a printed handle</t>
+  </si>
+  <si>
+    <t>JST-SM Terminated, if available</t>
+  </si>
+  <si>
+    <t>JRXKCX40W24V</t>
+  </si>
+  <si>
+    <t>NTC100KKCX</t>
+  </si>
+  <si>
+    <t>PN932</t>
+  </si>
+  <si>
+    <t>JST SM Connector, 2.54mm, Male, 2 Pin</t>
+  </si>
+  <si>
+    <t>JST SM Connector, 2.54mm, Male, 3 Pin</t>
+  </si>
+  <si>
+    <t>JST SM Connector, 2.54mm, Male, 4 Pin</t>
+  </si>
+  <si>
+    <t>JST SM Connector, 2.54mm, Male, 5 Pin</t>
+  </si>
+  <si>
+    <t>JST SM Connector, 2.54mm, Female, 2 Pin</t>
+  </si>
+  <si>
+    <t>JST SM Connector, 2.54mm, Female, 3 Pin</t>
+  </si>
+  <si>
+    <t>JST SM Connector, 2.54mm, Female, 4 Pin</t>
+  </si>
+  <si>
+    <t>JST SM Connector, 2.54mm, Female, 5 Pin</t>
+  </si>
+  <si>
+    <t>JST XH Connector, 2.54mm, Female, 2 Pin</t>
+  </si>
+  <si>
+    <t>JST XH Connector, 2.54mm, Female, 3 Pin</t>
+  </si>
+  <si>
+    <t>JST XH Connector, 2.54mm, Female, 4 Pin</t>
+  </si>
+  <si>
+    <t>‎EST-100M-B</t>
+  </si>
+  <si>
+    <t>Superun</t>
+  </si>
+  <si>
+    <t>‎EST-150M-B</t>
+  </si>
+  <si>
+    <t>Or clone</t>
   </si>
 </sst>
 </file>
@@ -2121,7 +2277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2134,6 +2290,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2185,10 +2342,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I85" totalsRowShown="0">
-  <autoFilter ref="A1:I85" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I85">
-    <sortCondition ref="A1:A85"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5F341AE2-224B-4051-B04D-BA10CC5651EC}" name="Table1" displayName="Table1" ref="A1:I83" totalsRowShown="0">
+  <autoFilter ref="A1:I83" xr:uid="{7A633D33-D295-46C3-AB03-03E2AB6E078E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I83">
+    <sortCondition ref="A1:A83"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{A8EA61BD-839A-4759-B873-CEDA7BEA684B}" name="Number"/>
@@ -2206,10 +2363,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8089694C-6482-47D7-8E98-C409897AE123}" name="Table13" displayName="Table13" ref="A1:G31" totalsRowShown="0">
-  <autoFilter ref="A1:G31" xr:uid="{D1A3C8AC-EDAD-4865-884E-6154074F4784}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8089694C-6482-47D7-8E98-C409897AE123}" name="Table13" displayName="Table13" ref="A1:H33" totalsRowShown="0">
+  <autoFilter ref="A1:H33" xr:uid="{D1A3C8AC-EDAD-4865-884E-6154074F4784}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{BDDDE73C-3ECC-40F1-A465-07687B41711A}" name="ID"/>
+    <tableColumn id="9" xr3:uid="{8FDFD66D-AF6C-45C3-903A-47EDB23696C9}" name="Type"/>
     <tableColumn id="2" xr3:uid="{44B65DAB-6E70-4886-8A57-11EE25DF9B03}" name="Description String"/>
     <tableColumn id="3" xr3:uid="{9A61B22B-07B7-4C49-AD6C-423CB21126D8}" name="Metric Size"/>
     <tableColumn id="4" xr3:uid="{CE73034B-0127-42E5-B9E1-E9B4EB91E0CC}" name="Ref Supplier"/>
@@ -2222,24 +2380,27 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{30DB7FE6-6DE6-4419-8051-42F2B9BB18F2}" name="Table2" displayName="Table2" ref="A1:E12" totalsRowShown="0">
-  <autoFilter ref="A1:E12" xr:uid="{6ED8DD30-933D-405C-828B-C09D05641C68}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{30DB7FE6-6DE6-4419-8051-42F2B9BB18F2}" name="Table2" displayName="Table2" ref="A1:G14" totalsRowShown="0">
+  <autoFilter ref="A1:G14" xr:uid="{6ED8DD30-933D-405C-828B-C09D05641C68}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F3B89618-5C6E-4C8A-9B32-75D07E4090AF}" name="ID"/>
+    <tableColumn id="7" xr3:uid="{28FB0E6E-3DCD-4F91-9092-D8D325AB42AD}" name="Type"/>
     <tableColumn id="2" xr3:uid="{2736E36F-0247-4B7C-B56B-635598DB4C03}" name="Description String"/>
     <tableColumn id="4" xr3:uid="{D7BB4F47-905F-4552-9FA2-6A11435699D5}" name="Ref Supplier"/>
     <tableColumn id="5" xr3:uid="{C5B4E700-6A0C-40E7-B910-9B32D7847360}" name="Ref. Mfgr."/>
     <tableColumn id="6" xr3:uid="{A894CD33-9EE0-45F2-B344-F76A17AFF6F4}" name="Ref. Mfgr. PN"/>
+    <tableColumn id="8" xr3:uid="{3EF76073-9F1F-40BA-8F18-FB828E4962F1}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8570C666-3312-43F5-A12D-CA6F588D6A21}" name="Table6" displayName="Table6" ref="A1:F31" totalsRowShown="0">
-  <autoFilter ref="A1:F31" xr:uid="{8570C666-3312-43F5-A12D-CA6F588D6A21}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{8570C666-3312-43F5-A12D-CA6F588D6A21}" name="Table6" displayName="Table6" ref="A1:G33" totalsRowShown="0">
+  <autoFilter ref="A1:G33" xr:uid="{8570C666-3312-43F5-A12D-CA6F588D6A21}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{DDE460B5-9815-4608-8551-C7DA640FABAE}" name="ID"/>
+    <tableColumn id="7" xr3:uid="{621E0462-3CA6-4117-9465-E1255DF4C0CC}" name="Type"/>
     <tableColumn id="2" xr3:uid="{00ECFD0D-B7D6-4B45-834E-6EA63127D17A}" name="Description String"/>
     <tableColumn id="5" xr3:uid="{B8967CAB-4C4C-4240-95A4-18DDF9B51795}" name="Ref. Supplier"/>
     <tableColumn id="6" xr3:uid="{B006825A-1B14-4AA4-9745-636D80EEE743}" name="Ref. Mfgr."/>
@@ -2251,10 +2412,11 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{38E36A69-6DC9-48C9-A844-2C9B61CC67B5}" name="Table4" displayName="Table4" ref="A1:F15" totalsRowShown="0">
-  <autoFilter ref="A1:F15" xr:uid="{25A20098-4797-4CED-8859-6F0B389C74C7}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{38E36A69-6DC9-48C9-A844-2C9B61CC67B5}" name="Table4" displayName="Table4" ref="A1:G15" totalsRowShown="0">
+  <autoFilter ref="A1:G15" xr:uid="{25A20098-4797-4CED-8859-6F0B389C74C7}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4A8FA1ED-C774-4AAD-B05A-174EEF2A2E73}" name="ID"/>
+    <tableColumn id="7" xr3:uid="{3E39557D-9C3C-44AB-93C6-569543574005}" name="Type"/>
     <tableColumn id="2" xr3:uid="{008547DD-D3A3-47C0-AA5C-98C260ED5CC8}" name="Part Description"/>
     <tableColumn id="4" xr3:uid="{7BE69A7F-33F5-4669-A20F-C52D6EDC0ADD}" name="Ref. Supplier"/>
     <tableColumn id="6" xr3:uid="{3701F368-CF06-4CA9-824E-94C2FA4E8BBF}" name="Ref. Mfgr."/>
@@ -2266,12 +2428,13 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E77F429E-7503-4CB6-829A-92647E35DDBE}" name="Table3" displayName="Table3" ref="A1:F41" totalsRowShown="0">
-  <autoFilter ref="A1:F41" xr:uid="{8BABF5E9-F118-4BB6-8CB6-73E52CF1CA9F}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E77F429E-7503-4CB6-829A-92647E35DDBE}" name="Table3" displayName="Table3" ref="A1:G44" totalsRowShown="0">
+  <autoFilter ref="A1:G44" xr:uid="{8BABF5E9-F118-4BB6-8CB6-73E52CF1CA9F}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{2640334D-8D49-433A-AC38-5E3A83CD6E82}" name="ID"/>
+    <tableColumn id="7" xr3:uid="{36A50942-E2F1-4FD3-8919-3FDCB462FBF4}" name="Type"/>
     <tableColumn id="2" xr3:uid="{6F287AD0-06D3-42F8-928A-6934737A719D}" name="Part Description"/>
-    <tableColumn id="4" xr3:uid="{D0FA9E4B-93C4-40DC-A000-6A5DEDFE3EB6}" name="Reference Supplier Link"/>
+    <tableColumn id="4" xr3:uid="{D0FA9E4B-93C4-40DC-A000-6A5DEDFE3EB6}" name="Ref Supplier"/>
     <tableColumn id="5" xr3:uid="{0616B489-8C61-4325-83CC-5086601A046F}" name="Ref Mfgr."/>
     <tableColumn id="6" xr3:uid="{EE752F26-5451-4F63-9491-B7A1442D27F9}" name="Ref Mgr PN"/>
     <tableColumn id="3" xr3:uid="{69D95E68-9514-46EF-8275-3564DE1F3A94}" name="Note"/>
@@ -2281,10 +2444,11 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{732EFD3F-783F-4A9E-966D-47D3AC76FFEA}" name="Table7" displayName="Table7" ref="A1:F8" totalsRowShown="0">
-  <autoFilter ref="A1:F8" xr:uid="{732EFD3F-783F-4A9E-966D-47D3AC76FFEA}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{732EFD3F-783F-4A9E-966D-47D3AC76FFEA}" name="Table7" displayName="Table7" ref="A1:G5" totalsRowShown="0">
+  <autoFilter ref="A1:G5" xr:uid="{732EFD3F-783F-4A9E-966D-47D3AC76FFEA}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{D27A1FD2-D68A-49A9-8486-A5E0A7C8139D}" name="ID"/>
+    <tableColumn id="7" xr3:uid="{0BBB518C-89EF-4E3B-8A6E-340971E0952E}" name="Type"/>
     <tableColumn id="2" xr3:uid="{532CA9D2-6154-4580-96FD-1F398A1AAB41}" name="Description String"/>
     <tableColumn id="4" xr3:uid="{254E71EF-50AE-4115-A712-B0880E4C4BEB}" name="Ref. Supplier"/>
     <tableColumn id="5" xr3:uid="{0F8AAA45-1680-42E6-A715-760EA775009F}" name="Ref. Mfgr." dataDxfId="2"/>
@@ -2592,10 +2756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC8DB31-6D45-4FED-94B6-5390BD4B0F2C}">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2642,7 +2806,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -2668,7 +2832,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -2694,7 +2858,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -2720,7 +2884,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -2746,7 +2910,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -2772,7 +2936,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
@@ -2798,7 +2962,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -2824,7 +2988,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
@@ -2850,7 +3014,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -2876,7 +3040,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -2902,7 +3066,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -2928,7 +3092,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
@@ -2954,7 +3118,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -2980,7 +3144,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
@@ -3006,7 +3170,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -3018,7 +3182,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F16" t="s">
         <v>35</v>
@@ -3027,15 +3191,15 @@
         <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
@@ -3061,7 +3225,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -3087,7 +3251,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B19" t="s">
         <v>4</v>
@@ -3116,7 +3280,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -3142,7 +3306,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -3168,7 +3332,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -3194,7 +3358,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -3220,7 +3384,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -3246,7 +3410,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -3272,7 +3436,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -3298,7 +3462,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -3324,7 +3488,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -3350,7 +3514,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -3376,7 +3540,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -3402,8 +3566,8 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
+      <c r="A31" t="s">
+        <v>690</v>
       </c>
       <c r="B31" t="s">
         <v>23</v>
@@ -3425,12 +3589,12 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
+      <c r="A32" t="s">
+        <v>689</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
@@ -3452,12 +3616,12 @@
       </c>
       <c r="H32" s="1"/>
       <c r="I32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
+      <c r="A33" t="s">
+        <v>688</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
@@ -3479,12 +3643,12 @@
       </c>
       <c r="H33" s="1"/>
       <c r="I33" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
+      <c r="A34" t="s">
+        <v>687</v>
       </c>
       <c r="B34" t="s">
         <v>23</v>
@@ -3506,12 +3670,12 @@
       </c>
       <c r="H34" s="1"/>
       <c r="I34" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
+      <c r="A35" t="s">
+        <v>686</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
@@ -3523,7 +3687,7 @@
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="F35" t="s">
         <v>53</v>
@@ -3532,15 +3696,15 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I35" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
+      <c r="A36" t="s">
+        <v>685</v>
       </c>
       <c r="B36" t="s">
         <v>23</v>
@@ -3552,7 +3716,7 @@
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="F36" t="s">
         <v>53</v>
@@ -3561,7 +3725,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I36" t="s">
         <v>91</v>
@@ -3569,7 +3733,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B37" t="s">
         <v>23</v>
@@ -3581,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F37" t="s">
         <v>53</v>
@@ -3590,15 +3754,15 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I37" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B38" t="s">
         <v>23</v>
@@ -3619,15 +3783,15 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I38" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B39" t="s">
         <v>23</v>
@@ -3648,15 +3812,15 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I39" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="B40" t="s">
         <v>23</v>
@@ -3677,15 +3841,15 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I40" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
@@ -3706,15 +3870,15 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I41" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>45</v>
+      <c r="A42" t="s">
+        <v>682</v>
       </c>
       <c r="B42" t="s">
         <v>23</v>
@@ -3735,15 +3899,15 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I42" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>51</v>
+      <c r="A43" t="s">
+        <v>683</v>
       </c>
       <c r="B43" t="s">
         <v>48</v>
@@ -3764,7 +3928,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I43" t="s">
         <v>94</v>
@@ -3778,13 +3942,13 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D44" t="s">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="F44" t="s">
         <v>53</v>
@@ -3793,21 +3957,21 @@
         <v>1</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
       <c r="I44" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>61</v>
+      <c r="A45" t="s">
+        <v>684</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D45" t="s">
         <v>1</v>
@@ -3823,18 +3987,18 @@
       </c>
       <c r="H45" s="1"/>
       <c r="I45" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
@@ -3849,15 +4013,15 @@
         <v>1</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="I46" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B47" t="s">
         <v>98</v>
@@ -3886,7 +4050,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B48" t="s">
         <v>98</v>
@@ -3915,7 +4079,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B49" t="s">
         <v>98</v>
@@ -3941,7 +4105,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="B50" t="s">
         <v>98</v>
@@ -3967,7 +4131,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B51" t="s">
         <v>98</v>
@@ -3988,7 +4152,7 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I51" t="s">
         <v>108</v>
@@ -3996,7 +4160,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B52" t="s">
         <v>98</v>
@@ -4017,7 +4181,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I52" t="s">
         <v>109</v>
@@ -4025,7 +4189,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B53" t="s">
         <v>98</v>
@@ -4051,7 +4215,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B54" t="s">
         <v>98</v>
@@ -4077,7 +4241,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B55" t="s">
         <v>98</v>
@@ -4103,7 +4267,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B56" t="s">
         <v>98</v>
@@ -4129,7 +4293,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="B57" t="s">
         <v>98</v>
@@ -4141,7 +4305,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="F57" t="s">
         <v>53</v>
@@ -4150,7 +4314,7 @@
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -4176,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
       <c r="I58" t="s">
         <v>121</v>
@@ -4184,7 +4348,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B59" t="s">
         <v>98</v>
@@ -4210,7 +4374,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B60" t="s">
         <v>98</v>
@@ -4236,7 +4400,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B61" t="s">
         <v>98</v>
@@ -4257,12 +4421,12 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B62" t="s">
         <v>98</v>
@@ -4274,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F62" t="s">
         <v>53</v>
@@ -4283,24 +4447,24 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B63" t="s">
         <v>98</v>
       </c>
       <c r="C63" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D63" t="s">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F63" t="s">
         <v>53</v>
@@ -4309,15 +4473,15 @@
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I63" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B64" t="s">
         <v>36</v>
@@ -4329,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="F64" t="s">
         <v>53</v>
@@ -4338,12 +4502,12 @@
         <v>58</v>
       </c>
       <c r="I64" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B65" t="s">
         <v>36</v>
@@ -4364,7 +4528,7 @@
         <v>5</v>
       </c>
       <c r="H65" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I65" t="s">
         <v>95</v>
@@ -4372,7 +4536,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B66" t="s">
         <v>36</v>
@@ -4393,7 +4557,7 @@
         <v>4</v>
       </c>
       <c r="H66" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I66" t="s">
         <v>96</v>
@@ -4401,7 +4565,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="B67" t="s">
         <v>4</v>
@@ -4427,7 +4591,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B68" t="s">
         <v>36</v>
@@ -4439,7 +4603,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="F68" t="s">
         <v>53</v>
@@ -4448,18 +4612,18 @@
         <v>2</v>
       </c>
       <c r="H68" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I68" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B69" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C69" t="s">
         <v>38</v>
@@ -4468,18 +4632,18 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="F69" t="s">
         <v>53</v>
       </c>
       <c r="I69" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B70" t="s">
         <v>36</v>
@@ -4497,7 +4661,7 @@
         <v>53</v>
       </c>
       <c r="G70">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I70" t="s">
         <v>111</v>
@@ -4505,7 +4669,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B71" t="s">
         <v>36</v>
@@ -4517,18 +4681,18 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F71" t="s">
         <v>53</v>
       </c>
       <c r="I71" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B72" t="s">
         <v>36</v>
@@ -4554,7 +4718,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B73" t="s">
         <v>4</v>
@@ -4566,7 +4730,7 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="F73" t="s">
         <v>53</v>
@@ -4575,12 +4739,12 @@
         <v>2</v>
       </c>
       <c r="I73" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>667</v>
+        <v>644</v>
       </c>
       <c r="B74" t="s">
         <v>127</v>
@@ -4592,7 +4756,7 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>668</v>
+        <v>645</v>
       </c>
       <c r="F74" t="s">
         <v>53</v>
@@ -4601,12 +4765,12 @@
         <v>3</v>
       </c>
       <c r="I74" t="s">
-        <v>670</v>
+        <v>647</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>666</v>
+        <v>643</v>
       </c>
       <c r="B75" t="s">
         <v>127</v>
@@ -4618,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>669</v>
+        <v>646</v>
       </c>
       <c r="F75" t="s">
         <v>53</v>
@@ -4627,12 +4791,12 @@
         <v>3</v>
       </c>
       <c r="I75" t="s">
-        <v>671</v>
+        <v>648</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B76" t="s">
         <v>127</v>
@@ -4652,13 +4816,16 @@
       <c r="G76">
         <v>1</v>
       </c>
+      <c r="H76" t="s">
+        <v>692</v>
+      </c>
       <c r="I76" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="B77" t="s">
         <v>127</v>
@@ -4679,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="I77" t="s">
         <v>132</v>
@@ -4687,7 +4854,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B78" t="s">
         <v>127</v>
@@ -4707,13 +4874,16 @@
       <c r="G78">
         <v>1</v>
       </c>
+      <c r="H78" t="s">
+        <v>693</v>
+      </c>
       <c r="I78" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B79" t="s">
         <v>127</v>
@@ -4734,7 +4904,7 @@
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>141</v>
+        <v>694</v>
       </c>
       <c r="I79" t="s">
         <v>136</v>
@@ -4742,7 +4912,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B80" t="s">
         <v>127</v>
@@ -4767,8 +4937,8 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>109</v>
+      <c r="A81" t="s">
+        <v>371</v>
       </c>
       <c r="B81" t="s">
         <v>127</v>
@@ -4780,21 +4950,21 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="F81" t="s">
         <v>53</v>
       </c>
       <c r="G81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B82" t="s">
         <v>127</v>
@@ -4806,7 +4976,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
         <v>53</v>
@@ -4815,12 +4985,12 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>111</v>
+      <c r="A83" t="s">
+        <v>379</v>
       </c>
       <c r="B83" t="s">
         <v>127</v>
@@ -4832,68 +5002,16 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F83" t="s">
         <v>53</v>
       </c>
       <c r="G83">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I83" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>388</v>
-      </c>
-      <c r="B84" t="s">
-        <v>127</v>
-      </c>
-      <c r="C84" t="s">
-        <v>128</v>
-      </c>
-      <c r="D84" t="s">
-        <v>1</v>
-      </c>
-      <c r="E84" t="s">
-        <v>160</v>
-      </c>
-      <c r="F84" t="s">
-        <v>53</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="I84" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>389</v>
-      </c>
-      <c r="B85" t="s">
-        <v>127</v>
-      </c>
-      <c r="C85" t="s">
-        <v>128</v>
-      </c>
-      <c r="D85" t="s">
-        <v>1</v>
-      </c>
-      <c r="E85" t="s">
-        <v>161</v>
-      </c>
-      <c r="F85" t="s">
-        <v>53</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-      <c r="I85" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4907,2545 +5025,3204 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165D9D9B-2E8A-4F3A-99A1-C30DA8072019}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B1" t="s">
-        <v>233</v>
+        <v>675</v>
       </c>
       <c r="C1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F1" t="s">
+        <v>535</v>
+      </c>
+      <c r="G1" t="s">
+        <v>520</v>
+      </c>
+      <c r="H1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="E1" t="s">
-        <v>556</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
+        <v>536</v>
+      </c>
+      <c r="G2" t="s">
         <v>540</v>
       </c>
-      <c r="G1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" t="s">
+        <v>676</v>
+      </c>
+      <c r="C3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F3" t="s">
+        <v>536</v>
+      </c>
+      <c r="G3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" t="s">
+        <v>676</v>
+      </c>
+      <c r="C4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F4" t="s">
+        <v>536</v>
+      </c>
+      <c r="G4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" t="s">
+        <v>676</v>
+      </c>
+      <c r="C5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F5" t="s">
+        <v>536</v>
+      </c>
+      <c r="G5" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" t="s">
+        <v>676</v>
+      </c>
+      <c r="C6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F6" t="s">
+        <v>536</v>
+      </c>
+      <c r="G6" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B7" t="s">
+        <v>676</v>
+      </c>
+      <c r="C7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F7" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" t="s">
+        <v>676</v>
+      </c>
+      <c r="C8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F8" t="s">
+        <v>536</v>
+      </c>
+      <c r="G8" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" t="s">
+        <v>676</v>
+      </c>
+      <c r="C9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F9" t="s">
+        <v>536</v>
+      </c>
+      <c r="G9" t="s">
+        <v>543</v>
+      </c>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" t="s">
+        <v>676</v>
+      </c>
+      <c r="C10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F10" t="s">
+        <v>536</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" t="s">
+        <v>676</v>
+      </c>
+      <c r="C11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="F11" t="s">
+        <v>659</v>
+      </c>
+      <c r="G11" t="s">
+        <v>660</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" t="s">
+        <v>676</v>
+      </c>
+      <c r="C12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F12" t="s">
+        <v>536</v>
+      </c>
+      <c r="G12" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13" t="s">
+        <v>676</v>
+      </c>
+      <c r="C13" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F13" t="s">
+        <v>536</v>
+      </c>
+      <c r="G13" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" t="s">
+        <v>676</v>
+      </c>
+      <c r="C14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F14" t="s">
+        <v>536</v>
+      </c>
+      <c r="G14" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" t="s">
+        <v>676</v>
+      </c>
+      <c r="C15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F15" t="s">
+        <v>536</v>
+      </c>
+      <c r="G15" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" t="s">
+        <v>676</v>
+      </c>
+      <c r="C16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" t="s">
+        <v>181</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="F16" t="s">
+        <v>659</v>
+      </c>
+      <c r="G16" t="s">
+        <v>657</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" t="s">
+        <v>676</v>
+      </c>
+      <c r="C17" t="s">
+        <v>547</v>
+      </c>
+      <c r="D17" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E2" t="s">
-        <v>557</v>
-      </c>
-      <c r="F2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B3" t="s">
-        <v>228</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E17" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F17" t="s">
+        <v>549</v>
+      </c>
+      <c r="G17" t="s">
+        <v>550</v>
+      </c>
+      <c r="H17" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B18" t="s">
+        <v>676</v>
+      </c>
+      <c r="C18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18" t="s">
         <v>191</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E3" t="s">
-        <v>557</v>
-      </c>
-      <c r="F3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E18" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F18" t="s">
+        <v>555</v>
+      </c>
+      <c r="H18" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" t="s">
+        <v>676</v>
+      </c>
+      <c r="C19" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" t="s">
         <v>191</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E4" t="s">
-        <v>557</v>
-      </c>
-      <c r="F4" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>225</v>
-      </c>
-      <c r="B5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E19" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F19" t="s">
+        <v>549</v>
+      </c>
+      <c r="H19" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>256</v>
+      </c>
+      <c r="B20" t="s">
+        <v>676</v>
+      </c>
+      <c r="C20" t="s">
+        <v>257</v>
+      </c>
+      <c r="D20" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F20" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>258</v>
+      </c>
+      <c r="B21" t="s">
+        <v>676</v>
+      </c>
+      <c r="C21" t="s">
+        <v>329</v>
+      </c>
+      <c r="D21" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E5" t="s">
-        <v>557</v>
-      </c>
-      <c r="F5" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" t="s">
-        <v>222</v>
-      </c>
-      <c r="C6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E6" t="s">
-        <v>557</v>
-      </c>
-      <c r="F6" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>221</v>
-      </c>
-      <c r="B7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E7" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E8" t="s">
-        <v>557</v>
-      </c>
-      <c r="F8" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>217</v>
-      </c>
-      <c r="B9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C9" t="s">
-        <v>191</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E9" t="s">
-        <v>557</v>
-      </c>
-      <c r="F9" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B10" t="s">
-        <v>214</v>
-      </c>
-      <c r="C10" t="s">
-        <v>191</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E10" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>213</v>
-      </c>
-      <c r="B11" t="s">
-        <v>212</v>
-      </c>
-      <c r="C11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>211</v>
-      </c>
-      <c r="B12" t="s">
-        <v>210</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E21" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F21" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>328</v>
+      </c>
+      <c r="B22" t="s">
+        <v>676</v>
+      </c>
+      <c r="C22" t="s">
+        <v>255</v>
+      </c>
+      <c r="D22" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F22" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>661</v>
+      </c>
+      <c r="B23" t="s">
+        <v>676</v>
+      </c>
+      <c r="C23" t="s">
+        <v>662</v>
+      </c>
+      <c r="D23" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E12" t="s">
-        <v>557</v>
-      </c>
-      <c r="F12" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>209</v>
-      </c>
-      <c r="B13" t="s">
-        <v>208</v>
-      </c>
-      <c r="C13" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E13" t="s">
-        <v>557</v>
-      </c>
-      <c r="F13" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>207</v>
-      </c>
-      <c r="B14" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E14" t="s">
-        <v>557</v>
-      </c>
-      <c r="F14" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>205</v>
-      </c>
-      <c r="B15" t="s">
-        <v>204</v>
-      </c>
-      <c r="C15" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E15" t="s">
-        <v>557</v>
-      </c>
-      <c r="F15" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>203</v>
-      </c>
-      <c r="B16" t="s">
-        <v>202</v>
-      </c>
-      <c r="C16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E16" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>201</v>
-      </c>
-      <c r="B17" t="s">
-        <v>568</v>
-      </c>
-      <c r="C17" t="s">
-        <v>196</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E17" t="s">
-        <v>570</v>
-      </c>
-      <c r="F17" t="s">
-        <v>571</v>
-      </c>
-      <c r="G17" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>200</v>
-      </c>
-      <c r="B18" t="s">
-        <v>199</v>
-      </c>
-      <c r="C18" t="s">
-        <v>196</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E18" t="s">
-        <v>576</v>
-      </c>
-      <c r="G18" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>198</v>
-      </c>
-      <c r="B19" t="s">
-        <v>197</v>
-      </c>
-      <c r="C19" t="s">
-        <v>196</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E19" t="s">
-        <v>570</v>
-      </c>
-      <c r="G19" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>262</v>
-      </c>
-      <c r="B20" t="s">
-        <v>263</v>
-      </c>
-      <c r="C20" t="s">
-        <v>191</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E20" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>264</v>
-      </c>
-      <c r="B21" t="s">
-        <v>339</v>
-      </c>
-      <c r="C21" t="s">
-        <v>196</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E21" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>338</v>
-      </c>
-      <c r="B22" t="s">
-        <v>261</v>
-      </c>
-      <c r="C22" t="s">
-        <v>186</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E22" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>195</v>
-      </c>
-      <c r="B23" t="s">
-        <v>194</v>
-      </c>
-      <c r="C23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E23" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F23" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>193</v>
+        <v>663</v>
       </c>
       <c r="B24" t="s">
-        <v>192</v>
+        <v>676</v>
       </c>
       <c r="C24" t="s">
-        <v>191</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E24" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+      <c r="D24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F24" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>190</v>
       </c>
       <c r="B25" t="s">
+        <v>676</v>
+      </c>
+      <c r="C25" t="s">
         <v>189</v>
       </c>
-      <c r="C25" t="s">
-        <v>186</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E25" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>181</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F25" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>188</v>
       </c>
       <c r="B26" t="s">
+        <v>676</v>
+      </c>
+      <c r="C26" t="s">
         <v>187</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>186</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E26" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F26" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>185</v>
       </c>
       <c r="B27" t="s">
+        <v>676</v>
+      </c>
+      <c r="C27" t="s">
         <v>184</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E27" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>181</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F27" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>183</v>
       </c>
       <c r="B28" t="s">
+        <v>676</v>
+      </c>
+      <c r="C28" t="s">
         <v>182</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E28" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>181</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F28" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>269</v>
+        <v>180</v>
       </c>
       <c r="B29" t="s">
-        <v>270</v>
+        <v>676</v>
       </c>
       <c r="C29" t="s">
-        <v>271</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F29" t="s">
+        <v>524</v>
+      </c>
+      <c r="H29" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30" t="s">
+        <v>676</v>
+      </c>
+      <c r="C30" t="s">
+        <v>177</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F30" t="s">
+        <v>549</v>
+      </c>
+      <c r="H30" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>263</v>
+      </c>
+      <c r="B31" t="s">
+        <v>676</v>
+      </c>
+      <c r="C31" t="s">
+        <v>264</v>
+      </c>
+      <c r="D31" t="s">
         <v>265</v>
       </c>
-      <c r="B30" t="s">
-        <v>267</v>
-      </c>
-      <c r="C30" t="s">
-        <v>191</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E30" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>266</v>
-      </c>
-      <c r="B31" t="s">
-        <v>268</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="E31" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F31" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>259</v>
+      </c>
+      <c r="B32" t="s">
+        <v>676</v>
+      </c>
+      <c r="C32" t="s">
+        <v>261</v>
+      </c>
+      <c r="D32" t="s">
         <v>186</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="E31" t="s">
-        <v>578</v>
+      <c r="E32" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F32" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>260</v>
+      </c>
+      <c r="B33" t="s">
+        <v>676</v>
+      </c>
+      <c r="C33" t="s">
+        <v>262</v>
+      </c>
+      <c r="D33" t="s">
+        <v>181</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F33" t="s">
+        <v>557</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{D0DD80FF-F580-4577-B31A-E016FB7B7580}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{B5468CEC-66FD-45FD-960C-F9463EC28AB8}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{A18FCCB0-178D-4192-9F37-034675F0F3B4}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{AFCC3DD1-9EF0-43F4-A1E1-0123D20C2353}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{A576801F-9493-4FFB-A5A4-249D22FD5756}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{3C872E67-38C6-442D-A1C1-820684476D7F}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{385D6F51-8FF1-439A-9F1A-388C2B395470}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{D133720F-14BA-43E1-839D-FBFC4D2CAF22}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{D65D917A-DA3B-48F2-A6C8-7FC8AAD19C0A}"/>
-    <hyperlink ref="D12" r:id="rId10" xr:uid="{52231945-F4C3-4480-926F-9004330175E8}"/>
-    <hyperlink ref="D13" r:id="rId11" xr:uid="{14E1B4F2-8D44-4EE4-9D91-ADB9C95AED99}"/>
-    <hyperlink ref="D14" r:id="rId12" xr:uid="{E52EA145-1628-4432-949D-B976E46021CB}"/>
-    <hyperlink ref="D15" r:id="rId13" xr:uid="{80808BA1-2D93-4B47-8F34-BE64FB12D1C6}"/>
-    <hyperlink ref="D16" r:id="rId14" xr:uid="{1E060253-FFA3-45F3-8EA6-43186EB37C8A}"/>
-    <hyperlink ref="D17" r:id="rId15" xr:uid="{61267F9E-73C2-4B3B-8636-B478620F8212}"/>
-    <hyperlink ref="D18" r:id="rId16" xr:uid="{FA76891E-54C0-4535-8226-F555F7564066}"/>
-    <hyperlink ref="D19" r:id="rId17" xr:uid="{738A931E-4384-45A4-9834-0ACD2D94F48A}"/>
-    <hyperlink ref="D28" r:id="rId18" xr:uid="{E8505316-54F9-46C3-A2CA-94AC2D27583D}"/>
-    <hyperlink ref="D27" r:id="rId19" xr:uid="{6728DE42-917B-4288-90FE-D15CA28AEE96}"/>
-    <hyperlink ref="D29" r:id="rId20" xr:uid="{F9D6C61B-CAE0-48B9-8FE5-B4E4A232CC58}"/>
-    <hyperlink ref="D23" r:id="rId21" xr:uid="{10B30C42-FC8E-4AE4-A17A-B74C13C20460}"/>
-    <hyperlink ref="D24" r:id="rId22" xr:uid="{E88AB393-9F2D-4308-8DF1-E133626368E0}"/>
-    <hyperlink ref="D25" r:id="rId23" xr:uid="{E5C8E4CC-F95B-472A-97DC-3B46AE5C4894}"/>
-    <hyperlink ref="D26" r:id="rId24" xr:uid="{AE39EE47-74D2-47C6-A4C1-20A941347053}"/>
-    <hyperlink ref="D20" r:id="rId25" xr:uid="{15BA94F2-F832-4B6E-9F91-283D67D891D2}"/>
-    <hyperlink ref="D21" r:id="rId26" xr:uid="{F674551C-E668-487B-9973-1142D17246DC}"/>
-    <hyperlink ref="D22" r:id="rId27" xr:uid="{F7200A17-B2D4-435C-AD77-942BEC711684}"/>
-    <hyperlink ref="D30" r:id="rId28" xr:uid="{6866099E-7F7A-4790-BE72-398E76CE2748}"/>
-    <hyperlink ref="D31" r:id="rId29" xr:uid="{A64F4A56-02C9-489C-98F9-45F5DBD60271}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{D0DD80FF-F580-4577-B31A-E016FB7B7580}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{B5468CEC-66FD-45FD-960C-F9463EC28AB8}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{A18FCCB0-178D-4192-9F37-034675F0F3B4}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{AFCC3DD1-9EF0-43F4-A1E1-0123D20C2353}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{A576801F-9493-4FFB-A5A4-249D22FD5756}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{3C872E67-38C6-442D-A1C1-820684476D7F}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{385D6F51-8FF1-439A-9F1A-388C2B395470}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{D133720F-14BA-43E1-839D-FBFC4D2CAF22}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{D65D917A-DA3B-48F2-A6C8-7FC8AAD19C0A}"/>
+    <hyperlink ref="E12" r:id="rId10" xr:uid="{52231945-F4C3-4480-926F-9004330175E8}"/>
+    <hyperlink ref="E13" r:id="rId11" xr:uid="{14E1B4F2-8D44-4EE4-9D91-ADB9C95AED99}"/>
+    <hyperlink ref="E14" r:id="rId12" xr:uid="{E52EA145-1628-4432-949D-B976E46021CB}"/>
+    <hyperlink ref="E15" r:id="rId13" xr:uid="{80808BA1-2D93-4B47-8F34-BE64FB12D1C6}"/>
+    <hyperlink ref="E17" r:id="rId14" xr:uid="{61267F9E-73C2-4B3B-8636-B478620F8212}"/>
+    <hyperlink ref="E18" r:id="rId15" xr:uid="{FA76891E-54C0-4535-8226-F555F7564066}"/>
+    <hyperlink ref="E19" r:id="rId16" xr:uid="{738A931E-4384-45A4-9834-0ACD2D94F48A}"/>
+    <hyperlink ref="E30" r:id="rId17" xr:uid="{E8505316-54F9-46C3-A2CA-94AC2D27583D}"/>
+    <hyperlink ref="E29" r:id="rId18" xr:uid="{6728DE42-917B-4288-90FE-D15CA28AEE96}"/>
+    <hyperlink ref="E31" r:id="rId19" xr:uid="{F9D6C61B-CAE0-48B9-8FE5-B4E4A232CC58}"/>
+    <hyperlink ref="E25" r:id="rId20" xr:uid="{10B30C42-FC8E-4AE4-A17A-B74C13C20460}"/>
+    <hyperlink ref="E26" r:id="rId21" xr:uid="{E88AB393-9F2D-4308-8DF1-E133626368E0}"/>
+    <hyperlink ref="E27" r:id="rId22" xr:uid="{E5C8E4CC-F95B-472A-97DC-3B46AE5C4894}"/>
+    <hyperlink ref="E28" r:id="rId23" xr:uid="{AE39EE47-74D2-47C6-A4C1-20A941347053}"/>
+    <hyperlink ref="E20" r:id="rId24" xr:uid="{15BA94F2-F832-4B6E-9F91-283D67D891D2}"/>
+    <hyperlink ref="E21" r:id="rId25" xr:uid="{F674551C-E668-487B-9973-1142D17246DC}"/>
+    <hyperlink ref="E22" r:id="rId26" xr:uid="{F7200A17-B2D4-435C-AD77-942BEC711684}"/>
+    <hyperlink ref="E32" r:id="rId27" xr:uid="{6866099E-7F7A-4790-BE72-398E76CE2748}"/>
+    <hyperlink ref="E33" r:id="rId28" xr:uid="{A64F4A56-02C9-489C-98F9-45F5DBD60271}"/>
+    <hyperlink ref="H16" r:id="rId29" xr:uid="{1F41202F-96C2-4394-9AB2-0141E1AD464C}"/>
+    <hyperlink ref="E16" r:id="rId30" xr:uid="{1BBF97CE-DE69-4F0B-808C-B915E06CFB0F}"/>
+    <hyperlink ref="E11" r:id="rId31" xr:uid="{559F1F98-6EA8-4500-BA1B-88A0657306CB}"/>
+    <hyperlink ref="E23" r:id="rId32" xr:uid="{1D22E732-3728-47F7-8ED4-B6675F7EE754}"/>
+    <hyperlink ref="E24" r:id="rId33" xr:uid="{413FFA89-6ACE-4D66-998B-9C553BFC4937}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId30"/>
+    <tablePart r:id="rId34"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97440170-53C1-497E-AC50-82BD782247CF}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B1" t="s">
-        <v>233</v>
+        <v>675</v>
       </c>
       <c r="C1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E1" t="s">
+        <v>519</v>
+      </c>
+      <c r="F1" t="s">
+        <v>525</v>
+      </c>
+      <c r="G1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="D1" t="s">
-        <v>539</v>
-      </c>
-      <c r="E1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>251</v>
-      </c>
-      <c r="B2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D2" t="s">
-        <v>544</v>
-      </c>
       <c r="E2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+      <c r="F2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E3" t="s">
+        <v>524</v>
+      </c>
+      <c r="F3" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B4" t="s">
+        <v>667</v>
+      </c>
+      <c r="C4" t="s">
+        <v>700</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E4" t="s">
+        <v>526</v>
+      </c>
+      <c r="F4" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" t="s">
+        <v>667</v>
+      </c>
+      <c r="C5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E5" t="s">
+        <v>496</v>
+      </c>
+      <c r="F5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B6" t="s">
+        <v>667</v>
+      </c>
+      <c r="C6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>666</v>
+      </c>
+      <c r="B7" t="s">
+        <v>667</v>
+      </c>
+      <c r="C7" t="s">
+        <v>691</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F7" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>667</v>
+      </c>
+      <c r="C8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E8" t="s">
+        <v>526</v>
+      </c>
+      <c r="F8" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" t="s">
+        <v>667</v>
+      </c>
+      <c r="C9" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E9" t="s">
+        <v>528</v>
+      </c>
+      <c r="F9" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10" t="s">
+        <v>667</v>
+      </c>
+      <c r="C10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E10" t="s">
+        <v>533</v>
+      </c>
+      <c r="F10" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B11" t="s">
+        <v>667</v>
+      </c>
+      <c r="C11" t="s">
         <v>249</v>
       </c>
-      <c r="B3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D3" t="s">
-        <v>544</v>
-      </c>
-      <c r="E3" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>247</v>
-      </c>
-      <c r="B4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D4" t="s">
-        <v>516</v>
-      </c>
-      <c r="E4" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>245</v>
-      </c>
-      <c r="B5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D5" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D6" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>241</v>
-      </c>
-      <c r="B7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D7" t="s">
-        <v>549</v>
-      </c>
-      <c r="E7" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D8" t="s">
-        <v>554</v>
-      </c>
-      <c r="E8" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>254</v>
-      </c>
-      <c r="B9" t="s">
-        <v>255</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D9" t="s">
-        <v>554</v>
-      </c>
-      <c r="E9" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>329</v>
-      </c>
-      <c r="B10" t="s">
-        <v>330</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D10" t="s">
-        <v>549</v>
-      </c>
-      <c r="E10" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>331</v>
-      </c>
-      <c r="B11" t="s">
-        <v>551</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D11" t="s">
-        <v>549</v>
+      <c r="D11" s="4" t="s">
+        <v>492</v>
       </c>
       <c r="E11" t="s">
-        <v>552</v>
+        <v>533</v>
+      </c>
+      <c r="F11" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>319</v>
+      </c>
+      <c r="B12" t="s">
+        <v>667</v>
+      </c>
+      <c r="C12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E12" t="s">
+        <v>528</v>
+      </c>
+      <c r="F12" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>321</v>
+      </c>
+      <c r="B13" t="s">
+        <v>667</v>
+      </c>
+      <c r="C13" t="s">
+        <v>530</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E13" t="s">
+        <v>528</v>
+      </c>
+      <c r="F13" t="s">
+        <v>531</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{9DC44804-497D-4754-A352-C87A7952A36D}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{0F972221-1A3F-46FB-B264-6F804423D51B}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{3A9FB5A4-CFCF-4CC7-8F80-C7D84F096058}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{0EC7E0D8-9195-4F29-8267-CE77DCB30A1E}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{E8BAF002-4C44-4580-B0A2-483E0629AA15}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{56E2AE8F-4896-429E-8C21-0B1125E994C3}"/>
-    <hyperlink ref="C11" r:id="rId7" xr:uid="{11A48671-57A0-45C1-952E-655D64C03199}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{3657EB87-CB49-4673-AE15-9C11A34249C4}"/>
-    <hyperlink ref="C8" r:id="rId9" xr:uid="{175325B3-F4B0-44C4-AA64-7AA02320238A}"/>
-    <hyperlink ref="C9" r:id="rId10" xr:uid="{4F713B6C-808F-4F88-96C8-46C57245B1F9}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{9DC44804-497D-4754-A352-C87A7952A36D}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{0F972221-1A3F-46FB-B264-6F804423D51B}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{3A9FB5A4-CFCF-4CC7-8F80-C7D84F096058}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{0EC7E0D8-9195-4F29-8267-CE77DCB30A1E}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{E8BAF002-4C44-4580-B0A2-483E0629AA15}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{56E2AE8F-4896-429E-8C21-0B1125E994C3}"/>
+    <hyperlink ref="D13" r:id="rId7" xr:uid="{11A48671-57A0-45C1-952E-655D64C03199}"/>
+    <hyperlink ref="D12" r:id="rId8" xr:uid="{3657EB87-CB49-4673-AE15-9C11A34249C4}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{175325B3-F4B0-44C4-AA64-7AA02320238A}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{4F713B6C-808F-4F88-96C8-46C57245B1F9}"/>
+    <hyperlink ref="D7" r:id="rId11" xr:uid="{C7319E3F-20A2-44E7-B9F3-32F732FCCAA0}"/>
+    <hyperlink ref="D4" r:id="rId12" xr:uid="{E42CF68F-90AB-4294-9121-CBD286F4C997}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34FE8B7A-08B6-4B45-9B87-6CA9E22A21CF}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="51" customWidth="1"/>
+    <col min="1" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="4" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B1" t="s">
-        <v>233</v>
+        <v>675</v>
       </c>
       <c r="C1" t="s">
-        <v>538</v>
+        <v>228</v>
       </c>
       <c r="D1" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="E1" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="F1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+      <c r="G1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3" t="s">
+        <v>668</v>
+      </c>
+      <c r="C3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B4" t="s">
+        <v>668</v>
+      </c>
+      <c r="C4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E4" t="s">
+        <v>469</v>
+      </c>
+      <c r="F4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B5" t="s">
+        <v>668</v>
+      </c>
+      <c r="C5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E5" t="s">
+        <v>469</v>
+      </c>
+      <c r="F5" t="s">
         <v>312</v>
       </c>
-      <c r="B2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="D2" t="s">
-        <v>490</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B6" t="s">
+        <v>668</v>
+      </c>
+      <c r="C6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E6" t="s">
+        <v>469</v>
+      </c>
+      <c r="F6" t="s">
         <v>316</v>
       </c>
-      <c r="B3" t="s">
-        <v>315</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D3" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>320</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7" t="s">
+        <v>668</v>
+      </c>
+      <c r="C7" t="s">
         <v>318</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="D4" t="s">
-        <v>490</v>
-      </c>
-      <c r="E4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>323</v>
-      </c>
-      <c r="B5" t="s">
-        <v>321</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="D5" t="s">
-        <v>490</v>
-      </c>
-      <c r="E5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>324</v>
-      </c>
-      <c r="B6" t="s">
-        <v>325</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="D6" t="s">
-        <v>490</v>
-      </c>
-      <c r="E6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>327</v>
-      </c>
-      <c r="B7" t="s">
-        <v>328</v>
-      </c>
-      <c r="E7" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>580</v>
+      </c>
+      <c r="B8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C8" t="s">
+        <v>581</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E8" t="s">
+        <v>469</v>
+      </c>
+      <c r="F8" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B9" t="s">
+        <v>668</v>
+      </c>
+      <c r="C9" t="s">
+        <v>382</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E9" t="s">
+        <v>469</v>
+      </c>
+      <c r="F9" t="s">
+        <v>381</v>
+      </c>
+      <c r="G9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B10" t="s">
+        <v>668</v>
+      </c>
+      <c r="C10" t="s">
+        <v>396</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E10" t="s">
+        <v>469</v>
+      </c>
+      <c r="F10" t="s">
+        <v>397</v>
+      </c>
+      <c r="G10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>394</v>
+      </c>
+      <c r="B11" t="s">
+        <v>668</v>
+      </c>
+      <c r="C11" t="s">
+        <v>395</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E11" t="s">
+        <v>469</v>
+      </c>
+      <c r="F11" t="s">
+        <v>391</v>
+      </c>
+      <c r="G11" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>398</v>
+      </c>
+      <c r="B12" t="s">
+        <v>668</v>
+      </c>
+      <c r="C12" t="s">
+        <v>399</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E12" t="s">
+        <v>469</v>
+      </c>
+      <c r="F12" t="s">
+        <v>400</v>
+      </c>
+      <c r="G12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>401</v>
+      </c>
+      <c r="B13" t="s">
+        <v>668</v>
+      </c>
+      <c r="C13" t="s">
+        <v>403</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E13" t="s">
+        <v>469</v>
+      </c>
+      <c r="F13" t="s">
+        <v>402</v>
+      </c>
+      <c r="G13" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>404</v>
+      </c>
+      <c r="B14" t="s">
+        <v>668</v>
+      </c>
+      <c r="C14" t="s">
+        <v>390</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E14" t="s">
+        <v>469</v>
+      </c>
+      <c r="F14" t="s">
+        <v>392</v>
+      </c>
+      <c r="G14" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>414</v>
+      </c>
+      <c r="B15" t="s">
+        <v>668</v>
+      </c>
+      <c r="C15" t="s">
+        <v>415</v>
+      </c>
+      <c r="D15" t="s">
+        <v>470</v>
+      </c>
+      <c r="E15" t="s">
+        <v>469</v>
+      </c>
+      <c r="F15" t="s">
+        <v>392</v>
+      </c>
+      <c r="G15" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>434</v>
+      </c>
+      <c r="B16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C16" t="s">
+        <v>435</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E16" t="s">
+        <v>469</v>
+      </c>
+      <c r="F16" t="s">
+        <v>436</v>
+      </c>
+      <c r="G16" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>437</v>
+      </c>
+      <c r="B17" t="s">
+        <v>668</v>
+      </c>
+      <c r="C17" t="s">
+        <v>438</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E17" t="s">
+        <v>469</v>
+      </c>
+      <c r="F17" t="s">
+        <v>439</v>
+      </c>
+      <c r="G17" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>586</v>
+      </c>
+      <c r="B18" t="s">
+        <v>668</v>
+      </c>
+      <c r="C18" t="s">
+        <v>587</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E18" t="s">
+        <v>469</v>
+      </c>
+      <c r="F18" t="s">
+        <v>588</v>
+      </c>
+      <c r="G18" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>590</v>
+      </c>
+      <c r="B19" t="s">
+        <v>668</v>
+      </c>
+      <c r="C19" t="s">
+        <v>591</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E19" t="s">
+        <v>469</v>
+      </c>
+      <c r="F19" t="s">
+        <v>592</v>
+      </c>
+      <c r="G19" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>594</v>
+      </c>
+      <c r="B20" t="s">
+        <v>668</v>
+      </c>
+      <c r="C20" t="s">
+        <v>595</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E20" t="s">
+        <v>469</v>
+      </c>
+      <c r="F20" t="s">
+        <v>596</v>
+      </c>
+      <c r="G20" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>583</v>
+      </c>
+      <c r="B21" t="s">
+        <v>668</v>
+      </c>
+      <c r="C21" t="s">
+        <v>584</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E21" t="s">
+        <v>469</v>
+      </c>
+      <c r="F21" t="s">
+        <v>585</v>
+      </c>
+      <c r="G21" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>669</v>
+      </c>
+      <c r="B22" t="s">
+        <v>668</v>
+      </c>
+      <c r="C22" t="s">
+        <v>671</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E22" t="s">
+        <v>469</v>
+      </c>
+      <c r="F22" t="s">
+        <v>680</v>
+      </c>
+      <c r="G22" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>670</v>
+      </c>
+      <c r="B23" t="s">
+        <v>668</v>
+      </c>
+      <c r="C23" t="s">
+        <v>672</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E23" t="s">
+        <v>469</v>
+      </c>
+      <c r="F23" t="s">
+        <v>681</v>
+      </c>
+      <c r="G23" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>600</v>
+      </c>
+      <c r="B24" t="s">
+        <v>668</v>
+      </c>
+      <c r="C24" t="s">
         <v>601</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D24" t="s">
+        <v>622</v>
+      </c>
+      <c r="E24" t="s">
+        <v>622</v>
+      </c>
+      <c r="G24" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>602</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="D8" t="s">
-        <v>490</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="B25" t="s">
+        <v>668</v>
+      </c>
+      <c r="C25" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>390</v>
-      </c>
-      <c r="B9" t="s">
-        <v>392</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="D9" t="s">
-        <v>490</v>
-      </c>
-      <c r="E9" t="s">
-        <v>391</v>
-      </c>
-      <c r="F9" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>403</v>
-      </c>
-      <c r="B10" t="s">
-        <v>406</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="D10" t="s">
-        <v>490</v>
-      </c>
-      <c r="E10" t="s">
-        <v>407</v>
-      </c>
-      <c r="F10" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>404</v>
-      </c>
-      <c r="B11" t="s">
-        <v>405</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="D11" t="s">
-        <v>490</v>
-      </c>
-      <c r="E11" t="s">
-        <v>401</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="D25" t="s">
+        <v>622</v>
+      </c>
+      <c r="E25" t="s">
+        <v>622</v>
+      </c>
+      <c r="G25" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>408</v>
-      </c>
-      <c r="B12" t="s">
-        <v>409</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="D12" t="s">
-        <v>490</v>
-      </c>
-      <c r="E12" t="s">
-        <v>410</v>
-      </c>
-      <c r="F12" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>411</v>
-      </c>
-      <c r="B13" t="s">
-        <v>413</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="D13" t="s">
-        <v>490</v>
-      </c>
-      <c r="E13" t="s">
-        <v>412</v>
-      </c>
-      <c r="F13" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>414</v>
-      </c>
-      <c r="B14" t="s">
-        <v>400</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="D14" t="s">
-        <v>490</v>
-      </c>
-      <c r="E14" t="s">
-        <v>402</v>
-      </c>
-      <c r="F14" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>424</v>
-      </c>
-      <c r="B15" t="s">
-        <v>425</v>
-      </c>
-      <c r="C15" t="s">
-        <v>491</v>
-      </c>
-      <c r="D15" t="s">
-        <v>490</v>
-      </c>
-      <c r="E15" t="s">
-        <v>402</v>
-      </c>
-      <c r="F15" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>448</v>
-      </c>
-      <c r="B16" t="s">
-        <v>449</v>
-      </c>
-      <c r="C16" t="s">
-        <v>491</v>
-      </c>
-      <c r="D16" t="s">
-        <v>490</v>
-      </c>
-      <c r="E16" t="s">
-        <v>450</v>
-      </c>
-      <c r="F16" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>451</v>
-      </c>
-      <c r="B17" t="s">
-        <v>452</v>
-      </c>
-      <c r="C17" t="s">
-        <v>491</v>
-      </c>
-      <c r="D17" t="s">
-        <v>490</v>
-      </c>
-      <c r="E17" t="s">
-        <v>453</v>
-      </c>
-      <c r="F17" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>604</v>
+      </c>
+      <c r="B26" t="s">
+        <v>668</v>
+      </c>
+      <c r="C26" t="s">
+        <v>605</v>
+      </c>
+      <c r="D26" t="s">
+        <v>622</v>
+      </c>
+      <c r="E26" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>606</v>
+      </c>
+      <c r="B27" t="s">
+        <v>668</v>
+      </c>
+      <c r="C27" t="s">
         <v>607</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D27" t="s">
+        <v>622</v>
+      </c>
+      <c r="E27" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>608</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="D18" t="s">
-        <v>490</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="B28" t="s">
+        <v>668</v>
+      </c>
+      <c r="C28" t="s">
         <v>609</v>
       </c>
-      <c r="F18" t="s">
+      <c r="D28" t="s">
+        <v>622</v>
+      </c>
+      <c r="E28" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B29" t="s">
+        <v>668</v>
+      </c>
+      <c r="C29" t="s">
         <v>611</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D29" t="s">
+        <v>622</v>
+      </c>
+      <c r="E29" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>612</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="D19" t="s">
-        <v>490</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="B30" t="s">
+        <v>668</v>
+      </c>
+      <c r="C30" t="s">
         <v>613</v>
       </c>
-      <c r="F19" t="s">
+      <c r="D30" t="s">
+        <v>622</v>
+      </c>
+      <c r="E30" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>614</v>
+      </c>
+      <c r="B31" t="s">
+        <v>668</v>
+      </c>
+      <c r="C31" t="s">
+        <v>615</v>
+      </c>
+      <c r="D31" t="s">
+        <v>622</v>
+      </c>
+      <c r="E31" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>616</v>
+      </c>
+      <c r="B32" t="s">
+        <v>668</v>
+      </c>
+      <c r="C32" t="s">
+        <v>617</v>
+      </c>
+      <c r="D32" t="s">
+        <v>622</v>
+      </c>
+      <c r="E32" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>618</v>
+      </c>
+      <c r="B33" t="s">
+        <v>668</v>
+      </c>
+      <c r="C33" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>615</v>
-      </c>
-      <c r="B20" t="s">
-        <v>616</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="D20" t="s">
-        <v>490</v>
-      </c>
-      <c r="E20" t="s">
-        <v>617</v>
-      </c>
-      <c r="F20" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>604</v>
-      </c>
-      <c r="B21" t="s">
-        <v>605</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="D21" t="s">
-        <v>490</v>
-      </c>
-      <c r="E21" t="s">
-        <v>606</v>
-      </c>
-      <c r="F21" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>621</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D33" t="s">
         <v>622</v>
       </c>
-      <c r="C22" t="s">
-        <v>643</v>
-      </c>
-      <c r="D22" t="s">
-        <v>643</v>
-      </c>
-      <c r="F22" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>623</v>
-      </c>
-      <c r="B23" t="s">
-        <v>624</v>
-      </c>
-      <c r="C23" t="s">
-        <v>643</v>
-      </c>
-      <c r="D23" t="s">
-        <v>643</v>
-      </c>
-      <c r="F23" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>625</v>
-      </c>
-      <c r="B24" t="s">
-        <v>626</v>
-      </c>
-      <c r="C24" t="s">
-        <v>643</v>
-      </c>
-      <c r="D24" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>627</v>
-      </c>
-      <c r="B25" t="s">
-        <v>628</v>
-      </c>
-      <c r="C25" t="s">
-        <v>643</v>
-      </c>
-      <c r="D25" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>629</v>
-      </c>
-      <c r="B26" t="s">
-        <v>630</v>
-      </c>
-      <c r="C26" t="s">
-        <v>643</v>
-      </c>
-      <c r="D26" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>631</v>
-      </c>
-      <c r="B27" t="s">
-        <v>632</v>
-      </c>
-      <c r="C27" t="s">
-        <v>643</v>
-      </c>
-      <c r="D27" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>633</v>
-      </c>
-      <c r="B28" t="s">
-        <v>634</v>
-      </c>
-      <c r="C28" t="s">
-        <v>643</v>
-      </c>
-      <c r="D28" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>635</v>
-      </c>
-      <c r="B29" t="s">
-        <v>636</v>
-      </c>
-      <c r="C29" t="s">
-        <v>643</v>
-      </c>
-      <c r="D29" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>637</v>
-      </c>
-      <c r="B30" t="s">
-        <v>638</v>
-      </c>
-      <c r="C30" t="s">
-        <v>643</v>
-      </c>
-      <c r="D30" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>639</v>
-      </c>
-      <c r="B31" t="s">
-        <v>640</v>
-      </c>
-      <c r="C31" t="s">
-        <v>643</v>
-      </c>
-      <c r="D31" t="s">
-        <v>643</v>
+      <c r="E33" t="s">
+        <v>622</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{BD613481-F644-449A-9D7C-A2AC298E1EDE}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{5EE8D568-1314-47C8-AB5D-0AA48AEBDFA0}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{00FF4E2C-B63F-4739-8C92-12339C380FE4}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{6A4ADA2F-90C7-474B-81A7-2AEEFEA82C81}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{9B216669-F6B6-4EDA-BD09-BD0E93B8B171}"/>
-    <hyperlink ref="C4" r:id="rId6" xr:uid="{E4C2F59B-0EED-48B1-BD41-00E39B304B3E}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{7495B18F-242B-4D14-9F0C-1DC2B0980596}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{E6D73755-AD95-411E-B5B3-B161EE491E6F}"/>
-    <hyperlink ref="C12" r:id="rId9" xr:uid="{DD1AEE39-2E61-46A5-A4B4-92AEE7273CCD}"/>
-    <hyperlink ref="C10" r:id="rId10" xr:uid="{E153AE37-3C21-4C18-9FF5-D8BF932DFE5B}"/>
-    <hyperlink ref="C18" r:id="rId11" xr:uid="{D4539FA7-D199-49DA-BE54-95EA22CBD815}"/>
-    <hyperlink ref="C19" r:id="rId12" xr:uid="{4CD744BE-0D40-44B9-9364-A8A63FDB93D0}"/>
-    <hyperlink ref="C21" r:id="rId13" xr:uid="{7D5522D7-2C66-4460-A94B-116D8711A7F3}"/>
-    <hyperlink ref="C20" r:id="rId14" xr:uid="{88FE4BFF-AAD7-4E03-B49E-75B9F220F8A6}"/>
-    <hyperlink ref="C13" r:id="rId15" xr:uid="{BFF63971-669E-4310-A764-BAB1967618DE}"/>
-    <hyperlink ref="C14" r:id="rId16" xr:uid="{9F90323F-0131-4C88-824A-A57B906B874D}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{BD613481-F644-449A-9D7C-A2AC298E1EDE}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{5EE8D568-1314-47C8-AB5D-0AA48AEBDFA0}"/>
+    <hyperlink ref="D6" r:id="rId3" xr:uid="{00FF4E2C-B63F-4739-8C92-12339C380FE4}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{6A4ADA2F-90C7-474B-81A7-2AEEFEA82C81}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{9B216669-F6B6-4EDA-BD09-BD0E93B8B171}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{E4C2F59B-0EED-48B1-BD41-00E39B304B3E}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{7495B18F-242B-4D14-9F0C-1DC2B0980596}"/>
+    <hyperlink ref="D11" r:id="rId8" xr:uid="{E6D73755-AD95-411E-B5B3-B161EE491E6F}"/>
+    <hyperlink ref="D12" r:id="rId9" xr:uid="{DD1AEE39-2E61-46A5-A4B4-92AEE7273CCD}"/>
+    <hyperlink ref="D10" r:id="rId10" xr:uid="{E153AE37-3C21-4C18-9FF5-D8BF932DFE5B}"/>
+    <hyperlink ref="D18" r:id="rId11" xr:uid="{D4539FA7-D199-49DA-BE54-95EA22CBD815}"/>
+    <hyperlink ref="D19" r:id="rId12" xr:uid="{4CD744BE-0D40-44B9-9364-A8A63FDB93D0}"/>
+    <hyperlink ref="D21" r:id="rId13" xr:uid="{7D5522D7-2C66-4460-A94B-116D8711A7F3}"/>
+    <hyperlink ref="D20" r:id="rId14" xr:uid="{88FE4BFF-AAD7-4E03-B49E-75B9F220F8A6}"/>
+    <hyperlink ref="D13" r:id="rId15" xr:uid="{BFF63971-669E-4310-A764-BAB1967618DE}"/>
+    <hyperlink ref="D14" r:id="rId16" xr:uid="{9F90323F-0131-4C88-824A-A57B906B874D}"/>
+    <hyperlink ref="D16" r:id="rId17" xr:uid="{11BE2D1C-CDFD-43F8-8D36-D6B41DCEBAE2}"/>
+    <hyperlink ref="D17" r:id="rId18" xr:uid="{F941970E-499F-40D0-B829-A79DE2936B36}"/>
+    <hyperlink ref="D22" r:id="rId19" xr:uid="{F795538A-EEA8-4D3A-9811-783946A59DCF}"/>
+    <hyperlink ref="D23" r:id="rId20" xr:uid="{331D3650-C2AB-4825-9F7E-9DE1CBDA471B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId21"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C344C7D-81F0-47D9-B06F-CFAE20D2FF21}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="A12:B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C1" t="s">
         <v>234</v>
       </c>
-      <c r="B1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C1" t="s">
-        <v>538</v>
-      </c>
       <c r="D1" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="E1" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="F1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+      <c r="G1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D2" t="s">
-        <v>498</v>
-      </c>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E2" t="s">
+        <v>477</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D3" t="s">
-        <v>498</v>
-      </c>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E3" t="s">
+        <v>477</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E4" t="s">
+        <v>560</v>
+      </c>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E5" t="s">
+        <v>549</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>548</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E6" t="s">
+        <v>549</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="G6" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>336</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E7" t="s">
+        <v>493</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="G7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="E8" t="s">
+        <v>562</v>
+      </c>
+      <c r="F8" s="9">
+        <v>570</v>
+      </c>
+      <c r="G8" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>517</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>624</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E9" t="s">
+        <v>625</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>576</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>577</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E10" t="s">
+        <v>721</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>578</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
         <v>579</v>
       </c>
-      <c r="B4" t="s">
-        <v>580</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D4" t="s">
-        <v>581</v>
-      </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>340</v>
-      </c>
-      <c r="B5" t="s">
-        <v>341</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D5" t="s">
-        <v>570</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="D11" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E11" t="s">
+        <v>721</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>679</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>342</v>
-      </c>
-      <c r="B6" t="s">
-        <v>569</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D6" t="s">
-        <v>570</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="F6" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>343</v>
-      </c>
-      <c r="B7" t="s">
-        <v>346</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D7" t="s">
-        <v>513</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="F7" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B8" t="s">
-        <v>351</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="D8" t="s">
-        <v>583</v>
-      </c>
-      <c r="E8" s="9">
-        <v>570</v>
-      </c>
-      <c r="F8" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>537</v>
-      </c>
-      <c r="B9" t="s">
-        <v>645</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D9" t="s">
-        <v>646</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>597</v>
-      </c>
-      <c r="B10" t="s">
-        <v>598</v>
-      </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>599</v>
-      </c>
-      <c r="B11" t="s">
-        <v>600</v>
-      </c>
-      <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E15" s="9"/>
+      <c r="D12" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E12" t="s">
+        <v>524</v>
+      </c>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{028CE3F7-58BE-4824-8215-CED960B12663}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{901D71D6-F8BA-488A-AA16-E03149045AF7}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{7FADECBE-307C-462B-94E9-4A5FA5A57A22}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{02CC9097-E80D-460A-8536-4D94AF3EC6D4}"/>
-    <hyperlink ref="C4" r:id="rId5" xr:uid="{D83D3F9E-FE84-483B-9E79-A83854009024}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{FEDCB7FF-7863-4E93-B2EC-D53A88FB6BD5}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{8FE5EEE1-3A87-4EB9-81E7-B383C7D93C59}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{1F78706B-4359-4865-9440-FEA982D7C6E7}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{028CE3F7-58BE-4824-8215-CED960B12663}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{901D71D6-F8BA-488A-AA16-E03149045AF7}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{7FADECBE-307C-462B-94E9-4A5FA5A57A22}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{02CC9097-E80D-460A-8536-4D94AF3EC6D4}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{D83D3F9E-FE84-483B-9E79-A83854009024}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{FEDCB7FF-7863-4E93-B2EC-D53A88FB6BD5}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{8FE5EEE1-3A87-4EB9-81E7-B383C7D93C59}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{1F78706B-4359-4865-9440-FEA982D7C6E7}"/>
+    <hyperlink ref="D12" r:id="rId9" xr:uid="{F3B6BC83-9180-404D-851A-5678063A8099}"/>
+    <hyperlink ref="D10" r:id="rId10" xr:uid="{FB4EB383-4CD5-4EB3-B2B9-AF397A8EDB56}"/>
+    <hyperlink ref="D11" r:id="rId11" xr:uid="{FBE1C8F6-66F8-457A-A62C-64FCBF4D632F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E074DA21-E52B-447A-962F-8A94683064C4}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1"/>
-    <col min="6" max="6" width="44" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C1" t="s">
         <v>234</v>
       </c>
-      <c r="B1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F1" t="s">
+        <v>479</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="E2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F2" t="s">
+        <v>473</v>
+      </c>
+      <c r="G2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="E3" t="s">
+        <v>472</v>
+      </c>
+      <c r="F3" t="s">
+        <v>474</v>
+      </c>
+      <c r="G3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>491</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="E4" t="s">
+        <v>472</v>
+      </c>
+      <c r="F4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E5" t="s">
+        <v>493</v>
+      </c>
+      <c r="F5" t="s">
+        <v>494</v>
+      </c>
+      <c r="G5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>633</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="G6" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E7" t="s">
+        <v>484</v>
+      </c>
+      <c r="F7" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>523</v>
+      </c>
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" t="s">
+        <v>635</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E8" t="s">
+        <v>521</v>
+      </c>
+      <c r="F8" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>629</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
+        <v>637</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E9" t="s">
+        <v>524</v>
+      </c>
+      <c r="G9" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>631</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>630</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E10" t="s">
+        <v>524</v>
+      </c>
+      <c r="G10" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>632</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" t="s">
+        <v>627</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E11" t="s">
+        <v>524</v>
+      </c>
+      <c r="G11" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>638</v>
+      </c>
+      <c r="B12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" t="s">
+        <v>628</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E12" t="s">
+        <v>524</v>
+      </c>
+      <c r="G12" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>642</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>639</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E13" t="s">
+        <v>524</v>
+      </c>
+      <c r="G13" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>274</v>
+      </c>
+      <c r="B14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>450</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E14" t="s">
+        <v>480</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>449</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" t="s">
+        <v>451</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E15" t="s">
+        <v>480</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>453</v>
+      </c>
+      <c r="B16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" t="s">
+        <v>709</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E16" t="s">
+        <v>480</v>
+      </c>
+      <c r="F16" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>455</v>
+      </c>
+      <c r="B17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" t="s">
+        <v>710</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E17" t="s">
+        <v>480</v>
+      </c>
+      <c r="F17" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>456</v>
+      </c>
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s">
+        <v>711</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E18" t="s">
+        <v>480</v>
+      </c>
+      <c r="F18" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>457</v>
+      </c>
+      <c r="B19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" t="s">
+        <v>712</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E19" t="s">
+        <v>480</v>
+      </c>
+      <c r="F19" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>461</v>
+      </c>
+      <c r="B20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" t="s">
+        <v>713</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E20" t="s">
+        <v>480</v>
+      </c>
+      <c r="F20" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>462</v>
+      </c>
+      <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" t="s">
+        <v>714</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E21" t="s">
+        <v>480</v>
+      </c>
+      <c r="F21" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>463</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" t="s">
+        <v>715</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E22" t="s">
+        <v>480</v>
+      </c>
+      <c r="F22" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>464</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" t="s">
+        <v>716</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E23" t="s">
+        <v>480</v>
+      </c>
+      <c r="F23" t="s">
+        <v>468</v>
+      </c>
+      <c r="G23" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>446</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" t="s">
+        <v>717</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>448</v>
+      </c>
+      <c r="B25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" t="s">
+        <v>718</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>708</v>
+      </c>
+      <c r="B26" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" t="s">
+        <v>719</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>287</v>
+      </c>
+      <c r="B27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" t="s">
+        <v>503</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E27" t="s">
+        <v>655</v>
+      </c>
+      <c r="F27" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>299</v>
+      </c>
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" t="s">
+        <v>502</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E28" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>300</v>
+      </c>
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" t="s">
+        <v>501</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E29" t="s">
         <v>497</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F29" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>301</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" t="s">
         <v>500</v>
       </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D30" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E30" t="s">
+        <v>499</v>
+      </c>
+      <c r="G30" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>285</v>
+      </c>
+      <c r="B31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" t="s">
+        <v>291</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E31" t="s">
+        <v>524</v>
+      </c>
+      <c r="G31" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>289</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
+        <v>292</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E32" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>290</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
+        <v>293</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E33" t="s">
+        <v>524</v>
+      </c>
+      <c r="G33" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>295</v>
+      </c>
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" t="s">
+        <v>296</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E34" t="s">
+        <v>504</v>
+      </c>
+      <c r="F34" t="s">
+        <v>505</v>
+      </c>
+      <c r="G34" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>447</v>
+      </c>
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" t="s">
+        <v>514</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E35" t="s">
+        <v>469</v>
+      </c>
+      <c r="F35" t="s">
+        <v>515</v>
+      </c>
+      <c r="G35" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>640</v>
+      </c>
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" t="s">
+        <v>641</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E36" t="s">
+        <v>524</v>
+      </c>
+      <c r="G36" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>286</v>
+      </c>
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" t="s">
+        <v>288</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E37" t="s">
+        <v>524</v>
+      </c>
+      <c r="G37" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>677</v>
+      </c>
+      <c r="B38" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" t="s">
+        <v>424</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E38" t="s">
+        <v>496</v>
+      </c>
+      <c r="F38" t="s">
+        <v>707</v>
+      </c>
+      <c r="G38" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>678</v>
+      </c>
+      <c r="B39" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" t="s">
+        <v>423</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E39" t="s">
+        <v>496</v>
+      </c>
+      <c r="F39" t="s">
+        <v>706</v>
+      </c>
+      <c r="G39" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>275</v>
+      </c>
+      <c r="B40" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" t="s">
+        <v>478</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E40" t="s">
+        <v>477</v>
+      </c>
+      <c r="F40" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>276</v>
+      </c>
+      <c r="B41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" t="s">
+        <v>277</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E41" t="s">
+        <v>477</v>
+      </c>
+      <c r="F41" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>278</v>
+      </c>
+      <c r="B42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" t="s">
+        <v>279</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E42" t="s">
+        <v>477</v>
+      </c>
+      <c r="F42" t="s">
         <v>508</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>282</v>
+      </c>
+      <c r="B43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" t="s">
         <v>509</v>
       </c>
-      <c r="D2" t="s">
-        <v>493</v>
-      </c>
-      <c r="E2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>258</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D43" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E43" t="s">
+        <v>512</v>
+      </c>
+      <c r="F43" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>283</v>
+      </c>
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" t="s">
+        <v>284</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E44" t="s">
         <v>510</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="D3" t="s">
-        <v>493</v>
-      </c>
-      <c r="E3" t="s">
-        <v>495</v>
-      </c>
-      <c r="F3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="F44" t="s">
         <v>511</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="D4" t="s">
-        <v>493</v>
-      </c>
-      <c r="E4" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D5" t="s">
-        <v>513</v>
-      </c>
-      <c r="E5" t="s">
-        <v>514</v>
-      </c>
-      <c r="F5" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>279</v>
-      </c>
-      <c r="B6" t="s">
-        <v>654</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="F6" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>286</v>
-      </c>
-      <c r="B7" t="s">
-        <v>287</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="D7" t="s">
-        <v>504</v>
-      </c>
-      <c r="E7" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>543</v>
-      </c>
-      <c r="B8" t="s">
-        <v>656</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="D8" t="s">
-        <v>541</v>
-      </c>
-      <c r="E8" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>650</v>
-      </c>
-      <c r="B9" t="s">
-        <v>658</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D9" t="s">
-        <v>544</v>
-      </c>
-      <c r="F9" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>652</v>
-      </c>
-      <c r="B10" t="s">
-        <v>651</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D10" t="s">
-        <v>544</v>
-      </c>
-      <c r="F10" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>653</v>
-      </c>
-      <c r="B11" t="s">
-        <v>648</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D11" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>659</v>
-      </c>
-      <c r="B12" t="s">
-        <v>649</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D12" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>665</v>
-      </c>
-      <c r="B13" t="s">
-        <v>660</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D13" t="s">
-        <v>544</v>
-      </c>
-      <c r="F13" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>280</v>
-      </c>
-      <c r="B14" t="s">
-        <v>462</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="D14" t="s">
-        <v>501</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>461</v>
-      </c>
-      <c r="B15" t="s">
-        <v>463</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="D15" t="s">
-        <v>501</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>466</v>
-      </c>
-      <c r="B16" t="s">
-        <v>467</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="D16" t="s">
-        <v>501</v>
-      </c>
-      <c r="E16" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>469</v>
-      </c>
-      <c r="B17" t="s">
-        <v>472</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="D17" t="s">
-        <v>501</v>
-      </c>
-      <c r="E17" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>470</v>
-      </c>
-      <c r="B18" t="s">
-        <v>473</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="D18" t="s">
-        <v>501</v>
-      </c>
-      <c r="E18" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>471</v>
-      </c>
-      <c r="B19" t="s">
-        <v>474</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="D19" t="s">
-        <v>501</v>
-      </c>
-      <c r="E19" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>478</v>
-      </c>
-      <c r="B20" t="s">
-        <v>483</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="D20" t="s">
-        <v>501</v>
-      </c>
-      <c r="E20" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>479</v>
-      </c>
-      <c r="B21" t="s">
-        <v>484</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="D21" t="s">
-        <v>501</v>
-      </c>
-      <c r="E21" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>480</v>
-      </c>
-      <c r="B22" t="s">
-        <v>485</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="D22" t="s">
-        <v>501</v>
-      </c>
-      <c r="E22" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>481</v>
-      </c>
-      <c r="B23" t="s">
-        <v>486</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="D23" t="s">
-        <v>501</v>
-      </c>
-      <c r="E23" t="s">
-        <v>489</v>
-      </c>
-      <c r="F23" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>293</v>
-      </c>
-      <c r="B25" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>306</v>
-      </c>
-      <c r="B26" t="s">
-        <v>522</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D26" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>307</v>
-      </c>
-      <c r="B27" t="s">
-        <v>521</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D27" t="s">
-        <v>517</v>
-      </c>
-      <c r="E27" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>308</v>
-      </c>
-      <c r="B28" t="s">
-        <v>520</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D28" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>291</v>
-      </c>
-      <c r="B30" t="s">
-        <v>297</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D30" t="s">
-        <v>544</v>
-      </c>
-      <c r="F30" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>295</v>
-      </c>
-      <c r="B31" t="s">
-        <v>298</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D31" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>296</v>
-      </c>
-      <c r="B32" t="s">
-        <v>299</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D32" t="s">
-        <v>544</v>
-      </c>
-      <c r="F32" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>302</v>
-      </c>
-      <c r="B33" t="s">
-        <v>303</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D33" t="s">
-        <v>524</v>
-      </c>
-      <c r="E33" t="s">
-        <v>525</v>
-      </c>
-      <c r="F33" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>460</v>
-      </c>
-      <c r="B34" t="s">
-        <v>534</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="D34" t="s">
-        <v>490</v>
-      </c>
-      <c r="E34" t="s">
-        <v>535</v>
-      </c>
-      <c r="F34" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>662</v>
-      </c>
-      <c r="B35" t="s">
-        <v>663</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D35" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>292</v>
-      </c>
-      <c r="B36" t="s">
-        <v>294</v>
-      </c>
-      <c r="F36" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>281</v>
-      </c>
-      <c r="B37" t="s">
-        <v>499</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D37" t="s">
-        <v>498</v>
-      </c>
-      <c r="E37" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>282</v>
-      </c>
-      <c r="B38" t="s">
-        <v>283</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D38" t="s">
-        <v>498</v>
-      </c>
-      <c r="E38" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>284</v>
-      </c>
-      <c r="B39" t="s">
-        <v>285</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D39" t="s">
-        <v>498</v>
-      </c>
-      <c r="E39" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>288</v>
-      </c>
-      <c r="B40" t="s">
-        <v>529</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="D40" t="s">
-        <v>532</v>
-      </c>
-      <c r="E40" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>289</v>
-      </c>
-      <c r="B41" t="s">
-        <v>290</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D41" t="s">
-        <v>530</v>
-      </c>
-      <c r="E41" t="s">
-        <v>531</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1" xr:uid="{7985D248-2698-4CE0-953D-017CA1DF6B55}"/>
-    <hyperlink ref="C15" r:id="rId2" xr:uid="{9D3E3691-4218-46E8-87AB-03C0AE519544}"/>
-    <hyperlink ref="C16" r:id="rId3" xr:uid="{DB312B00-E2A6-49E6-8D3C-C346BB5DFA80}"/>
-    <hyperlink ref="C17" r:id="rId4" xr:uid="{45169648-44D3-4254-97EB-3F4A1849926D}"/>
-    <hyperlink ref="C18" r:id="rId5" xr:uid="{EDDE63E7-0AE2-43D6-840D-B750F4F5BE44}"/>
-    <hyperlink ref="C19" r:id="rId6" xr:uid="{AC441A03-5C3B-4063-85F4-A02BE1A36AFA}"/>
-    <hyperlink ref="C20" r:id="rId7" xr:uid="{94AD87E8-F19C-4807-8EEF-F600A05E0D59}"/>
-    <hyperlink ref="C21" r:id="rId8" xr:uid="{3A56A037-4288-4BE8-9B37-B39F56AB2660}"/>
-    <hyperlink ref="C22" r:id="rId9" xr:uid="{D76C86A9-2E12-4F62-8598-52F5CF201FC4}"/>
-    <hyperlink ref="C23" r:id="rId10" display="MISUMI" xr:uid="{A365E804-6677-425E-BCEB-0D13AA5DAA2F}"/>
-    <hyperlink ref="C7" r:id="rId11" xr:uid="{29008C5B-4869-4AE4-BB3F-D1CCB96C73C7}"/>
-    <hyperlink ref="C6" r:id="rId12" xr:uid="{5759A6CA-5FA0-4FFC-8AA6-BF5DBC91E0B4}"/>
-    <hyperlink ref="C2" r:id="rId13" xr:uid="{DF69915F-44B4-4132-BA92-C0F98C17F23D}"/>
-    <hyperlink ref="C3" r:id="rId14" xr:uid="{31AC947B-A1F6-4545-9622-C2ED25C2C20F}"/>
-    <hyperlink ref="C4" r:id="rId15" xr:uid="{40D02E9D-BA00-4439-9B1F-8607D69B666C}"/>
-    <hyperlink ref="C5" r:id="rId16" xr:uid="{51E3785A-577F-4F8D-AE9D-32FB44444C14}"/>
-    <hyperlink ref="C27" r:id="rId17" xr:uid="{CFB7316E-DF90-4094-92D3-D30DF906966D}"/>
-    <hyperlink ref="C28" r:id="rId18" xr:uid="{8A795FB9-BFE7-42F8-9106-82D4EFACD311}"/>
-    <hyperlink ref="C26" r:id="rId19" xr:uid="{7D55B654-DACB-4169-99AD-D418895D95CC}"/>
-    <hyperlink ref="C32" r:id="rId20" xr:uid="{181A5BA6-A9EC-4451-A145-87E15B3F8AA2}"/>
-    <hyperlink ref="C30" r:id="rId21" xr:uid="{6028D50A-83AA-4E0F-A6DF-FB6CFBA0B74F}"/>
-    <hyperlink ref="C31" r:id="rId22" xr:uid="{3353FF92-25E9-4FCA-8D76-F6D91949B600}"/>
-    <hyperlink ref="C33" r:id="rId23" xr:uid="{99D76979-3473-47D7-9FF5-32DDB351AEE2}"/>
-    <hyperlink ref="C38" r:id="rId24" xr:uid="{714DC61F-EF8E-4C00-B13A-8408249D6EBE}"/>
-    <hyperlink ref="C37" r:id="rId25" xr:uid="{F702D288-7B8C-4AA5-A480-E7EACE27A0C2}"/>
-    <hyperlink ref="C39" r:id="rId26" xr:uid="{94325D96-442F-4F6B-A64E-C298BE4FDFAE}"/>
-    <hyperlink ref="C41" r:id="rId27" xr:uid="{0A3FCA0F-E9E6-4192-BFC7-7F7D22169DF5}"/>
-    <hyperlink ref="C40" r:id="rId28" xr:uid="{6193D052-518E-4B75-B0DE-407E21909619}"/>
-    <hyperlink ref="C34" r:id="rId29" xr:uid="{D38E43C2-F03C-47D7-95DD-38A601A9303D}"/>
-    <hyperlink ref="C8" r:id="rId30" xr:uid="{2D116DCD-594D-4E2E-8554-A97D8BDD5BF7}"/>
-    <hyperlink ref="C9" r:id="rId31" xr:uid="{E6B3F304-81B5-4915-931D-E468BC4FFA67}"/>
-    <hyperlink ref="C13" r:id="rId32" xr:uid="{64E1CD54-6E7E-4224-821D-D9507F05DA83}"/>
-    <hyperlink ref="C35" r:id="rId33" xr:uid="{24AD492A-2238-4AA0-8782-8AD407BBE200}"/>
-    <hyperlink ref="C10" r:id="rId34" xr:uid="{3A6C787A-84A0-480C-BD0A-7EF41527CDD0}"/>
-    <hyperlink ref="C11" r:id="rId35" xr:uid="{694951C2-2E18-4459-BAC8-302200F7F754}"/>
-    <hyperlink ref="C12" r:id="rId36" xr:uid="{6873B827-98E9-4869-834B-2198504DA68C}"/>
+    <hyperlink ref="D14" r:id="rId1" xr:uid="{7985D248-2698-4CE0-953D-017CA1DF6B55}"/>
+    <hyperlink ref="D15" r:id="rId2" xr:uid="{9D3E3691-4218-46E8-87AB-03C0AE519544}"/>
+    <hyperlink ref="D16" r:id="rId3" xr:uid="{DB312B00-E2A6-49E6-8D3C-C346BB5DFA80}"/>
+    <hyperlink ref="D17" r:id="rId4" xr:uid="{45169648-44D3-4254-97EB-3F4A1849926D}"/>
+    <hyperlink ref="D18" r:id="rId5" xr:uid="{EDDE63E7-0AE2-43D6-840D-B750F4F5BE44}"/>
+    <hyperlink ref="D19" r:id="rId6" xr:uid="{AC441A03-5C3B-4063-85F4-A02BE1A36AFA}"/>
+    <hyperlink ref="D20" r:id="rId7" xr:uid="{94AD87E8-F19C-4807-8EEF-F600A05E0D59}"/>
+    <hyperlink ref="D21" r:id="rId8" xr:uid="{3A56A037-4288-4BE8-9B37-B39F56AB2660}"/>
+    <hyperlink ref="D22" r:id="rId9" xr:uid="{D76C86A9-2E12-4F62-8598-52F5CF201FC4}"/>
+    <hyperlink ref="D23" r:id="rId10" display="MISUMI" xr:uid="{A365E804-6677-425E-BCEB-0D13AA5DAA2F}"/>
+    <hyperlink ref="D7" r:id="rId11" xr:uid="{29008C5B-4869-4AE4-BB3F-D1CCB96C73C7}"/>
+    <hyperlink ref="D6" r:id="rId12" xr:uid="{5759A6CA-5FA0-4FFC-8AA6-BF5DBC91E0B4}"/>
+    <hyperlink ref="D2" r:id="rId13" xr:uid="{DF69915F-44B4-4132-BA92-C0F98C17F23D}"/>
+    <hyperlink ref="D3" r:id="rId14" xr:uid="{31AC947B-A1F6-4545-9622-C2ED25C2C20F}"/>
+    <hyperlink ref="D4" r:id="rId15" xr:uid="{40D02E9D-BA00-4439-9B1F-8607D69B666C}"/>
+    <hyperlink ref="D5" r:id="rId16" xr:uid="{51E3785A-577F-4F8D-AE9D-32FB44444C14}"/>
+    <hyperlink ref="D29" r:id="rId17" xr:uid="{CFB7316E-DF90-4094-92D3-D30DF906966D}"/>
+    <hyperlink ref="D30" r:id="rId18" xr:uid="{8A795FB9-BFE7-42F8-9106-82D4EFACD311}"/>
+    <hyperlink ref="D28" r:id="rId19" xr:uid="{7D55B654-DACB-4169-99AD-D418895D95CC}"/>
+    <hyperlink ref="D33" r:id="rId20" xr:uid="{181A5BA6-A9EC-4451-A145-87E15B3F8AA2}"/>
+    <hyperlink ref="D31" r:id="rId21" xr:uid="{6028D50A-83AA-4E0F-A6DF-FB6CFBA0B74F}"/>
+    <hyperlink ref="D32" r:id="rId22" xr:uid="{3353FF92-25E9-4FCA-8D76-F6D91949B600}"/>
+    <hyperlink ref="D34" r:id="rId23" xr:uid="{99D76979-3473-47D7-9FF5-32DDB351AEE2}"/>
+    <hyperlink ref="D41" r:id="rId24" xr:uid="{714DC61F-EF8E-4C00-B13A-8408249D6EBE}"/>
+    <hyperlink ref="D40" r:id="rId25" xr:uid="{F702D288-7B8C-4AA5-A480-E7EACE27A0C2}"/>
+    <hyperlink ref="D42" r:id="rId26" xr:uid="{94325D96-442F-4F6B-A64E-C298BE4FDFAE}"/>
+    <hyperlink ref="D44" r:id="rId27" xr:uid="{0A3FCA0F-E9E6-4192-BFC7-7F7D22169DF5}"/>
+    <hyperlink ref="D43" r:id="rId28" xr:uid="{6193D052-518E-4B75-B0DE-407E21909619}"/>
+    <hyperlink ref="D35" r:id="rId29" xr:uid="{D38E43C2-F03C-47D7-95DD-38A601A9303D}"/>
+    <hyperlink ref="D8" r:id="rId30" xr:uid="{2D116DCD-594D-4E2E-8554-A97D8BDD5BF7}"/>
+    <hyperlink ref="D9" r:id="rId31" xr:uid="{E6B3F304-81B5-4915-931D-E468BC4FFA67}"/>
+    <hyperlink ref="D13" r:id="rId32" xr:uid="{64E1CD54-6E7E-4224-821D-D9507F05DA83}"/>
+    <hyperlink ref="D36" r:id="rId33" xr:uid="{24AD492A-2238-4AA0-8782-8AD407BBE200}"/>
+    <hyperlink ref="D10" r:id="rId34" xr:uid="{3A6C787A-84A0-480C-BD0A-7EF41527CDD0}"/>
+    <hyperlink ref="D11" r:id="rId35" xr:uid="{694951C2-2E18-4459-BAC8-302200F7F754}"/>
+    <hyperlink ref="D12" r:id="rId36" xr:uid="{6873B827-98E9-4869-834B-2198504DA68C}"/>
+    <hyperlink ref="D37" r:id="rId37" xr:uid="{4671F58F-C51C-44C3-9DD6-247DAFD654CF}"/>
+    <hyperlink ref="D27" r:id="rId38" xr:uid="{7B3DB29F-0229-4EF4-B1AF-D90B4FA6976C}"/>
+    <hyperlink ref="D39" r:id="rId39" xr:uid="{DCA4779D-48D5-4B6E-A525-0C25F95D750B}"/>
+    <hyperlink ref="D38" r:id="rId40" xr:uid="{F379C8F4-54D9-4A54-9402-093FECAC45F4}"/>
+    <hyperlink ref="D24" r:id="rId41" xr:uid="{92BDCC59-EF05-4718-B373-A501A3FAD629}"/>
+    <hyperlink ref="D26" r:id="rId42" xr:uid="{13FE9604-F523-43F4-A933-7D5D8196E229}"/>
+    <hyperlink ref="D25" r:id="rId43" xr:uid="{39D5AEAF-4826-46C9-8521-B90F42F6869F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId37"/>
+  <pageSetup orientation="portrait" r:id="rId44"/>
   <tableParts count="1">
-    <tablePart r:id="rId38"/>
+    <tablePart r:id="rId45"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7EF81F-45B8-4E66-A9E2-1FE1CC554550}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B1" t="s">
-        <v>233</v>
+        <v>675</v>
       </c>
       <c r="C1" t="s">
-        <v>538</v>
+        <v>228</v>
       </c>
       <c r="D1" t="s">
-        <v>539</v>
+        <v>518</v>
       </c>
       <c r="E1" t="s">
-        <v>545</v>
+        <v>519</v>
       </c>
       <c r="F1" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+      <c r="G1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B2" t="s">
-        <v>433</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="G2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B3" t="s">
-        <v>434</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="G3" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="B4" t="s">
-        <v>592</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>544</v>
-      </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="G4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="B5" t="s">
-        <v>587</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="F5" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>442</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>589</v>
-      </c>
-      <c r="F6" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>441</v>
-      </c>
-      <c r="B7" t="s">
-        <v>439</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="F7" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>445</v>
-      </c>
-      <c r="B8" t="s">
-        <v>444</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>591</v>
-      </c>
-      <c r="E8" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>431</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" t="s">
+        <v>425</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{BE7421FD-6E82-4EFB-83BF-681B660075D4}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{FD578E84-73EE-485A-A20E-23456B738A57}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{66D2DB1C-C488-4DC7-9529-081AD1715AAE}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{DB35E28D-2642-4AA3-86A6-A96F1D4D45D9}"/>
-    <hyperlink ref="C4" r:id="rId5" xr:uid="{F3B6BC83-9180-404D-851A-5678063A8099}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{BE7421FD-6E82-4EFB-83BF-681B660075D4}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{FD578E84-73EE-485A-A20E-23456B738A57}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{66D2DB1C-C488-4DC7-9529-081AD1715AAE}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{DB35E28D-2642-4AA3-86A6-A96F1D4D45D9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>